--- a/01_Dimension 1-10/10_Measuring Foil.xlsx
+++ b/01_Dimension 1-10/10_Measuring Foil.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\proecho\01_Dimension 1-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pakaw\oxsoft\metrikos\evgenis\01_Dimension 1-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="21045" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="21045"/>
   </bookViews>
   <sheets>
     <sheet name="Data Record" sheetId="19" r:id="rId1"/>
@@ -1909,7 +1909,7 @@
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="388">
+  <cellXfs count="385">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2606,10 +2606,58 @@
     <xf numFmtId="0" fontId="67" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="167" fontId="68" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="68" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="70" fillId="0" borderId="9" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="70" fillId="0" borderId="7" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="70" fillId="0" borderId="10" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="67" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="67" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="67" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="67" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="67" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="67" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="68" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="68" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="68" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="68" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2639,77 +2687,11 @@
     <xf numFmtId="167" fontId="69" fillId="0" borderId="4" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="70" fillId="0" borderId="9" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="70" fillId="0" borderId="7" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="70" fillId="0" borderId="10" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="70" fillId="0" borderId="5" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="70" fillId="0" borderId="8" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="70" fillId="0" borderId="6" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="68" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="68" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="68" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="67" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2741,13 +2723,10 @@
     <xf numFmtId="0" fontId="72" fillId="0" borderId="13" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="10" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2813,6 +2792,21 @@
     <xf numFmtId="0" fontId="72" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="9" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2831,11 +2825,8 @@
     <xf numFmtId="0" fontId="72" fillId="0" borderId="13" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2861,13 +2852,37 @@
     <xf numFmtId="176" fontId="39" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="9" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
@@ -2885,28 +2900,46 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="9" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2927,27 +2960,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2956,48 +2968,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3021,6 +2991,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="14" borderId="5" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3126,8 +3117,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -3193,8 +3184,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>23</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -3260,8 +3251,8 @@
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -3327,8 +3318,8 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -3880,8 +3871,8 @@
   </sheetPr>
   <dimension ref="A1:IN74"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF23" sqref="AF23:AH23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32:AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="18.75" customHeight="1"/>
@@ -3897,31 +3888,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:248" ht="23.1" customHeight="1">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="288"/>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="281"/>
       <c r="K1" s="99" t="s">
         <v>65</v>
       </c>
       <c r="M1" s="99"/>
       <c r="N1" s="99"/>
-      <c r="O1" s="290" t="s">
+      <c r="O1" s="283" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="290"/>
-      <c r="Q1" s="290"/>
-      <c r="R1" s="290"/>
-      <c r="S1" s="290"/>
-      <c r="T1" s="290"/>
+      <c r="P1" s="283"/>
+      <c r="Q1" s="283"/>
+      <c r="R1" s="283"/>
+      <c r="S1" s="283"/>
+      <c r="T1" s="283"/>
       <c r="U1" s="100"/>
       <c r="V1" s="100"/>
       <c r="W1" s="100"/>
@@ -3945,58 +3936,58 @@
       <c r="AG1" s="101"/>
     </row>
     <row r="2" spans="1:248" ht="23.1" customHeight="1">
-      <c r="A2" s="288"/>
-      <c r="B2" s="288"/>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="288"/>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
+      <c r="A2" s="281"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="281"/>
       <c r="K2" s="100" t="s">
         <v>68</v>
       </c>
       <c r="M2" s="99"/>
       <c r="N2" s="100"/>
-      <c r="O2" s="293">
+      <c r="O2" s="286">
         <v>42506</v>
       </c>
-      <c r="P2" s="293"/>
-      <c r="Q2" s="293"/>
-      <c r="R2" s="293"/>
-      <c r="S2" s="293"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="286"/>
+      <c r="R2" s="286"/>
+      <c r="S2" s="286"/>
       <c r="T2" s="100" t="s">
         <v>69</v>
       </c>
       <c r="W2" s="103"/>
       <c r="X2" s="103"/>
-      <c r="Y2" s="294">
+      <c r="Y2" s="287">
         <v>42507</v>
       </c>
-      <c r="Z2" s="294"/>
-      <c r="AA2" s="294"/>
-      <c r="AB2" s="294"/>
-      <c r="AC2" s="294"/>
+      <c r="Z2" s="287"/>
+      <c r="AA2" s="287"/>
+      <c r="AB2" s="287"/>
+      <c r="AC2" s="287"/>
       <c r="AD2" s="197"/>
       <c r="AE2" s="101"/>
       <c r="AF2" s="101"/>
       <c r="AG2" s="101"/>
     </row>
     <row r="3" spans="1:248" ht="23.1" customHeight="1">
-      <c r="A3" s="289" t="s">
+      <c r="A3" s="282" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289"/>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
+      <c r="B3" s="282"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="282"/>
+      <c r="J3" s="282"/>
       <c r="K3" s="99" t="s">
         <v>71</v>
       </c>
@@ -4029,18 +4020,18 @@
       <c r="AG3" s="102"/>
     </row>
     <row r="4" spans="1:248" ht="23.1" customHeight="1">
-      <c r="A4" s="296" t="s">
+      <c r="A4" s="289" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="296"/>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
-      <c r="J4" s="296"/>
+      <c r="B4" s="289"/>
+      <c r="C4" s="289"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="289"/>
+      <c r="J4" s="289"/>
       <c r="K4" s="99" t="s">
         <v>53</v>
       </c>
@@ -4078,27 +4069,27 @@
       <c r="C5" s="106"/>
       <c r="D5" s="106"/>
       <c r="E5" s="106"/>
-      <c r="F5" s="295" t="s">
+      <c r="F5" s="288" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="295"/>
-      <c r="H5" s="295"/>
-      <c r="I5" s="295"/>
-      <c r="J5" s="295"/>
-      <c r="K5" s="295"/>
-      <c r="L5" s="295"/>
-      <c r="M5" s="295"/>
-      <c r="N5" s="295"/>
-      <c r="O5" s="295"/>
-      <c r="P5" s="295"/>
-      <c r="Q5" s="295"/>
-      <c r="R5" s="295"/>
-      <c r="S5" s="295"/>
-      <c r="T5" s="295"/>
-      <c r="U5" s="295"/>
-      <c r="V5" s="295"/>
-      <c r="W5" s="295"/>
-      <c r="X5" s="295"/>
+      <c r="G5" s="288"/>
+      <c r="H5" s="288"/>
+      <c r="I5" s="288"/>
+      <c r="J5" s="288"/>
+      <c r="K5" s="288"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="288"/>
+      <c r="O5" s="288"/>
+      <c r="P5" s="288"/>
+      <c r="Q5" s="288"/>
+      <c r="R5" s="288"/>
+      <c r="S5" s="288"/>
+      <c r="T5" s="288"/>
+      <c r="U5" s="288"/>
+      <c r="V5" s="288"/>
+      <c r="W5" s="288"/>
+      <c r="X5" s="288"/>
       <c r="Y5" s="184"/>
       <c r="Z5" s="184"/>
       <c r="AA5" s="184"/>
@@ -4332,37 +4323,37 @@
       <c r="C6" s="106"/>
       <c r="D6" s="106"/>
       <c r="E6" s="106"/>
-      <c r="F6" s="269" t="s">
+      <c r="F6" s="302" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="269"/>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="269"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="269"/>
-      <c r="M6" s="269"/>
-      <c r="N6" s="269"/>
-      <c r="O6" s="269"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="302"/>
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="302"/>
+      <c r="N6" s="302"/>
+      <c r="O6" s="302"/>
       <c r="P6" s="106" t="s">
         <v>77</v>
       </c>
       <c r="Q6" s="106"/>
       <c r="R6" s="185"/>
       <c r="S6" s="185"/>
-      <c r="T6" s="269" t="s">
+      <c r="T6" s="302" t="s">
         <v>89</v>
       </c>
-      <c r="U6" s="269"/>
-      <c r="V6" s="269"/>
-      <c r="W6" s="269"/>
-      <c r="X6" s="269"/>
-      <c r="Y6" s="269"/>
-      <c r="Z6" s="269"/>
-      <c r="AA6" s="269"/>
-      <c r="AB6" s="269"/>
-      <c r="AC6" s="269"/>
-      <c r="AD6" s="269"/>
+      <c r="U6" s="302"/>
+      <c r="V6" s="302"/>
+      <c r="W6" s="302"/>
+      <c r="X6" s="302"/>
+      <c r="Y6" s="302"/>
+      <c r="Z6" s="302"/>
+      <c r="AA6" s="302"/>
+      <c r="AB6" s="302"/>
+      <c r="AC6" s="302"/>
+      <c r="AD6" s="302"/>
       <c r="AE6" s="185"/>
       <c r="AF6" s="185"/>
       <c r="AG6" s="185"/>
@@ -4588,43 +4579,43 @@
       </c>
       <c r="B7" s="185"/>
       <c r="C7" s="185"/>
-      <c r="D7" s="270">
+      <c r="D7" s="303">
         <v>123</v>
       </c>
-      <c r="E7" s="270"/>
-      <c r="F7" s="270"/>
-      <c r="G7" s="270"/>
-      <c r="H7" s="270"/>
-      <c r="I7" s="270"/>
-      <c r="J7" s="270"/>
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
+      <c r="G7" s="303"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="303"/>
       <c r="K7" s="185"/>
-      <c r="L7" s="273" t="s">
+      <c r="L7" s="305" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="273"/>
-      <c r="N7" s="273"/>
-      <c r="O7" s="270">
+      <c r="M7" s="305"/>
+      <c r="N7" s="305"/>
+      <c r="O7" s="303">
         <v>456</v>
       </c>
-      <c r="P7" s="270"/>
-      <c r="Q7" s="270"/>
-      <c r="R7" s="270"/>
-      <c r="S7" s="270"/>
-      <c r="T7" s="270"/>
-      <c r="U7" s="270"/>
-      <c r="V7" s="270"/>
-      <c r="W7" s="291" t="s">
+      <c r="P7" s="303"/>
+      <c r="Q7" s="303"/>
+      <c r="R7" s="303"/>
+      <c r="S7" s="303"/>
+      <c r="T7" s="303"/>
+      <c r="U7" s="303"/>
+      <c r="V7" s="303"/>
+      <c r="W7" s="284" t="s">
         <v>2</v>
       </c>
-      <c r="X7" s="291"/>
-      <c r="Y7" s="269">
+      <c r="X7" s="284"/>
+      <c r="Y7" s="302">
         <v>789</v>
       </c>
-      <c r="Z7" s="269"/>
-      <c r="AA7" s="269"/>
-      <c r="AB7" s="269"/>
-      <c r="AC7" s="269"/>
-      <c r="AD7" s="269"/>
+      <c r="Z7" s="302"/>
+      <c r="AA7" s="302"/>
+      <c r="AB7" s="302"/>
+      <c r="AC7" s="302"/>
+      <c r="AD7" s="302"/>
       <c r="AE7" s="187"/>
       <c r="AF7" s="187"/>
       <c r="AG7" s="185"/>
@@ -4850,17 +4841,17 @@
       </c>
       <c r="B8" s="108"/>
       <c r="C8" s="106"/>
-      <c r="D8" s="292">
+      <c r="D8" s="285">
         <v>1.2E-2</v>
       </c>
-      <c r="E8" s="292"/>
+      <c r="E8" s="285"/>
       <c r="F8" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="292">
+      <c r="G8" s="285">
         <v>5</v>
       </c>
-      <c r="H8" s="292"/>
+      <c r="H8" s="285"/>
       <c r="I8" s="108" t="s">
         <v>14</v>
       </c>
@@ -5125,22 +5116,22 @@
       </c>
       <c r="M9" s="185"/>
       <c r="N9" s="108"/>
-      <c r="O9" s="274"/>
-      <c r="P9" s="274"/>
-      <c r="Q9" s="274"/>
-      <c r="R9" s="274"/>
-      <c r="S9" s="274"/>
-      <c r="T9" s="274"/>
-      <c r="U9" s="274"/>
-      <c r="V9" s="274"/>
-      <c r="W9" s="274"/>
-      <c r="X9" s="274"/>
-      <c r="Y9" s="274"/>
-      <c r="Z9" s="274"/>
-      <c r="AA9" s="274"/>
-      <c r="AB9" s="274"/>
-      <c r="AC9" s="274"/>
-      <c r="AD9" s="274"/>
+      <c r="O9" s="306"/>
+      <c r="P9" s="306"/>
+      <c r="Q9" s="306"/>
+      <c r="R9" s="306"/>
+      <c r="S9" s="306"/>
+      <c r="T9" s="306"/>
+      <c r="U9" s="306"/>
+      <c r="V9" s="306"/>
+      <c r="W9" s="306"/>
+      <c r="X9" s="306"/>
+      <c r="Y9" s="306"/>
+      <c r="Z9" s="306"/>
+      <c r="AA9" s="306"/>
+      <c r="AB9" s="306"/>
+      <c r="AC9" s="306"/>
+      <c r="AD9" s="306"/>
       <c r="AE9" s="187"/>
       <c r="AF9" s="187"/>
       <c r="AG9" s="185"/>
@@ -5619,14 +5610,14 @@
       <c r="D11" s="108"/>
       <c r="E11" s="108"/>
       <c r="F11" s="108"/>
-      <c r="G11" s="272"/>
-      <c r="H11" s="272"/>
-      <c r="I11" s="272"/>
-      <c r="J11" s="272"/>
-      <c r="K11" s="272"/>
-      <c r="L11" s="272"/>
-      <c r="M11" s="272"/>
-      <c r="N11" s="272"/>
+      <c r="G11" s="280"/>
+      <c r="H11" s="280"/>
+      <c r="I11" s="280"/>
+      <c r="J11" s="280"/>
+      <c r="K11" s="280"/>
+      <c r="L11" s="280"/>
+      <c r="M11" s="280"/>
+      <c r="N11" s="280"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="106"/>
@@ -5634,17 +5625,17 @@
         <v>84</v>
       </c>
       <c r="S11" s="113"/>
-      <c r="T11" s="287"/>
-      <c r="U11" s="287"/>
-      <c r="V11" s="287"/>
-      <c r="W11" s="287"/>
-      <c r="X11" s="287"/>
-      <c r="Y11" s="287"/>
-      <c r="Z11" s="287"/>
-      <c r="AA11" s="287"/>
-      <c r="AB11" s="287"/>
-      <c r="AC11" s="287"/>
-      <c r="AD11" s="287"/>
+      <c r="T11" s="279"/>
+      <c r="U11" s="279"/>
+      <c r="V11" s="279"/>
+      <c r="W11" s="279"/>
+      <c r="X11" s="279"/>
+      <c r="Y11" s="279"/>
+      <c r="Z11" s="279"/>
+      <c r="AA11" s="279"/>
+      <c r="AB11" s="279"/>
+      <c r="AC11" s="279"/>
+      <c r="AD11" s="279"/>
       <c r="AE11" s="98"/>
       <c r="AF11" s="98"/>
       <c r="AG11" s="1"/>
@@ -5873,14 +5864,14 @@
       <c r="D12" s="108"/>
       <c r="E12" s="108"/>
       <c r="F12" s="108"/>
-      <c r="G12" s="272"/>
-      <c r="H12" s="272"/>
-      <c r="I12" s="272"/>
-      <c r="J12" s="272"/>
-      <c r="K12" s="272"/>
-      <c r="L12" s="272"/>
-      <c r="M12" s="272"/>
-      <c r="N12" s="272"/>
+      <c r="G12" s="280"/>
+      <c r="H12" s="280"/>
+      <c r="I12" s="280"/>
+      <c r="J12" s="280"/>
+      <c r="K12" s="280"/>
+      <c r="L12" s="280"/>
+      <c r="M12" s="280"/>
+      <c r="N12" s="280"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="106"/>
@@ -5888,17 +5879,17 @@
         <v>84</v>
       </c>
       <c r="S12" s="113"/>
-      <c r="T12" s="271"/>
-      <c r="U12" s="271"/>
-      <c r="V12" s="271"/>
-      <c r="W12" s="271"/>
-      <c r="X12" s="271"/>
-      <c r="Y12" s="271"/>
-      <c r="Z12" s="271"/>
-      <c r="AA12" s="271"/>
-      <c r="AB12" s="271"/>
-      <c r="AC12" s="271"/>
-      <c r="AD12" s="271"/>
+      <c r="T12" s="304"/>
+      <c r="U12" s="304"/>
+      <c r="V12" s="304"/>
+      <c r="W12" s="304"/>
+      <c r="X12" s="304"/>
+      <c r="Y12" s="304"/>
+      <c r="Z12" s="304"/>
+      <c r="AA12" s="304"/>
+      <c r="AB12" s="304"/>
+      <c r="AC12" s="304"/>
+      <c r="AD12" s="304"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
@@ -7137,14 +7128,14 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="316" t="s">
+      <c r="X17" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="Y17" s="316"/>
-      <c r="Z17" s="315" t="s">
+      <c r="Y17" s="243"/>
+      <c r="Z17" s="242" t="s">
         <v>115</v>
       </c>
-      <c r="AA17" s="315"/>
+      <c r="AA17" s="242"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
@@ -7368,45 +7359,45 @@
       <c r="IN17" s="1"/>
     </row>
     <row r="18" spans="1:248" ht="21" customHeight="1">
-      <c r="A18" s="275" t="s">
+      <c r="A18" s="269" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="276"/>
-      <c r="C18" s="277"/>
-      <c r="D18" s="281" t="s">
+      <c r="B18" s="270"/>
+      <c r="C18" s="271"/>
+      <c r="D18" s="275" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="282"/>
-      <c r="F18" s="285" t="s">
+      <c r="E18" s="276"/>
+      <c r="F18" s="267" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="286"/>
-      <c r="H18" s="286"/>
-      <c r="I18" s="286"/>
-      <c r="J18" s="286"/>
-      <c r="K18" s="286"/>
-      <c r="L18" s="286"/>
-      <c r="M18" s="286"/>
-      <c r="N18" s="286"/>
-      <c r="O18" s="286"/>
-      <c r="P18" s="286"/>
-      <c r="Q18" s="286"/>
-      <c r="R18" s="297" t="s">
+      <c r="G18" s="268"/>
+      <c r="H18" s="268"/>
+      <c r="I18" s="268"/>
+      <c r="J18" s="268"/>
+      <c r="K18" s="268"/>
+      <c r="L18" s="268"/>
+      <c r="M18" s="268"/>
+      <c r="N18" s="268"/>
+      <c r="O18" s="268"/>
+      <c r="P18" s="268"/>
+      <c r="Q18" s="268"/>
+      <c r="R18" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="S18" s="298"/>
-      <c r="T18" s="299"/>
-      <c r="U18" s="303" t="s">
+      <c r="S18" s="291"/>
+      <c r="T18" s="292"/>
+      <c r="U18" s="296" t="s">
         <v>11</v>
       </c>
-      <c r="V18" s="304"/>
-      <c r="W18" s="304"/>
-      <c r="X18" s="305"/>
-      <c r="Y18" s="309" t="s">
+      <c r="V18" s="297"/>
+      <c r="W18" s="297"/>
+      <c r="X18" s="298"/>
+      <c r="Y18" s="307" t="s">
         <v>48</v>
       </c>
-      <c r="Z18" s="310"/>
-      <c r="AA18" s="311"/>
+      <c r="Z18" s="308"/>
+      <c r="AA18" s="309"/>
       <c r="BC18" s="1"/>
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
@@ -7600,41 +7591,41 @@
       <c r="IK18" s="1"/>
     </row>
     <row r="19" spans="1:248" ht="21" customHeight="1">
-      <c r="A19" s="278"/>
-      <c r="B19" s="279"/>
-      <c r="C19" s="280"/>
-      <c r="D19" s="283"/>
-      <c r="E19" s="284"/>
-      <c r="F19" s="285" t="s">
+      <c r="A19" s="272"/>
+      <c r="B19" s="273"/>
+      <c r="C19" s="274"/>
+      <c r="D19" s="277"/>
+      <c r="E19" s="278"/>
+      <c r="F19" s="267" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="286"/>
-      <c r="H19" s="286"/>
-      <c r="I19" s="285" t="s">
+      <c r="G19" s="268"/>
+      <c r="H19" s="268"/>
+      <c r="I19" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="286"/>
-      <c r="K19" s="286"/>
-      <c r="L19" s="285" t="s">
+      <c r="J19" s="268"/>
+      <c r="K19" s="268"/>
+      <c r="L19" s="267" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="286"/>
-      <c r="N19" s="286"/>
-      <c r="O19" s="285" t="s">
+      <c r="M19" s="268"/>
+      <c r="N19" s="268"/>
+      <c r="O19" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="P19" s="286"/>
-      <c r="Q19" s="286"/>
-      <c r="R19" s="300"/>
-      <c r="S19" s="301"/>
-      <c r="T19" s="302"/>
-      <c r="U19" s="306"/>
-      <c r="V19" s="307"/>
-      <c r="W19" s="307"/>
-      <c r="X19" s="308"/>
-      <c r="Y19" s="312"/>
-      <c r="Z19" s="313"/>
-      <c r="AA19" s="314"/>
+      <c r="P19" s="268"/>
+      <c r="Q19" s="268"/>
+      <c r="R19" s="293"/>
+      <c r="S19" s="294"/>
+      <c r="T19" s="295"/>
+      <c r="U19" s="299"/>
+      <c r="V19" s="300"/>
+      <c r="W19" s="300"/>
+      <c r="X19" s="301"/>
+      <c r="Y19" s="310"/>
+      <c r="Z19" s="311"/>
+      <c r="AA19" s="312"/>
       <c r="BC19" s="1"/>
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
@@ -7828,57 +7819,57 @@
       <c r="IK19" s="1"/>
     </row>
     <row r="20" spans="1:248" ht="21" customHeight="1">
-      <c r="A20" s="263">
+      <c r="A20" s="249">
         <v>25</v>
       </c>
-      <c r="B20" s="264"/>
-      <c r="C20" s="264"/>
-      <c r="D20" s="256">
+      <c r="B20" s="250"/>
+      <c r="C20" s="250"/>
+      <c r="D20" s="241">
         <v>1</v>
       </c>
-      <c r="E20" s="256"/>
-      <c r="F20" s="260">
+      <c r="E20" s="241"/>
+      <c r="F20" s="255">
         <v>0.01</v>
       </c>
-      <c r="G20" s="261"/>
-      <c r="H20" s="262"/>
-      <c r="I20" s="260">
+      <c r="G20" s="256"/>
+      <c r="H20" s="257"/>
+      <c r="I20" s="255">
         <v>0.01</v>
       </c>
-      <c r="J20" s="261"/>
-      <c r="K20" s="262"/>
-      <c r="L20" s="260">
+      <c r="J20" s="256"/>
+      <c r="K20" s="257"/>
+      <c r="L20" s="255">
         <v>0.01</v>
       </c>
-      <c r="M20" s="261"/>
-      <c r="N20" s="262"/>
-      <c r="O20" s="260">
+      <c r="M20" s="256"/>
+      <c r="N20" s="257"/>
+      <c r="O20" s="255">
         <v>0.01</v>
       </c>
-      <c r="P20" s="261"/>
-      <c r="Q20" s="262"/>
-      <c r="R20" s="242">
+      <c r="P20" s="256"/>
+      <c r="Q20" s="257"/>
+      <c r="R20" s="258">
         <f t="shared" ref="R20:R51" si="0">AVERAGE(F20:Q20)</f>
         <v>0.01</v>
       </c>
-      <c r="S20" s="243"/>
-      <c r="T20" s="244"/>
-      <c r="U20" s="245">
-        <f>STDEV(R20:T24)/SQRT(4)</f>
+      <c r="S20" s="259"/>
+      <c r="T20" s="260"/>
+      <c r="U20" s="261">
+        <f>_xlfn.STDEV.S(R20:T24)/SQRT(4)</f>
         <v>6.5192024052026449E-3</v>
       </c>
-      <c r="V20" s="246"/>
-      <c r="W20" s="246"/>
-      <c r="X20" s="246"/>
-      <c r="Y20" s="251">
-        <f>A20-R20</f>
-        <v>24.99</v>
-      </c>
-      <c r="Z20" s="252"/>
-      <c r="AA20" s="253"/>
-      <c r="AF20" s="254"/>
-      <c r="AG20" s="254"/>
-      <c r="AH20" s="254"/>
+      <c r="V20" s="262"/>
+      <c r="W20" s="262"/>
+      <c r="X20" s="262"/>
+      <c r="Y20" s="246">
+        <f>R20-A20</f>
+        <v>-24.99</v>
+      </c>
+      <c r="Z20" s="247"/>
+      <c r="AA20" s="248"/>
+      <c r="AF20" s="240"/>
+      <c r="AG20" s="240"/>
+      <c r="AH20" s="240"/>
       <c r="BC20" s="1"/>
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
@@ -8072,52 +8063,52 @@
       <c r="IK20" s="1"/>
     </row>
     <row r="21" spans="1:248" ht="21" customHeight="1">
-      <c r="A21" s="265"/>
-      <c r="B21" s="266"/>
-      <c r="C21" s="266"/>
-      <c r="D21" s="256">
+      <c r="A21" s="251"/>
+      <c r="B21" s="252"/>
+      <c r="C21" s="252"/>
+      <c r="D21" s="241">
         <v>2</v>
       </c>
-      <c r="E21" s="256"/>
-      <c r="F21" s="240">
+      <c r="E21" s="241"/>
+      <c r="F21" s="244">
         <v>0.02</v>
       </c>
-      <c r="G21" s="240"/>
-      <c r="H21" s="240"/>
-      <c r="I21" s="240">
+      <c r="G21" s="244"/>
+      <c r="H21" s="244"/>
+      <c r="I21" s="244">
         <v>0.02</v>
       </c>
-      <c r="J21" s="240"/>
-      <c r="K21" s="240"/>
-      <c r="L21" s="240">
+      <c r="J21" s="244"/>
+      <c r="K21" s="244"/>
+      <c r="L21" s="244">
         <v>0.02</v>
       </c>
-      <c r="M21" s="240"/>
-      <c r="N21" s="240"/>
-      <c r="O21" s="240">
+      <c r="M21" s="244"/>
+      <c r="N21" s="244"/>
+      <c r="O21" s="244">
         <v>0.02</v>
       </c>
-      <c r="P21" s="240"/>
-      <c r="Q21" s="240"/>
-      <c r="R21" s="241">
+      <c r="P21" s="244"/>
+      <c r="Q21" s="244"/>
+      <c r="R21" s="245">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="S21" s="241"/>
-      <c r="T21" s="241"/>
-      <c r="U21" s="247"/>
-      <c r="V21" s="248"/>
-      <c r="W21" s="248"/>
-      <c r="X21" s="248"/>
-      <c r="Y21" s="251">
-        <f>A20-R21</f>
-        <v>24.98</v>
-      </c>
-      <c r="Z21" s="252"/>
-      <c r="AA21" s="253"/>
-      <c r="AF21" s="254"/>
-      <c r="AG21" s="254"/>
-      <c r="AH21" s="254"/>
+      <c r="S21" s="245"/>
+      <c r="T21" s="245"/>
+      <c r="U21" s="263"/>
+      <c r="V21" s="264"/>
+      <c r="W21" s="264"/>
+      <c r="X21" s="264"/>
+      <c r="Y21" s="246">
+        <f t="shared" ref="Y21:Y69" si="1">R21-A21</f>
+        <v>0.02</v>
+      </c>
+      <c r="Z21" s="247"/>
+      <c r="AA21" s="248"/>
+      <c r="AF21" s="240"/>
+      <c r="AG21" s="240"/>
+      <c r="AH21" s="240"/>
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
@@ -8311,52 +8302,52 @@
       <c r="IK21" s="1"/>
     </row>
     <row r="22" spans="1:248" ht="21" customHeight="1">
-      <c r="A22" s="265"/>
-      <c r="B22" s="266"/>
-      <c r="C22" s="266"/>
-      <c r="D22" s="256">
+      <c r="A22" s="251"/>
+      <c r="B22" s="252"/>
+      <c r="C22" s="252"/>
+      <c r="D22" s="241">
         <v>3</v>
       </c>
-      <c r="E22" s="256"/>
-      <c r="F22" s="240">
+      <c r="E22" s="241"/>
+      <c r="F22" s="244">
         <v>0.03</v>
       </c>
-      <c r="G22" s="240"/>
-      <c r="H22" s="240"/>
-      <c r="I22" s="240">
+      <c r="G22" s="244"/>
+      <c r="H22" s="244"/>
+      <c r="I22" s="244">
         <v>0.03</v>
       </c>
-      <c r="J22" s="240"/>
-      <c r="K22" s="240"/>
-      <c r="L22" s="240">
+      <c r="J22" s="244"/>
+      <c r="K22" s="244"/>
+      <c r="L22" s="244">
         <v>0.03</v>
       </c>
-      <c r="M22" s="240"/>
-      <c r="N22" s="240"/>
-      <c r="O22" s="240">
+      <c r="M22" s="244"/>
+      <c r="N22" s="244"/>
+      <c r="O22" s="244">
         <v>0.03</v>
       </c>
-      <c r="P22" s="240"/>
-      <c r="Q22" s="240"/>
-      <c r="R22" s="241">
+      <c r="P22" s="244"/>
+      <c r="Q22" s="244"/>
+      <c r="R22" s="245">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="S22" s="241"/>
-      <c r="T22" s="241"/>
-      <c r="U22" s="247"/>
-      <c r="V22" s="248"/>
-      <c r="W22" s="248"/>
-      <c r="X22" s="248"/>
-      <c r="Y22" s="251">
-        <f>A20-R22</f>
-        <v>24.97</v>
-      </c>
-      <c r="Z22" s="252"/>
-      <c r="AA22" s="253"/>
-      <c r="AF22" s="254"/>
-      <c r="AG22" s="254"/>
-      <c r="AH22" s="254"/>
+      <c r="S22" s="245"/>
+      <c r="T22" s="245"/>
+      <c r="U22" s="263"/>
+      <c r="V22" s="264"/>
+      <c r="W22" s="264"/>
+      <c r="X22" s="264"/>
+      <c r="Y22" s="246">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="Z22" s="247"/>
+      <c r="AA22" s="248"/>
+      <c r="AF22" s="240"/>
+      <c r="AG22" s="240"/>
+      <c r="AH22" s="240"/>
       <c r="BC22" s="1"/>
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
@@ -8550,52 +8541,52 @@
       <c r="IK22" s="1"/>
     </row>
     <row r="23" spans="1:248" ht="21" customHeight="1">
-      <c r="A23" s="265"/>
-      <c r="B23" s="266"/>
-      <c r="C23" s="266"/>
-      <c r="D23" s="256">
+      <c r="A23" s="251"/>
+      <c r="B23" s="252"/>
+      <c r="C23" s="252"/>
+      <c r="D23" s="241">
         <v>4</v>
       </c>
-      <c r="E23" s="256"/>
-      <c r="F23" s="240">
+      <c r="E23" s="241"/>
+      <c r="F23" s="244">
         <v>0.04</v>
       </c>
-      <c r="G23" s="240"/>
-      <c r="H23" s="240"/>
-      <c r="I23" s="240">
+      <c r="G23" s="244"/>
+      <c r="H23" s="244"/>
+      <c r="I23" s="244">
         <v>0.04</v>
       </c>
-      <c r="J23" s="240"/>
-      <c r="K23" s="240"/>
-      <c r="L23" s="240">
+      <c r="J23" s="244"/>
+      <c r="K23" s="244"/>
+      <c r="L23" s="244">
         <v>0.04</v>
       </c>
-      <c r="M23" s="240"/>
-      <c r="N23" s="240"/>
-      <c r="O23" s="240">
+      <c r="M23" s="244"/>
+      <c r="N23" s="244"/>
+      <c r="O23" s="244">
         <v>0.04</v>
       </c>
-      <c r="P23" s="240"/>
-      <c r="Q23" s="240"/>
-      <c r="R23" s="241">
+      <c r="P23" s="244"/>
+      <c r="Q23" s="244"/>
+      <c r="R23" s="245">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="S23" s="241"/>
-      <c r="T23" s="241"/>
-      <c r="U23" s="247"/>
-      <c r="V23" s="248"/>
-      <c r="W23" s="248"/>
-      <c r="X23" s="248"/>
-      <c r="Y23" s="251">
-        <f>A20-R23</f>
-        <v>24.96</v>
-      </c>
-      <c r="Z23" s="252"/>
-      <c r="AA23" s="253"/>
-      <c r="AF23" s="254"/>
-      <c r="AG23" s="254"/>
-      <c r="AH23" s="254"/>
+      <c r="S23" s="245"/>
+      <c r="T23" s="245"/>
+      <c r="U23" s="263"/>
+      <c r="V23" s="264"/>
+      <c r="W23" s="264"/>
+      <c r="X23" s="264"/>
+      <c r="Y23" s="246">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="Z23" s="247"/>
+      <c r="AA23" s="248"/>
+      <c r="AF23" s="240"/>
+      <c r="AG23" s="240"/>
+      <c r="AH23" s="240"/>
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
@@ -8789,49 +8780,49 @@
       <c r="IK23" s="1"/>
     </row>
     <row r="24" spans="1:248" ht="21" customHeight="1">
-      <c r="A24" s="267"/>
-      <c r="B24" s="268"/>
-      <c r="C24" s="268"/>
-      <c r="D24" s="256">
+      <c r="A24" s="253"/>
+      <c r="B24" s="254"/>
+      <c r="C24" s="254"/>
+      <c r="D24" s="241">
         <v>5</v>
       </c>
-      <c r="E24" s="256"/>
-      <c r="F24" s="240">
+      <c r="E24" s="241"/>
+      <c r="F24" s="244">
         <v>0.04</v>
       </c>
-      <c r="G24" s="240"/>
-      <c r="H24" s="240"/>
-      <c r="I24" s="240">
+      <c r="G24" s="244"/>
+      <c r="H24" s="244"/>
+      <c r="I24" s="244">
         <v>0.04</v>
       </c>
-      <c r="J24" s="240"/>
-      <c r="K24" s="240"/>
-      <c r="L24" s="240">
+      <c r="J24" s="244"/>
+      <c r="K24" s="244"/>
+      <c r="L24" s="244">
         <v>0.04</v>
       </c>
-      <c r="M24" s="240"/>
-      <c r="N24" s="240"/>
-      <c r="O24" s="240">
+      <c r="M24" s="244"/>
+      <c r="N24" s="244"/>
+      <c r="O24" s="244">
         <v>0.04</v>
       </c>
-      <c r="P24" s="240"/>
-      <c r="Q24" s="240"/>
-      <c r="R24" s="241">
+      <c r="P24" s="244"/>
+      <c r="Q24" s="244"/>
+      <c r="R24" s="245">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="S24" s="241"/>
-      <c r="T24" s="241"/>
-      <c r="U24" s="249"/>
-      <c r="V24" s="250"/>
-      <c r="W24" s="250"/>
-      <c r="X24" s="250"/>
-      <c r="Y24" s="257">
-        <f>A20-R24</f>
-        <v>24.96</v>
-      </c>
-      <c r="Z24" s="258"/>
-      <c r="AA24" s="259"/>
+      <c r="S24" s="245"/>
+      <c r="T24" s="245"/>
+      <c r="U24" s="265"/>
+      <c r="V24" s="266"/>
+      <c r="W24" s="266"/>
+      <c r="X24" s="266"/>
+      <c r="Y24" s="246">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="Z24" s="247"/>
+      <c r="AA24" s="248"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
@@ -9045,54 +9036,54 @@
       <c r="IJ24" s="1"/>
     </row>
     <row r="25" spans="1:248" ht="21" customHeight="1">
-      <c r="A25" s="263">
+      <c r="A25" s="249">
         <v>40</v>
       </c>
-      <c r="B25" s="264"/>
-      <c r="C25" s="264"/>
-      <c r="D25" s="256">
+      <c r="B25" s="250"/>
+      <c r="C25" s="250"/>
+      <c r="D25" s="241">
         <v>1</v>
       </c>
-      <c r="E25" s="256"/>
-      <c r="F25" s="260">
+      <c r="E25" s="241"/>
+      <c r="F25" s="255">
         <v>0.01</v>
       </c>
-      <c r="G25" s="261"/>
-      <c r="H25" s="262"/>
-      <c r="I25" s="260">
+      <c r="G25" s="256"/>
+      <c r="H25" s="257"/>
+      <c r="I25" s="255">
         <v>0.01</v>
       </c>
-      <c r="J25" s="261"/>
-      <c r="K25" s="262"/>
-      <c r="L25" s="260">
+      <c r="J25" s="256"/>
+      <c r="K25" s="257"/>
+      <c r="L25" s="255">
         <v>0.01</v>
       </c>
-      <c r="M25" s="261"/>
-      <c r="N25" s="262"/>
-      <c r="O25" s="260">
+      <c r="M25" s="256"/>
+      <c r="N25" s="257"/>
+      <c r="O25" s="255">
         <v>0.01</v>
       </c>
-      <c r="P25" s="261"/>
-      <c r="Q25" s="262"/>
-      <c r="R25" s="242">
+      <c r="P25" s="256"/>
+      <c r="Q25" s="257"/>
+      <c r="R25" s="258">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="S25" s="243"/>
-      <c r="T25" s="244"/>
-      <c r="U25" s="245">
-        <f>STDEV(R25:T29)/SQRT(4)</f>
+      <c r="S25" s="259"/>
+      <c r="T25" s="260"/>
+      <c r="U25" s="261">
+        <f t="shared" ref="U25" si="2">_xlfn.STDEV.S(R25:T29)/SQRT(4)</f>
         <v>6.5192024052026449E-3</v>
       </c>
-      <c r="V25" s="246"/>
-      <c r="W25" s="246"/>
-      <c r="X25" s="246"/>
-      <c r="Y25" s="251">
-        <f>A25-R25</f>
-        <v>39.99</v>
-      </c>
-      <c r="Z25" s="252"/>
-      <c r="AA25" s="253"/>
+      <c r="V25" s="262"/>
+      <c r="W25" s="262"/>
+      <c r="X25" s="262"/>
+      <c r="Y25" s="246">
+        <f t="shared" si="1"/>
+        <v>-39.99</v>
+      </c>
+      <c r="Z25" s="247"/>
+      <c r="AA25" s="248"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
@@ -9306,49 +9297,49 @@
       <c r="IJ25" s="1"/>
     </row>
     <row r="26" spans="1:248" ht="21" customHeight="1">
-      <c r="A26" s="265"/>
-      <c r="B26" s="266"/>
-      <c r="C26" s="266"/>
-      <c r="D26" s="256">
+      <c r="A26" s="251"/>
+      <c r="B26" s="252"/>
+      <c r="C26" s="252"/>
+      <c r="D26" s="241">
         <v>2</v>
       </c>
-      <c r="E26" s="256"/>
-      <c r="F26" s="240">
+      <c r="E26" s="241"/>
+      <c r="F26" s="244">
         <v>0.02</v>
       </c>
-      <c r="G26" s="240"/>
-      <c r="H26" s="240"/>
-      <c r="I26" s="240">
+      <c r="G26" s="244"/>
+      <c r="H26" s="244"/>
+      <c r="I26" s="244">
         <v>0.02</v>
       </c>
-      <c r="J26" s="240"/>
-      <c r="K26" s="240"/>
-      <c r="L26" s="240">
+      <c r="J26" s="244"/>
+      <c r="K26" s="244"/>
+      <c r="L26" s="244">
         <v>0.02</v>
       </c>
-      <c r="M26" s="240"/>
-      <c r="N26" s="240"/>
-      <c r="O26" s="240">
+      <c r="M26" s="244"/>
+      <c r="N26" s="244"/>
+      <c r="O26" s="244">
         <v>0.02</v>
       </c>
-      <c r="P26" s="240"/>
-      <c r="Q26" s="240"/>
-      <c r="R26" s="241">
+      <c r="P26" s="244"/>
+      <c r="Q26" s="244"/>
+      <c r="R26" s="245">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="S26" s="241"/>
-      <c r="T26" s="241"/>
-      <c r="U26" s="247"/>
-      <c r="V26" s="248"/>
-      <c r="W26" s="248"/>
-      <c r="X26" s="248"/>
-      <c r="Y26" s="251">
-        <f>A25-R26</f>
-        <v>39.979999999999997</v>
-      </c>
-      <c r="Z26" s="252"/>
-      <c r="AA26" s="253"/>
+      <c r="S26" s="245"/>
+      <c r="T26" s="245"/>
+      <c r="U26" s="263"/>
+      <c r="V26" s="264"/>
+      <c r="W26" s="264"/>
+      <c r="X26" s="264"/>
+      <c r="Y26" s="246">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="Z26" s="247"/>
+      <c r="AA26" s="248"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -9562,49 +9553,49 @@
       <c r="IJ26" s="1"/>
     </row>
     <row r="27" spans="1:248" ht="21" customHeight="1">
-      <c r="A27" s="265"/>
-      <c r="B27" s="266"/>
-      <c r="C27" s="266"/>
-      <c r="D27" s="256">
+      <c r="A27" s="251"/>
+      <c r="B27" s="252"/>
+      <c r="C27" s="252"/>
+      <c r="D27" s="241">
         <v>3</v>
       </c>
-      <c r="E27" s="256"/>
-      <c r="F27" s="240">
+      <c r="E27" s="241"/>
+      <c r="F27" s="244">
         <v>0.03</v>
       </c>
-      <c r="G27" s="240"/>
-      <c r="H27" s="240"/>
-      <c r="I27" s="240">
+      <c r="G27" s="244"/>
+      <c r="H27" s="244"/>
+      <c r="I27" s="244">
         <v>0.03</v>
       </c>
-      <c r="J27" s="240"/>
-      <c r="K27" s="240"/>
-      <c r="L27" s="240">
+      <c r="J27" s="244"/>
+      <c r="K27" s="244"/>
+      <c r="L27" s="244">
         <v>0.03</v>
       </c>
-      <c r="M27" s="240"/>
-      <c r="N27" s="240"/>
-      <c r="O27" s="240">
+      <c r="M27" s="244"/>
+      <c r="N27" s="244"/>
+      <c r="O27" s="244">
         <v>0.03</v>
       </c>
-      <c r="P27" s="240"/>
-      <c r="Q27" s="240"/>
-      <c r="R27" s="241">
+      <c r="P27" s="244"/>
+      <c r="Q27" s="244"/>
+      <c r="R27" s="245">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="S27" s="241"/>
-      <c r="T27" s="241"/>
-      <c r="U27" s="247"/>
-      <c r="V27" s="248"/>
-      <c r="W27" s="248"/>
-      <c r="X27" s="248"/>
-      <c r="Y27" s="251">
-        <f>A25-R27</f>
-        <v>39.97</v>
-      </c>
-      <c r="Z27" s="252"/>
-      <c r="AA27" s="253"/>
+      <c r="S27" s="245"/>
+      <c r="T27" s="245"/>
+      <c r="U27" s="263"/>
+      <c r="V27" s="264"/>
+      <c r="W27" s="264"/>
+      <c r="X27" s="264"/>
+      <c r="Y27" s="246">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="Z27" s="247"/>
+      <c r="AA27" s="248"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
@@ -9818,49 +9809,49 @@
       <c r="IJ27" s="1"/>
     </row>
     <row r="28" spans="1:248" ht="21" customHeight="1">
-      <c r="A28" s="265"/>
-      <c r="B28" s="266"/>
-      <c r="C28" s="266"/>
-      <c r="D28" s="256">
+      <c r="A28" s="251"/>
+      <c r="B28" s="252"/>
+      <c r="C28" s="252"/>
+      <c r="D28" s="241">
         <v>4</v>
       </c>
-      <c r="E28" s="256"/>
-      <c r="F28" s="240">
+      <c r="E28" s="241"/>
+      <c r="F28" s="244">
         <v>0.04</v>
       </c>
-      <c r="G28" s="240"/>
-      <c r="H28" s="240"/>
-      <c r="I28" s="240">
+      <c r="G28" s="244"/>
+      <c r="H28" s="244"/>
+      <c r="I28" s="244">
         <v>0.04</v>
       </c>
-      <c r="J28" s="240"/>
-      <c r="K28" s="240"/>
-      <c r="L28" s="240">
+      <c r="J28" s="244"/>
+      <c r="K28" s="244"/>
+      <c r="L28" s="244">
         <v>0.04</v>
       </c>
-      <c r="M28" s="240"/>
-      <c r="N28" s="240"/>
-      <c r="O28" s="240">
+      <c r="M28" s="244"/>
+      <c r="N28" s="244"/>
+      <c r="O28" s="244">
         <v>0.04</v>
       </c>
-      <c r="P28" s="240"/>
-      <c r="Q28" s="240"/>
-      <c r="R28" s="241">
+      <c r="P28" s="244"/>
+      <c r="Q28" s="244"/>
+      <c r="R28" s="245">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="S28" s="241"/>
-      <c r="T28" s="241"/>
-      <c r="U28" s="247"/>
-      <c r="V28" s="248"/>
-      <c r="W28" s="248"/>
-      <c r="X28" s="248"/>
-      <c r="Y28" s="251">
-        <f>A25-R28</f>
-        <v>39.96</v>
-      </c>
-      <c r="Z28" s="252"/>
-      <c r="AA28" s="253"/>
+      <c r="S28" s="245"/>
+      <c r="T28" s="245"/>
+      <c r="U28" s="263"/>
+      <c r="V28" s="264"/>
+      <c r="W28" s="264"/>
+      <c r="X28" s="264"/>
+      <c r="Y28" s="246">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="Z28" s="247"/>
+      <c r="AA28" s="248"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
@@ -10074,49 +10065,49 @@
       <c r="IJ28" s="1"/>
     </row>
     <row r="29" spans="1:248" ht="21" customHeight="1">
-      <c r="A29" s="267"/>
-      <c r="B29" s="268"/>
-      <c r="C29" s="268"/>
-      <c r="D29" s="256">
+      <c r="A29" s="253"/>
+      <c r="B29" s="254"/>
+      <c r="C29" s="254"/>
+      <c r="D29" s="241">
         <v>5</v>
       </c>
-      <c r="E29" s="256"/>
-      <c r="F29" s="240">
+      <c r="E29" s="241"/>
+      <c r="F29" s="244">
         <v>0.04</v>
       </c>
-      <c r="G29" s="240"/>
-      <c r="H29" s="240"/>
-      <c r="I29" s="240">
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="244">
         <v>0.04</v>
       </c>
-      <c r="J29" s="240"/>
-      <c r="K29" s="240"/>
-      <c r="L29" s="240">
+      <c r="J29" s="244"/>
+      <c r="K29" s="244"/>
+      <c r="L29" s="244">
         <v>0.04</v>
       </c>
-      <c r="M29" s="240"/>
-      <c r="N29" s="240"/>
-      <c r="O29" s="240">
+      <c r="M29" s="244"/>
+      <c r="N29" s="244"/>
+      <c r="O29" s="244">
         <v>0.04</v>
       </c>
-      <c r="P29" s="240"/>
-      <c r="Q29" s="240"/>
-      <c r="R29" s="241">
+      <c r="P29" s="244"/>
+      <c r="Q29" s="244"/>
+      <c r="R29" s="245">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="S29" s="241"/>
-      <c r="T29" s="241"/>
-      <c r="U29" s="249"/>
-      <c r="V29" s="250"/>
-      <c r="W29" s="250"/>
-      <c r="X29" s="250"/>
-      <c r="Y29" s="257">
-        <f>A25-R29</f>
-        <v>39.96</v>
-      </c>
-      <c r="Z29" s="258"/>
-      <c r="AA29" s="259"/>
+      <c r="S29" s="245"/>
+      <c r="T29" s="245"/>
+      <c r="U29" s="265"/>
+      <c r="V29" s="266"/>
+      <c r="W29" s="266"/>
+      <c r="X29" s="266"/>
+      <c r="Y29" s="246">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="Z29" s="247"/>
+      <c r="AA29" s="248"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AV29" s="1"/>
@@ -10318,54 +10309,54 @@
       <c r="IJ29" s="1"/>
     </row>
     <row r="30" spans="1:248" ht="21" customHeight="1">
-      <c r="A30" s="263">
+      <c r="A30" s="249">
         <v>50</v>
       </c>
-      <c r="B30" s="264"/>
-      <c r="C30" s="264"/>
-      <c r="D30" s="256">
+      <c r="B30" s="250"/>
+      <c r="C30" s="250"/>
+      <c r="D30" s="241">
         <v>1</v>
       </c>
-      <c r="E30" s="256"/>
-      <c r="F30" s="260">
+      <c r="E30" s="241"/>
+      <c r="F30" s="255">
         <v>0.01</v>
       </c>
-      <c r="G30" s="261"/>
-      <c r="H30" s="262"/>
-      <c r="I30" s="260">
+      <c r="G30" s="256"/>
+      <c r="H30" s="257"/>
+      <c r="I30" s="255">
         <v>0.01</v>
       </c>
-      <c r="J30" s="261"/>
-      <c r="K30" s="262"/>
-      <c r="L30" s="260">
+      <c r="J30" s="256"/>
+      <c r="K30" s="257"/>
+      <c r="L30" s="255">
         <v>0.01</v>
       </c>
-      <c r="M30" s="261"/>
-      <c r="N30" s="262"/>
-      <c r="O30" s="260">
+      <c r="M30" s="256"/>
+      <c r="N30" s="257"/>
+      <c r="O30" s="255">
         <v>0.01</v>
       </c>
-      <c r="P30" s="261"/>
-      <c r="Q30" s="262"/>
-      <c r="R30" s="242">
+      <c r="P30" s="256"/>
+      <c r="Q30" s="257"/>
+      <c r="R30" s="258">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="S30" s="243"/>
-      <c r="T30" s="244"/>
-      <c r="U30" s="245">
-        <f>STDEV(R30:T34)/SQRT(4)</f>
+      <c r="S30" s="259"/>
+      <c r="T30" s="260"/>
+      <c r="U30" s="261">
+        <f t="shared" ref="U30" si="3">_xlfn.STDEV.S(R30:T34)/SQRT(4)</f>
         <v>6.5192024052026449E-3</v>
       </c>
-      <c r="V30" s="246"/>
-      <c r="W30" s="246"/>
-      <c r="X30" s="246"/>
-      <c r="Y30" s="251">
-        <f>A30-R30</f>
-        <v>49.99</v>
-      </c>
-      <c r="Z30" s="252"/>
-      <c r="AA30" s="253"/>
+      <c r="V30" s="262"/>
+      <c r="W30" s="262"/>
+      <c r="X30" s="262"/>
+      <c r="Y30" s="246">
+        <f t="shared" si="1"/>
+        <v>-49.99</v>
+      </c>
+      <c r="Z30" s="247"/>
+      <c r="AA30" s="248"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
@@ -10579,49 +10570,49 @@
       <c r="IJ30" s="1"/>
     </row>
     <row r="31" spans="1:248" ht="21" customHeight="1">
-      <c r="A31" s="265"/>
-      <c r="B31" s="266"/>
-      <c r="C31" s="266"/>
-      <c r="D31" s="256">
+      <c r="A31" s="251"/>
+      <c r="B31" s="252"/>
+      <c r="C31" s="252"/>
+      <c r="D31" s="241">
         <v>2</v>
       </c>
-      <c r="E31" s="256"/>
-      <c r="F31" s="240">
+      <c r="E31" s="241"/>
+      <c r="F31" s="244">
         <v>0.02</v>
       </c>
-      <c r="G31" s="240"/>
-      <c r="H31" s="240"/>
-      <c r="I31" s="240">
+      <c r="G31" s="244"/>
+      <c r="H31" s="244"/>
+      <c r="I31" s="244">
         <v>0.02</v>
       </c>
-      <c r="J31" s="240"/>
-      <c r="K31" s="240"/>
-      <c r="L31" s="240">
+      <c r="J31" s="244"/>
+      <c r="K31" s="244"/>
+      <c r="L31" s="244">
         <v>0.02</v>
       </c>
-      <c r="M31" s="240"/>
-      <c r="N31" s="240"/>
-      <c r="O31" s="240">
+      <c r="M31" s="244"/>
+      <c r="N31" s="244"/>
+      <c r="O31" s="244">
         <v>0.02</v>
       </c>
-      <c r="P31" s="240"/>
-      <c r="Q31" s="240"/>
-      <c r="R31" s="241">
+      <c r="P31" s="244"/>
+      <c r="Q31" s="244"/>
+      <c r="R31" s="245">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="S31" s="241"/>
-      <c r="T31" s="241"/>
-      <c r="U31" s="247"/>
-      <c r="V31" s="248"/>
-      <c r="W31" s="248"/>
-      <c r="X31" s="248"/>
-      <c r="Y31" s="251">
-        <f>A30-R31</f>
-        <v>49.98</v>
-      </c>
-      <c r="Z31" s="252"/>
-      <c r="AA31" s="253"/>
+      <c r="S31" s="245"/>
+      <c r="T31" s="245"/>
+      <c r="U31" s="263"/>
+      <c r="V31" s="264"/>
+      <c r="W31" s="264"/>
+      <c r="X31" s="264"/>
+      <c r="Y31" s="246">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="Z31" s="247"/>
+      <c r="AA31" s="248"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
@@ -10835,49 +10826,49 @@
       <c r="IJ31" s="1"/>
     </row>
     <row r="32" spans="1:248" ht="21" customHeight="1">
-      <c r="A32" s="265"/>
-      <c r="B32" s="266"/>
-      <c r="C32" s="266"/>
-      <c r="D32" s="256">
+      <c r="A32" s="251"/>
+      <c r="B32" s="252"/>
+      <c r="C32" s="252"/>
+      <c r="D32" s="241">
         <v>3</v>
       </c>
-      <c r="E32" s="256"/>
-      <c r="F32" s="240">
+      <c r="E32" s="241"/>
+      <c r="F32" s="244">
         <v>0.03</v>
       </c>
-      <c r="G32" s="240"/>
-      <c r="H32" s="240"/>
-      <c r="I32" s="240">
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
+      <c r="I32" s="244">
         <v>0.03</v>
       </c>
-      <c r="J32" s="240"/>
-      <c r="K32" s="240"/>
-      <c r="L32" s="240">
+      <c r="J32" s="244"/>
+      <c r="K32" s="244"/>
+      <c r="L32" s="244">
         <v>0.03</v>
       </c>
-      <c r="M32" s="240"/>
-      <c r="N32" s="240"/>
-      <c r="O32" s="240">
+      <c r="M32" s="244"/>
+      <c r="N32" s="244"/>
+      <c r="O32" s="244">
         <v>0.03</v>
       </c>
-      <c r="P32" s="240"/>
-      <c r="Q32" s="240"/>
-      <c r="R32" s="241">
+      <c r="P32" s="244"/>
+      <c r="Q32" s="244"/>
+      <c r="R32" s="245">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="S32" s="241"/>
-      <c r="T32" s="241"/>
-      <c r="U32" s="247"/>
-      <c r="V32" s="248"/>
-      <c r="W32" s="248"/>
-      <c r="X32" s="248"/>
-      <c r="Y32" s="251">
-        <f>A30-R32</f>
-        <v>49.97</v>
-      </c>
-      <c r="Z32" s="252"/>
-      <c r="AA32" s="253"/>
+      <c r="S32" s="245"/>
+      <c r="T32" s="245"/>
+      <c r="U32" s="263"/>
+      <c r="V32" s="264"/>
+      <c r="W32" s="264"/>
+      <c r="X32" s="264"/>
+      <c r="Y32" s="246">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="Z32" s="247"/>
+      <c r="AA32" s="248"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
@@ -11091,49 +11082,49 @@
       <c r="IJ32" s="1"/>
     </row>
     <row r="33" spans="1:245" ht="21" customHeight="1">
-      <c r="A33" s="265"/>
-      <c r="B33" s="266"/>
-      <c r="C33" s="266"/>
-      <c r="D33" s="256">
+      <c r="A33" s="251"/>
+      <c r="B33" s="252"/>
+      <c r="C33" s="252"/>
+      <c r="D33" s="241">
         <v>4</v>
       </c>
-      <c r="E33" s="256"/>
-      <c r="F33" s="240">
+      <c r="E33" s="241"/>
+      <c r="F33" s="244">
         <v>0.04</v>
       </c>
-      <c r="G33" s="240"/>
-      <c r="H33" s="240"/>
-      <c r="I33" s="240">
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
+      <c r="I33" s="244">
         <v>0.04</v>
       </c>
-      <c r="J33" s="240"/>
-      <c r="K33" s="240"/>
-      <c r="L33" s="240">
+      <c r="J33" s="244"/>
+      <c r="K33" s="244"/>
+      <c r="L33" s="244">
         <v>0.04</v>
       </c>
-      <c r="M33" s="240"/>
-      <c r="N33" s="240"/>
-      <c r="O33" s="240">
+      <c r="M33" s="244"/>
+      <c r="N33" s="244"/>
+      <c r="O33" s="244">
         <v>0.04</v>
       </c>
-      <c r="P33" s="240"/>
-      <c r="Q33" s="240"/>
-      <c r="R33" s="241">
+      <c r="P33" s="244"/>
+      <c r="Q33" s="244"/>
+      <c r="R33" s="245">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="S33" s="241"/>
-      <c r="T33" s="241"/>
-      <c r="U33" s="247"/>
-      <c r="V33" s="248"/>
-      <c r="W33" s="248"/>
-      <c r="X33" s="248"/>
-      <c r="Y33" s="251">
-        <f>A30-R33</f>
-        <v>49.96</v>
-      </c>
-      <c r="Z33" s="252"/>
-      <c r="AA33" s="253"/>
+      <c r="S33" s="245"/>
+      <c r="T33" s="245"/>
+      <c r="U33" s="263"/>
+      <c r="V33" s="264"/>
+      <c r="W33" s="264"/>
+      <c r="X33" s="264"/>
+      <c r="Y33" s="246">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="Z33" s="247"/>
+      <c r="AA33" s="248"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
@@ -11347,102 +11338,102 @@
       <c r="IJ33" s="1"/>
     </row>
     <row r="34" spans="1:245" ht="18.75" customHeight="1">
-      <c r="A34" s="267"/>
-      <c r="B34" s="268"/>
-      <c r="C34" s="268"/>
-      <c r="D34" s="256">
+      <c r="A34" s="253"/>
+      <c r="B34" s="254"/>
+      <c r="C34" s="254"/>
+      <c r="D34" s="241">
         <v>5</v>
       </c>
-      <c r="E34" s="256"/>
-      <c r="F34" s="240">
+      <c r="E34" s="241"/>
+      <c r="F34" s="244">
         <v>0.04</v>
       </c>
-      <c r="G34" s="240"/>
-      <c r="H34" s="240"/>
-      <c r="I34" s="240">
+      <c r="G34" s="244"/>
+      <c r="H34" s="244"/>
+      <c r="I34" s="244">
         <v>0.04</v>
       </c>
-      <c r="J34" s="240"/>
-      <c r="K34" s="240"/>
-      <c r="L34" s="240">
+      <c r="J34" s="244"/>
+      <c r="K34" s="244"/>
+      <c r="L34" s="244">
         <v>0.04</v>
       </c>
-      <c r="M34" s="240"/>
-      <c r="N34" s="240"/>
-      <c r="O34" s="240">
+      <c r="M34" s="244"/>
+      <c r="N34" s="244"/>
+      <c r="O34" s="244">
         <v>0.04</v>
       </c>
-      <c r="P34" s="240"/>
-      <c r="Q34" s="240"/>
-      <c r="R34" s="241">
+      <c r="P34" s="244"/>
+      <c r="Q34" s="244"/>
+      <c r="R34" s="245">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="S34" s="241"/>
-      <c r="T34" s="241"/>
-      <c r="U34" s="249"/>
-      <c r="V34" s="250"/>
-      <c r="W34" s="250"/>
-      <c r="X34" s="250"/>
-      <c r="Y34" s="257">
-        <f>A30-R34</f>
-        <v>49.96</v>
-      </c>
-      <c r="Z34" s="258"/>
-      <c r="AA34" s="259"/>
+      <c r="S34" s="245"/>
+      <c r="T34" s="245"/>
+      <c r="U34" s="265"/>
+      <c r="V34" s="266"/>
+      <c r="W34" s="266"/>
+      <c r="X34" s="266"/>
+      <c r="Y34" s="246">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="Z34" s="247"/>
+      <c r="AA34" s="248"/>
     </row>
     <row r="35" spans="1:245" ht="21" customHeight="1">
-      <c r="A35" s="263">
+      <c r="A35" s="249">
         <v>100</v>
       </c>
-      <c r="B35" s="264"/>
-      <c r="C35" s="264"/>
-      <c r="D35" s="256">
+      <c r="B35" s="250"/>
+      <c r="C35" s="250"/>
+      <c r="D35" s="241">
         <v>1</v>
       </c>
-      <c r="E35" s="256"/>
-      <c r="F35" s="260">
+      <c r="E35" s="241"/>
+      <c r="F35" s="255">
         <v>0.01</v>
       </c>
-      <c r="G35" s="261"/>
-      <c r="H35" s="262"/>
-      <c r="I35" s="260">
+      <c r="G35" s="256"/>
+      <c r="H35" s="257"/>
+      <c r="I35" s="255">
         <v>0.01</v>
       </c>
-      <c r="J35" s="261"/>
-      <c r="K35" s="262"/>
-      <c r="L35" s="260">
+      <c r="J35" s="256"/>
+      <c r="K35" s="257"/>
+      <c r="L35" s="255">
         <v>0.01</v>
       </c>
-      <c r="M35" s="261"/>
-      <c r="N35" s="262"/>
-      <c r="O35" s="260">
+      <c r="M35" s="256"/>
+      <c r="N35" s="257"/>
+      <c r="O35" s="255">
         <v>0.01</v>
       </c>
-      <c r="P35" s="261"/>
-      <c r="Q35" s="262"/>
-      <c r="R35" s="242">
+      <c r="P35" s="256"/>
+      <c r="Q35" s="257"/>
+      <c r="R35" s="258">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="S35" s="243"/>
-      <c r="T35" s="244"/>
-      <c r="U35" s="245">
-        <f>STDEV(R35:T39)/SQRT(4)</f>
+      <c r="S35" s="259"/>
+      <c r="T35" s="260"/>
+      <c r="U35" s="261">
+        <f t="shared" ref="U35" si="4">_xlfn.STDEV.S(R35:T39)/SQRT(4)</f>
         <v>6.5192024052026449E-3</v>
       </c>
-      <c r="V35" s="246"/>
-      <c r="W35" s="246"/>
-      <c r="X35" s="246"/>
-      <c r="Y35" s="251">
-        <f>A35-R35</f>
-        <v>99.99</v>
-      </c>
-      <c r="Z35" s="252"/>
-      <c r="AA35" s="253"/>
-      <c r="AF35" s="254"/>
-      <c r="AG35" s="254"/>
-      <c r="AH35" s="254"/>
+      <c r="V35" s="262"/>
+      <c r="W35" s="262"/>
+      <c r="X35" s="262"/>
+      <c r="Y35" s="246">
+        <f t="shared" si="1"/>
+        <v>-99.99</v>
+      </c>
+      <c r="Z35" s="247"/>
+      <c r="AA35" s="248"/>
+      <c r="AF35" s="240"/>
+      <c r="AG35" s="240"/>
+      <c r="AH35" s="240"/>
       <c r="BC35" s="1"/>
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
@@ -11636,52 +11627,52 @@
       <c r="IK35" s="1"/>
     </row>
     <row r="36" spans="1:245" ht="21" customHeight="1">
-      <c r="A36" s="265"/>
-      <c r="B36" s="266"/>
-      <c r="C36" s="266"/>
-      <c r="D36" s="256">
+      <c r="A36" s="251"/>
+      <c r="B36" s="252"/>
+      <c r="C36" s="252"/>
+      <c r="D36" s="241">
         <v>2</v>
       </c>
-      <c r="E36" s="256"/>
-      <c r="F36" s="240">
+      <c r="E36" s="241"/>
+      <c r="F36" s="244">
         <v>0.02</v>
       </c>
-      <c r="G36" s="240"/>
-      <c r="H36" s="240"/>
-      <c r="I36" s="240">
+      <c r="G36" s="244"/>
+      <c r="H36" s="244"/>
+      <c r="I36" s="244">
         <v>0.02</v>
       </c>
-      <c r="J36" s="240"/>
-      <c r="K36" s="240"/>
-      <c r="L36" s="240">
+      <c r="J36" s="244"/>
+      <c r="K36" s="244"/>
+      <c r="L36" s="244">
         <v>0.02</v>
       </c>
-      <c r="M36" s="240"/>
-      <c r="N36" s="240"/>
-      <c r="O36" s="240">
+      <c r="M36" s="244"/>
+      <c r="N36" s="244"/>
+      <c r="O36" s="244">
         <v>0.02</v>
       </c>
-      <c r="P36" s="240"/>
-      <c r="Q36" s="240"/>
-      <c r="R36" s="241">
+      <c r="P36" s="244"/>
+      <c r="Q36" s="244"/>
+      <c r="R36" s="245">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="S36" s="241"/>
-      <c r="T36" s="241"/>
-      <c r="U36" s="247"/>
-      <c r="V36" s="248"/>
-      <c r="W36" s="248"/>
-      <c r="X36" s="248"/>
-      <c r="Y36" s="251">
-        <f>A35-R36</f>
-        <v>99.98</v>
-      </c>
-      <c r="Z36" s="252"/>
-      <c r="AA36" s="253"/>
-      <c r="AF36" s="254"/>
-      <c r="AG36" s="254"/>
-      <c r="AH36" s="254"/>
+      <c r="S36" s="245"/>
+      <c r="T36" s="245"/>
+      <c r="U36" s="263"/>
+      <c r="V36" s="264"/>
+      <c r="W36" s="264"/>
+      <c r="X36" s="264"/>
+      <c r="Y36" s="246">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="Z36" s="247"/>
+      <c r="AA36" s="248"/>
+      <c r="AF36" s="240"/>
+      <c r="AG36" s="240"/>
+      <c r="AH36" s="240"/>
       <c r="BC36" s="1"/>
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
@@ -11875,52 +11866,52 @@
       <c r="IK36" s="1"/>
     </row>
     <row r="37" spans="1:245" ht="21" customHeight="1">
-      <c r="A37" s="265"/>
-      <c r="B37" s="266"/>
-      <c r="C37" s="266"/>
-      <c r="D37" s="256">
+      <c r="A37" s="251"/>
+      <c r="B37" s="252"/>
+      <c r="C37" s="252"/>
+      <c r="D37" s="241">
         <v>3</v>
       </c>
-      <c r="E37" s="256"/>
-      <c r="F37" s="240">
+      <c r="E37" s="241"/>
+      <c r="F37" s="244">
         <v>0.03</v>
       </c>
-      <c r="G37" s="240"/>
-      <c r="H37" s="240"/>
-      <c r="I37" s="240">
+      <c r="G37" s="244"/>
+      <c r="H37" s="244"/>
+      <c r="I37" s="244">
         <v>0.03</v>
       </c>
-      <c r="J37" s="240"/>
-      <c r="K37" s="240"/>
-      <c r="L37" s="240">
+      <c r="J37" s="244"/>
+      <c r="K37" s="244"/>
+      <c r="L37" s="244">
         <v>0.03</v>
       </c>
-      <c r="M37" s="240"/>
-      <c r="N37" s="240"/>
-      <c r="O37" s="240">
+      <c r="M37" s="244"/>
+      <c r="N37" s="244"/>
+      <c r="O37" s="244">
         <v>0.03</v>
       </c>
-      <c r="P37" s="240"/>
-      <c r="Q37" s="240"/>
-      <c r="R37" s="241">
+      <c r="P37" s="244"/>
+      <c r="Q37" s="244"/>
+      <c r="R37" s="245">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="S37" s="241"/>
-      <c r="T37" s="241"/>
-      <c r="U37" s="247"/>
-      <c r="V37" s="248"/>
-      <c r="W37" s="248"/>
-      <c r="X37" s="248"/>
-      <c r="Y37" s="251">
-        <f>A35-R37</f>
-        <v>99.97</v>
-      </c>
-      <c r="Z37" s="252"/>
-      <c r="AA37" s="253"/>
-      <c r="AF37" s="254"/>
-      <c r="AG37" s="254"/>
-      <c r="AH37" s="254"/>
+      <c r="S37" s="245"/>
+      <c r="T37" s="245"/>
+      <c r="U37" s="263"/>
+      <c r="V37" s="264"/>
+      <c r="W37" s="264"/>
+      <c r="X37" s="264"/>
+      <c r="Y37" s="246">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="Z37" s="247"/>
+      <c r="AA37" s="248"/>
+      <c r="AF37" s="240"/>
+      <c r="AG37" s="240"/>
+      <c r="AH37" s="240"/>
       <c r="BC37" s="1"/>
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
@@ -12114,52 +12105,52 @@
       <c r="IK37" s="1"/>
     </row>
     <row r="38" spans="1:245" ht="21" customHeight="1">
-      <c r="A38" s="265"/>
-      <c r="B38" s="266"/>
-      <c r="C38" s="266"/>
-      <c r="D38" s="256">
+      <c r="A38" s="251"/>
+      <c r="B38" s="252"/>
+      <c r="C38" s="252"/>
+      <c r="D38" s="241">
         <v>4</v>
       </c>
-      <c r="E38" s="256"/>
-      <c r="F38" s="240">
+      <c r="E38" s="241"/>
+      <c r="F38" s="244">
         <v>0.04</v>
       </c>
-      <c r="G38" s="240"/>
-      <c r="H38" s="240"/>
-      <c r="I38" s="240">
+      <c r="G38" s="244"/>
+      <c r="H38" s="244"/>
+      <c r="I38" s="244">
         <v>0.04</v>
       </c>
-      <c r="J38" s="240"/>
-      <c r="K38" s="240"/>
-      <c r="L38" s="240">
+      <c r="J38" s="244"/>
+      <c r="K38" s="244"/>
+      <c r="L38" s="244">
         <v>0.04</v>
       </c>
-      <c r="M38" s="240"/>
-      <c r="N38" s="240"/>
-      <c r="O38" s="240">
+      <c r="M38" s="244"/>
+      <c r="N38" s="244"/>
+      <c r="O38" s="244">
         <v>0.04</v>
       </c>
-      <c r="P38" s="240"/>
-      <c r="Q38" s="240"/>
-      <c r="R38" s="241">
+      <c r="P38" s="244"/>
+      <c r="Q38" s="244"/>
+      <c r="R38" s="245">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="S38" s="241"/>
-      <c r="T38" s="241"/>
-      <c r="U38" s="247"/>
-      <c r="V38" s="248"/>
-      <c r="W38" s="248"/>
-      <c r="X38" s="248"/>
-      <c r="Y38" s="251">
-        <f>A35-R38</f>
-        <v>99.96</v>
-      </c>
-      <c r="Z38" s="252"/>
-      <c r="AA38" s="253"/>
-      <c r="AF38" s="254"/>
-      <c r="AG38" s="254"/>
-      <c r="AH38" s="254"/>
+      <c r="S38" s="245"/>
+      <c r="T38" s="245"/>
+      <c r="U38" s="263"/>
+      <c r="V38" s="264"/>
+      <c r="W38" s="264"/>
+      <c r="X38" s="264"/>
+      <c r="Y38" s="246">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="Z38" s="247"/>
+      <c r="AA38" s="248"/>
+      <c r="AF38" s="240"/>
+      <c r="AG38" s="240"/>
+      <c r="AH38" s="240"/>
       <c r="BC38" s="1"/>
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
@@ -12353,49 +12344,49 @@
       <c r="IK38" s="1"/>
     </row>
     <row r="39" spans="1:245" ht="21" customHeight="1">
-      <c r="A39" s="267"/>
-      <c r="B39" s="268"/>
-      <c r="C39" s="268"/>
-      <c r="D39" s="256">
+      <c r="A39" s="253"/>
+      <c r="B39" s="254"/>
+      <c r="C39" s="254"/>
+      <c r="D39" s="241">
         <v>5</v>
       </c>
-      <c r="E39" s="256"/>
-      <c r="F39" s="240">
+      <c r="E39" s="241"/>
+      <c r="F39" s="244">
         <v>0.04</v>
       </c>
-      <c r="G39" s="240"/>
-      <c r="H39" s="240"/>
-      <c r="I39" s="240">
+      <c r="G39" s="244"/>
+      <c r="H39" s="244"/>
+      <c r="I39" s="244">
         <v>0.04</v>
       </c>
-      <c r="J39" s="240"/>
-      <c r="K39" s="240"/>
-      <c r="L39" s="240">
+      <c r="J39" s="244"/>
+      <c r="K39" s="244"/>
+      <c r="L39" s="244">
         <v>0.04</v>
       </c>
-      <c r="M39" s="240"/>
-      <c r="N39" s="240"/>
-      <c r="O39" s="240">
+      <c r="M39" s="244"/>
+      <c r="N39" s="244"/>
+      <c r="O39" s="244">
         <v>0.04</v>
       </c>
-      <c r="P39" s="240"/>
-      <c r="Q39" s="240"/>
-      <c r="R39" s="241">
+      <c r="P39" s="244"/>
+      <c r="Q39" s="244"/>
+      <c r="R39" s="245">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="S39" s="241"/>
-      <c r="T39" s="241"/>
-      <c r="U39" s="249"/>
-      <c r="V39" s="250"/>
-      <c r="W39" s="250"/>
-      <c r="X39" s="250"/>
-      <c r="Y39" s="257">
-        <f>A35-R39</f>
-        <v>99.96</v>
-      </c>
-      <c r="Z39" s="258"/>
-      <c r="AA39" s="259"/>
+      <c r="S39" s="245"/>
+      <c r="T39" s="245"/>
+      <c r="U39" s="265"/>
+      <c r="V39" s="266"/>
+      <c r="W39" s="266"/>
+      <c r="X39" s="266"/>
+      <c r="Y39" s="246">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="Z39" s="247"/>
+      <c r="AA39" s="248"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -12609,57 +12600,57 @@
       <c r="IJ39" s="1"/>
     </row>
     <row r="40" spans="1:245" ht="21" customHeight="1">
-      <c r="A40" s="263">
+      <c r="A40" s="249">
         <v>200</v>
       </c>
-      <c r="B40" s="264"/>
-      <c r="C40" s="264"/>
-      <c r="D40" s="256">
+      <c r="B40" s="250"/>
+      <c r="C40" s="250"/>
+      <c r="D40" s="241">
         <v>1</v>
       </c>
-      <c r="E40" s="256"/>
-      <c r="F40" s="260">
+      <c r="E40" s="241"/>
+      <c r="F40" s="255">
         <v>0.01</v>
       </c>
-      <c r="G40" s="261"/>
-      <c r="H40" s="262"/>
-      <c r="I40" s="260">
+      <c r="G40" s="256"/>
+      <c r="H40" s="257"/>
+      <c r="I40" s="255">
         <v>0.01</v>
       </c>
-      <c r="J40" s="261"/>
-      <c r="K40" s="262"/>
-      <c r="L40" s="260">
+      <c r="J40" s="256"/>
+      <c r="K40" s="257"/>
+      <c r="L40" s="255">
         <v>0.01</v>
       </c>
-      <c r="M40" s="261"/>
-      <c r="N40" s="262"/>
-      <c r="O40" s="260">
+      <c r="M40" s="256"/>
+      <c r="N40" s="257"/>
+      <c r="O40" s="255">
         <v>0.01</v>
       </c>
-      <c r="P40" s="261"/>
-      <c r="Q40" s="262"/>
-      <c r="R40" s="242">
+      <c r="P40" s="256"/>
+      <c r="Q40" s="257"/>
+      <c r="R40" s="258">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="S40" s="243"/>
-      <c r="T40" s="244"/>
-      <c r="U40" s="245">
-        <f>STDEV(R40:T44)/SQRT(4)</f>
+      <c r="S40" s="259"/>
+      <c r="T40" s="260"/>
+      <c r="U40" s="261">
+        <f t="shared" ref="U40" si="5">_xlfn.STDEV.S(R40:T44)/SQRT(4)</f>
         <v>6.5192024052026449E-3</v>
       </c>
-      <c r="V40" s="246"/>
-      <c r="W40" s="246"/>
-      <c r="X40" s="246"/>
-      <c r="Y40" s="251">
-        <f>A40-R40</f>
-        <v>199.99</v>
-      </c>
-      <c r="Z40" s="252"/>
-      <c r="AA40" s="253"/>
-      <c r="AF40" s="254"/>
-      <c r="AG40" s="254"/>
-      <c r="AH40" s="254"/>
+      <c r="V40" s="262"/>
+      <c r="W40" s="262"/>
+      <c r="X40" s="262"/>
+      <c r="Y40" s="246">
+        <f t="shared" si="1"/>
+        <v>-199.99</v>
+      </c>
+      <c r="Z40" s="247"/>
+      <c r="AA40" s="248"/>
+      <c r="AF40" s="240"/>
+      <c r="AG40" s="240"/>
+      <c r="AH40" s="240"/>
       <c r="BC40" s="1"/>
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
@@ -12853,52 +12844,52 @@
       <c r="IK40" s="1"/>
     </row>
     <row r="41" spans="1:245" ht="21" customHeight="1">
-      <c r="A41" s="265"/>
-      <c r="B41" s="266"/>
-      <c r="C41" s="266"/>
-      <c r="D41" s="256">
+      <c r="A41" s="251"/>
+      <c r="B41" s="252"/>
+      <c r="C41" s="252"/>
+      <c r="D41" s="241">
         <v>2</v>
       </c>
-      <c r="E41" s="256"/>
-      <c r="F41" s="240">
+      <c r="E41" s="241"/>
+      <c r="F41" s="244">
         <v>0.02</v>
       </c>
-      <c r="G41" s="240"/>
-      <c r="H41" s="240"/>
-      <c r="I41" s="240">
+      <c r="G41" s="244"/>
+      <c r="H41" s="244"/>
+      <c r="I41" s="244">
         <v>0.02</v>
       </c>
-      <c r="J41" s="240"/>
-      <c r="K41" s="240"/>
-      <c r="L41" s="240">
+      <c r="J41" s="244"/>
+      <c r="K41" s="244"/>
+      <c r="L41" s="244">
         <v>0.02</v>
       </c>
-      <c r="M41" s="240"/>
-      <c r="N41" s="240"/>
-      <c r="O41" s="240">
+      <c r="M41" s="244"/>
+      <c r="N41" s="244"/>
+      <c r="O41" s="244">
         <v>0.02</v>
       </c>
-      <c r="P41" s="240"/>
-      <c r="Q41" s="240"/>
-      <c r="R41" s="241">
+      <c r="P41" s="244"/>
+      <c r="Q41" s="244"/>
+      <c r="R41" s="245">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="S41" s="241"/>
-      <c r="T41" s="241"/>
-      <c r="U41" s="247"/>
-      <c r="V41" s="248"/>
-      <c r="W41" s="248"/>
-      <c r="X41" s="248"/>
-      <c r="Y41" s="251">
-        <f>A40-R41</f>
-        <v>199.98</v>
-      </c>
-      <c r="Z41" s="252"/>
-      <c r="AA41" s="253"/>
-      <c r="AF41" s="254"/>
-      <c r="AG41" s="254"/>
-      <c r="AH41" s="254"/>
+      <c r="S41" s="245"/>
+      <c r="T41" s="245"/>
+      <c r="U41" s="263"/>
+      <c r="V41" s="264"/>
+      <c r="W41" s="264"/>
+      <c r="X41" s="264"/>
+      <c r="Y41" s="246">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="Z41" s="247"/>
+      <c r="AA41" s="248"/>
+      <c r="AF41" s="240"/>
+      <c r="AG41" s="240"/>
+      <c r="AH41" s="240"/>
       <c r="BC41" s="1"/>
       <c r="BD41" s="1"/>
       <c r="BE41" s="1"/>
@@ -13092,52 +13083,52 @@
       <c r="IK41" s="1"/>
     </row>
     <row r="42" spans="1:245" ht="21" customHeight="1">
-      <c r="A42" s="265"/>
-      <c r="B42" s="266"/>
-      <c r="C42" s="266"/>
-      <c r="D42" s="256">
+      <c r="A42" s="251"/>
+      <c r="B42" s="252"/>
+      <c r="C42" s="252"/>
+      <c r="D42" s="241">
         <v>3</v>
       </c>
-      <c r="E42" s="256"/>
-      <c r="F42" s="240">
+      <c r="E42" s="241"/>
+      <c r="F42" s="244">
         <v>0.03</v>
       </c>
-      <c r="G42" s="240"/>
-      <c r="H42" s="240"/>
-      <c r="I42" s="240">
+      <c r="G42" s="244"/>
+      <c r="H42" s="244"/>
+      <c r="I42" s="244">
         <v>0.03</v>
       </c>
-      <c r="J42" s="240"/>
-      <c r="K42" s="240"/>
-      <c r="L42" s="240">
+      <c r="J42" s="244"/>
+      <c r="K42" s="244"/>
+      <c r="L42" s="244">
         <v>0.03</v>
       </c>
-      <c r="M42" s="240"/>
-      <c r="N42" s="240"/>
-      <c r="O42" s="240">
+      <c r="M42" s="244"/>
+      <c r="N42" s="244"/>
+      <c r="O42" s="244">
         <v>0.03</v>
       </c>
-      <c r="P42" s="240"/>
-      <c r="Q42" s="240"/>
-      <c r="R42" s="241">
+      <c r="P42" s="244"/>
+      <c r="Q42" s="244"/>
+      <c r="R42" s="245">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="S42" s="241"/>
-      <c r="T42" s="241"/>
-      <c r="U42" s="247"/>
-      <c r="V42" s="248"/>
-      <c r="W42" s="248"/>
-      <c r="X42" s="248"/>
-      <c r="Y42" s="251">
-        <f>A40-R42</f>
-        <v>199.97</v>
-      </c>
-      <c r="Z42" s="252"/>
-      <c r="AA42" s="253"/>
-      <c r="AF42" s="254"/>
-      <c r="AG42" s="254"/>
-      <c r="AH42" s="254"/>
+      <c r="S42" s="245"/>
+      <c r="T42" s="245"/>
+      <c r="U42" s="263"/>
+      <c r="V42" s="264"/>
+      <c r="W42" s="264"/>
+      <c r="X42" s="264"/>
+      <c r="Y42" s="246">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="Z42" s="247"/>
+      <c r="AA42" s="248"/>
+      <c r="AF42" s="240"/>
+      <c r="AG42" s="240"/>
+      <c r="AH42" s="240"/>
       <c r="BC42" s="1"/>
       <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
@@ -13331,52 +13322,52 @@
       <c r="IK42" s="1"/>
     </row>
     <row r="43" spans="1:245" ht="21" customHeight="1">
-      <c r="A43" s="265"/>
-      <c r="B43" s="266"/>
-      <c r="C43" s="266"/>
-      <c r="D43" s="256">
+      <c r="A43" s="251"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="241">
         <v>4</v>
       </c>
-      <c r="E43" s="256"/>
-      <c r="F43" s="240">
+      <c r="E43" s="241"/>
+      <c r="F43" s="244">
         <v>0.04</v>
       </c>
-      <c r="G43" s="240"/>
-      <c r="H43" s="240"/>
-      <c r="I43" s="240">
+      <c r="G43" s="244"/>
+      <c r="H43" s="244"/>
+      <c r="I43" s="244">
         <v>0.04</v>
       </c>
-      <c r="J43" s="240"/>
-      <c r="K43" s="240"/>
-      <c r="L43" s="240">
+      <c r="J43" s="244"/>
+      <c r="K43" s="244"/>
+      <c r="L43" s="244">
         <v>0.04</v>
       </c>
-      <c r="M43" s="240"/>
-      <c r="N43" s="240"/>
-      <c r="O43" s="240">
+      <c r="M43" s="244"/>
+      <c r="N43" s="244"/>
+      <c r="O43" s="244">
         <v>0.04</v>
       </c>
-      <c r="P43" s="240"/>
-      <c r="Q43" s="240"/>
-      <c r="R43" s="241">
+      <c r="P43" s="244"/>
+      <c r="Q43" s="244"/>
+      <c r="R43" s="245">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="S43" s="241"/>
-      <c r="T43" s="241"/>
-      <c r="U43" s="247"/>
-      <c r="V43" s="248"/>
-      <c r="W43" s="248"/>
-      <c r="X43" s="248"/>
-      <c r="Y43" s="251">
-        <f>A40-R43</f>
-        <v>199.96</v>
-      </c>
-      <c r="Z43" s="252"/>
-      <c r="AA43" s="253"/>
-      <c r="AF43" s="254"/>
-      <c r="AG43" s="254"/>
-      <c r="AH43" s="254"/>
+      <c r="S43" s="245"/>
+      <c r="T43" s="245"/>
+      <c r="U43" s="263"/>
+      <c r="V43" s="264"/>
+      <c r="W43" s="264"/>
+      <c r="X43" s="264"/>
+      <c r="Y43" s="246">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="Z43" s="247"/>
+      <c r="AA43" s="248"/>
+      <c r="AF43" s="240"/>
+      <c r="AG43" s="240"/>
+      <c r="AH43" s="240"/>
       <c r="BC43" s="1"/>
       <c r="BD43" s="1"/>
       <c r="BE43" s="1"/>
@@ -13570,49 +13561,49 @@
       <c r="IK43" s="1"/>
     </row>
     <row r="44" spans="1:245" ht="21" customHeight="1">
-      <c r="A44" s="267"/>
-      <c r="B44" s="268"/>
-      <c r="C44" s="268"/>
-      <c r="D44" s="256">
+      <c r="A44" s="253"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="241">
         <v>5</v>
       </c>
-      <c r="E44" s="256"/>
-      <c r="F44" s="240">
+      <c r="E44" s="241"/>
+      <c r="F44" s="244">
         <v>0.04</v>
       </c>
-      <c r="G44" s="240"/>
-      <c r="H44" s="240"/>
-      <c r="I44" s="240">
+      <c r="G44" s="244"/>
+      <c r="H44" s="244"/>
+      <c r="I44" s="244">
         <v>0.04</v>
       </c>
-      <c r="J44" s="240"/>
-      <c r="K44" s="240"/>
-      <c r="L44" s="240">
+      <c r="J44" s="244"/>
+      <c r="K44" s="244"/>
+      <c r="L44" s="244">
         <v>0.04</v>
       </c>
-      <c r="M44" s="240"/>
-      <c r="N44" s="240"/>
-      <c r="O44" s="240">
+      <c r="M44" s="244"/>
+      <c r="N44" s="244"/>
+      <c r="O44" s="244">
         <v>0.04</v>
       </c>
-      <c r="P44" s="240"/>
-      <c r="Q44" s="240"/>
-      <c r="R44" s="241">
+      <c r="P44" s="244"/>
+      <c r="Q44" s="244"/>
+      <c r="R44" s="245">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="S44" s="241"/>
-      <c r="T44" s="241"/>
-      <c r="U44" s="249"/>
-      <c r="V44" s="250"/>
-      <c r="W44" s="250"/>
-      <c r="X44" s="250"/>
-      <c r="Y44" s="257">
-        <f>A40-R44</f>
-        <v>199.96</v>
-      </c>
-      <c r="Z44" s="258"/>
-      <c r="AA44" s="259"/>
+      <c r="S44" s="245"/>
+      <c r="T44" s="245"/>
+      <c r="U44" s="265"/>
+      <c r="V44" s="266"/>
+      <c r="W44" s="266"/>
+      <c r="X44" s="266"/>
+      <c r="Y44" s="246">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="Z44" s="247"/>
+      <c r="AA44" s="248"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
@@ -13826,57 +13817,57 @@
       <c r="IJ44" s="1"/>
     </row>
     <row r="45" spans="1:245" ht="21" customHeight="1">
-      <c r="A45" s="263">
+      <c r="A45" s="249">
         <v>250</v>
       </c>
-      <c r="B45" s="264"/>
-      <c r="C45" s="264"/>
-      <c r="D45" s="256">
+      <c r="B45" s="250"/>
+      <c r="C45" s="250"/>
+      <c r="D45" s="241">
         <v>1</v>
       </c>
-      <c r="E45" s="256"/>
-      <c r="F45" s="260">
+      <c r="E45" s="241"/>
+      <c r="F45" s="255">
         <v>0.01</v>
       </c>
-      <c r="G45" s="261"/>
-      <c r="H45" s="262"/>
-      <c r="I45" s="260">
+      <c r="G45" s="256"/>
+      <c r="H45" s="257"/>
+      <c r="I45" s="255">
         <v>0.01</v>
       </c>
-      <c r="J45" s="261"/>
-      <c r="K45" s="262"/>
-      <c r="L45" s="260">
+      <c r="J45" s="256"/>
+      <c r="K45" s="257"/>
+      <c r="L45" s="255">
         <v>0.01</v>
       </c>
-      <c r="M45" s="261"/>
-      <c r="N45" s="262"/>
-      <c r="O45" s="260">
+      <c r="M45" s="256"/>
+      <c r="N45" s="257"/>
+      <c r="O45" s="255">
         <v>0.01</v>
       </c>
-      <c r="P45" s="261"/>
-      <c r="Q45" s="262"/>
-      <c r="R45" s="242">
+      <c r="P45" s="256"/>
+      <c r="Q45" s="257"/>
+      <c r="R45" s="258">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="S45" s="243"/>
-      <c r="T45" s="244"/>
-      <c r="U45" s="245">
-        <f>STDEV(R45:T49)/SQRT(4)</f>
+      <c r="S45" s="259"/>
+      <c r="T45" s="260"/>
+      <c r="U45" s="261">
+        <f t="shared" ref="U45" si="6">_xlfn.STDEV.S(R45:T49)/SQRT(4)</f>
         <v>6.5192024052026449E-3</v>
       </c>
-      <c r="V45" s="246"/>
-      <c r="W45" s="246"/>
-      <c r="X45" s="246"/>
-      <c r="Y45" s="251">
-        <f>A45-R45</f>
-        <v>249.99</v>
-      </c>
-      <c r="Z45" s="252"/>
-      <c r="AA45" s="253"/>
-      <c r="AF45" s="254"/>
-      <c r="AG45" s="254"/>
-      <c r="AH45" s="254"/>
+      <c r="V45" s="262"/>
+      <c r="W45" s="262"/>
+      <c r="X45" s="262"/>
+      <c r="Y45" s="246">
+        <f t="shared" si="1"/>
+        <v>-249.99</v>
+      </c>
+      <c r="Z45" s="247"/>
+      <c r="AA45" s="248"/>
+      <c r="AF45" s="240"/>
+      <c r="AG45" s="240"/>
+      <c r="AH45" s="240"/>
       <c r="BC45" s="1"/>
       <c r="BD45" s="1"/>
       <c r="BE45" s="1"/>
@@ -14070,52 +14061,52 @@
       <c r="IK45" s="1"/>
     </row>
     <row r="46" spans="1:245" ht="21" customHeight="1">
-      <c r="A46" s="265"/>
-      <c r="B46" s="266"/>
-      <c r="C46" s="266"/>
-      <c r="D46" s="256">
+      <c r="A46" s="251"/>
+      <c r="B46" s="252"/>
+      <c r="C46" s="252"/>
+      <c r="D46" s="241">
         <v>2</v>
       </c>
-      <c r="E46" s="256"/>
-      <c r="F46" s="240">
+      <c r="E46" s="241"/>
+      <c r="F46" s="244">
         <v>0.02</v>
       </c>
-      <c r="G46" s="240"/>
-      <c r="H46" s="240"/>
-      <c r="I46" s="240">
+      <c r="G46" s="244"/>
+      <c r="H46" s="244"/>
+      <c r="I46" s="244">
         <v>0.02</v>
       </c>
-      <c r="J46" s="240"/>
-      <c r="K46" s="240"/>
-      <c r="L46" s="240">
+      <c r="J46" s="244"/>
+      <c r="K46" s="244"/>
+      <c r="L46" s="244">
         <v>0.02</v>
       </c>
-      <c r="M46" s="240"/>
-      <c r="N46" s="240"/>
-      <c r="O46" s="240">
+      <c r="M46" s="244"/>
+      <c r="N46" s="244"/>
+      <c r="O46" s="244">
         <v>0.02</v>
       </c>
-      <c r="P46" s="240"/>
-      <c r="Q46" s="240"/>
-      <c r="R46" s="241">
+      <c r="P46" s="244"/>
+      <c r="Q46" s="244"/>
+      <c r="R46" s="245">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="S46" s="241"/>
-      <c r="T46" s="241"/>
-      <c r="U46" s="247"/>
-      <c r="V46" s="248"/>
-      <c r="W46" s="248"/>
-      <c r="X46" s="248"/>
-      <c r="Y46" s="251">
-        <f>A45-R46</f>
-        <v>249.98</v>
-      </c>
-      <c r="Z46" s="252"/>
-      <c r="AA46" s="253"/>
-      <c r="AF46" s="254"/>
-      <c r="AG46" s="254"/>
-      <c r="AH46" s="254"/>
+      <c r="S46" s="245"/>
+      <c r="T46" s="245"/>
+      <c r="U46" s="263"/>
+      <c r="V46" s="264"/>
+      <c r="W46" s="264"/>
+      <c r="X46" s="264"/>
+      <c r="Y46" s="246">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="Z46" s="247"/>
+      <c r="AA46" s="248"/>
+      <c r="AF46" s="240"/>
+      <c r="AG46" s="240"/>
+      <c r="AH46" s="240"/>
       <c r="BC46" s="1"/>
       <c r="BD46" s="1"/>
       <c r="BE46" s="1"/>
@@ -14309,52 +14300,52 @@
       <c r="IK46" s="1"/>
     </row>
     <row r="47" spans="1:245" ht="21" customHeight="1">
-      <c r="A47" s="265"/>
-      <c r="B47" s="266"/>
-      <c r="C47" s="266"/>
-      <c r="D47" s="256">
+      <c r="A47" s="251"/>
+      <c r="B47" s="252"/>
+      <c r="C47" s="252"/>
+      <c r="D47" s="241">
         <v>3</v>
       </c>
-      <c r="E47" s="256"/>
-      <c r="F47" s="240">
+      <c r="E47" s="241"/>
+      <c r="F47" s="244">
         <v>0.03</v>
       </c>
-      <c r="G47" s="240"/>
-      <c r="H47" s="240"/>
-      <c r="I47" s="240">
+      <c r="G47" s="244"/>
+      <c r="H47" s="244"/>
+      <c r="I47" s="244">
         <v>0.03</v>
       </c>
-      <c r="J47" s="240"/>
-      <c r="K47" s="240"/>
-      <c r="L47" s="240">
+      <c r="J47" s="244"/>
+      <c r="K47" s="244"/>
+      <c r="L47" s="244">
         <v>0.03</v>
       </c>
-      <c r="M47" s="240"/>
-      <c r="N47" s="240"/>
-      <c r="O47" s="240">
+      <c r="M47" s="244"/>
+      <c r="N47" s="244"/>
+      <c r="O47" s="244">
         <v>0.03</v>
       </c>
-      <c r="P47" s="240"/>
-      <c r="Q47" s="240"/>
-      <c r="R47" s="241">
+      <c r="P47" s="244"/>
+      <c r="Q47" s="244"/>
+      <c r="R47" s="245">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="S47" s="241"/>
-      <c r="T47" s="241"/>
-      <c r="U47" s="247"/>
-      <c r="V47" s="248"/>
-      <c r="W47" s="248"/>
-      <c r="X47" s="248"/>
-      <c r="Y47" s="251">
-        <f>A45-R47</f>
-        <v>249.97</v>
-      </c>
-      <c r="Z47" s="252"/>
-      <c r="AA47" s="253"/>
-      <c r="AF47" s="254"/>
-      <c r="AG47" s="254"/>
-      <c r="AH47" s="254"/>
+      <c r="S47" s="245"/>
+      <c r="T47" s="245"/>
+      <c r="U47" s="263"/>
+      <c r="V47" s="264"/>
+      <c r="W47" s="264"/>
+      <c r="X47" s="264"/>
+      <c r="Y47" s="246">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="Z47" s="247"/>
+      <c r="AA47" s="248"/>
+      <c r="AF47" s="240"/>
+      <c r="AG47" s="240"/>
+      <c r="AH47" s="240"/>
       <c r="BC47" s="1"/>
       <c r="BD47" s="1"/>
       <c r="BE47" s="1"/>
@@ -14548,52 +14539,52 @@
       <c r="IK47" s="1"/>
     </row>
     <row r="48" spans="1:245" ht="21" customHeight="1">
-      <c r="A48" s="265"/>
-      <c r="B48" s="266"/>
-      <c r="C48" s="266"/>
-      <c r="D48" s="256">
+      <c r="A48" s="251"/>
+      <c r="B48" s="252"/>
+      <c r="C48" s="252"/>
+      <c r="D48" s="241">
         <v>4</v>
       </c>
-      <c r="E48" s="256"/>
-      <c r="F48" s="240">
+      <c r="E48" s="241"/>
+      <c r="F48" s="244">
         <v>0.04</v>
       </c>
-      <c r="G48" s="240"/>
-      <c r="H48" s="240"/>
-      <c r="I48" s="240">
+      <c r="G48" s="244"/>
+      <c r="H48" s="244"/>
+      <c r="I48" s="244">
         <v>0.04</v>
       </c>
-      <c r="J48" s="240"/>
-      <c r="K48" s="240"/>
-      <c r="L48" s="240">
+      <c r="J48" s="244"/>
+      <c r="K48" s="244"/>
+      <c r="L48" s="244">
         <v>0.04</v>
       </c>
-      <c r="M48" s="240"/>
-      <c r="N48" s="240"/>
-      <c r="O48" s="240">
+      <c r="M48" s="244"/>
+      <c r="N48" s="244"/>
+      <c r="O48" s="244">
         <v>0.04</v>
       </c>
-      <c r="P48" s="240"/>
-      <c r="Q48" s="240"/>
-      <c r="R48" s="241">
+      <c r="P48" s="244"/>
+      <c r="Q48" s="244"/>
+      <c r="R48" s="245">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="S48" s="241"/>
-      <c r="T48" s="241"/>
-      <c r="U48" s="247"/>
-      <c r="V48" s="248"/>
-      <c r="W48" s="248"/>
-      <c r="X48" s="248"/>
-      <c r="Y48" s="251">
-        <f>A45-R48</f>
-        <v>249.96</v>
-      </c>
-      <c r="Z48" s="252"/>
-      <c r="AA48" s="253"/>
-      <c r="AF48" s="254"/>
-      <c r="AG48" s="254"/>
-      <c r="AH48" s="254"/>
+      <c r="S48" s="245"/>
+      <c r="T48" s="245"/>
+      <c r="U48" s="263"/>
+      <c r="V48" s="264"/>
+      <c r="W48" s="264"/>
+      <c r="X48" s="264"/>
+      <c r="Y48" s="246">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="Z48" s="247"/>
+      <c r="AA48" s="248"/>
+      <c r="AF48" s="240"/>
+      <c r="AG48" s="240"/>
+      <c r="AH48" s="240"/>
       <c r="BC48" s="1"/>
       <c r="BD48" s="1"/>
       <c r="BE48" s="1"/>
@@ -14787,49 +14778,49 @@
       <c r="IK48" s="1"/>
     </row>
     <row r="49" spans="1:245" ht="21" customHeight="1">
-      <c r="A49" s="267"/>
-      <c r="B49" s="268"/>
-      <c r="C49" s="268"/>
-      <c r="D49" s="256">
+      <c r="A49" s="253"/>
+      <c r="B49" s="254"/>
+      <c r="C49" s="254"/>
+      <c r="D49" s="241">
         <v>5</v>
       </c>
-      <c r="E49" s="256"/>
-      <c r="F49" s="240">
+      <c r="E49" s="241"/>
+      <c r="F49" s="244">
         <v>0.04</v>
       </c>
-      <c r="G49" s="240"/>
-      <c r="H49" s="240"/>
-      <c r="I49" s="240">
+      <c r="G49" s="244"/>
+      <c r="H49" s="244"/>
+      <c r="I49" s="244">
         <v>0.04</v>
       </c>
-      <c r="J49" s="240"/>
-      <c r="K49" s="240"/>
-      <c r="L49" s="240">
+      <c r="J49" s="244"/>
+      <c r="K49" s="244"/>
+      <c r="L49" s="244">
         <v>0.04</v>
       </c>
-      <c r="M49" s="240"/>
-      <c r="N49" s="240"/>
-      <c r="O49" s="240">
+      <c r="M49" s="244"/>
+      <c r="N49" s="244"/>
+      <c r="O49" s="244">
         <v>0.04</v>
       </c>
-      <c r="P49" s="240"/>
-      <c r="Q49" s="240"/>
-      <c r="R49" s="241">
+      <c r="P49" s="244"/>
+      <c r="Q49" s="244"/>
+      <c r="R49" s="245">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="S49" s="241"/>
-      <c r="T49" s="241"/>
-      <c r="U49" s="249"/>
-      <c r="V49" s="250"/>
-      <c r="W49" s="250"/>
-      <c r="X49" s="250"/>
-      <c r="Y49" s="257">
-        <f>A45-R49</f>
-        <v>249.96</v>
-      </c>
-      <c r="Z49" s="258"/>
-      <c r="AA49" s="259"/>
+      <c r="S49" s="245"/>
+      <c r="T49" s="245"/>
+      <c r="U49" s="265"/>
+      <c r="V49" s="266"/>
+      <c r="W49" s="266"/>
+      <c r="X49" s="266"/>
+      <c r="Y49" s="246">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="Z49" s="247"/>
+      <c r="AA49" s="248"/>
       <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
       <c r="AJ49" s="1"/>
@@ -15043,57 +15034,57 @@
       <c r="IJ49" s="1"/>
     </row>
     <row r="50" spans="1:245" ht="21" customHeight="1">
-      <c r="A50" s="263">
+      <c r="A50" s="249">
         <v>300</v>
       </c>
-      <c r="B50" s="264"/>
-      <c r="C50" s="264"/>
-      <c r="D50" s="256">
+      <c r="B50" s="250"/>
+      <c r="C50" s="250"/>
+      <c r="D50" s="241">
         <v>1</v>
       </c>
-      <c r="E50" s="256"/>
-      <c r="F50" s="260">
+      <c r="E50" s="241"/>
+      <c r="F50" s="255">
         <v>0.01</v>
       </c>
-      <c r="G50" s="261"/>
-      <c r="H50" s="262"/>
-      <c r="I50" s="260">
+      <c r="G50" s="256"/>
+      <c r="H50" s="257"/>
+      <c r="I50" s="255">
         <v>0.01</v>
       </c>
-      <c r="J50" s="261"/>
-      <c r="K50" s="262"/>
-      <c r="L50" s="260">
+      <c r="J50" s="256"/>
+      <c r="K50" s="257"/>
+      <c r="L50" s="255">
         <v>0.01</v>
       </c>
-      <c r="M50" s="261"/>
-      <c r="N50" s="262"/>
-      <c r="O50" s="260">
+      <c r="M50" s="256"/>
+      <c r="N50" s="257"/>
+      <c r="O50" s="255">
         <v>0.01</v>
       </c>
-      <c r="P50" s="261"/>
-      <c r="Q50" s="262"/>
-      <c r="R50" s="242">
+      <c r="P50" s="256"/>
+      <c r="Q50" s="257"/>
+      <c r="R50" s="258">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="S50" s="243"/>
-      <c r="T50" s="244"/>
-      <c r="U50" s="245">
-        <f>STDEV(R50:T54)/SQRT(4)</f>
+      <c r="S50" s="259"/>
+      <c r="T50" s="260"/>
+      <c r="U50" s="261">
+        <f t="shared" ref="U50" si="7">_xlfn.STDEV.S(R50:T54)/SQRT(4)</f>
         <v>6.5192024052026449E-3</v>
       </c>
-      <c r="V50" s="246"/>
-      <c r="W50" s="246"/>
-      <c r="X50" s="246"/>
-      <c r="Y50" s="251">
-        <f>A50-R50</f>
-        <v>299.99</v>
-      </c>
-      <c r="Z50" s="252"/>
-      <c r="AA50" s="253"/>
-      <c r="AF50" s="254"/>
-      <c r="AG50" s="254"/>
-      <c r="AH50" s="254"/>
+      <c r="V50" s="262"/>
+      <c r="W50" s="262"/>
+      <c r="X50" s="262"/>
+      <c r="Y50" s="246">
+        <f t="shared" si="1"/>
+        <v>-299.99</v>
+      </c>
+      <c r="Z50" s="247"/>
+      <c r="AA50" s="248"/>
+      <c r="AF50" s="240"/>
+      <c r="AG50" s="240"/>
+      <c r="AH50" s="240"/>
       <c r="BC50" s="1"/>
       <c r="BD50" s="1"/>
       <c r="BE50" s="1"/>
@@ -15287,52 +15278,52 @@
       <c r="IK50" s="1"/>
     </row>
     <row r="51" spans="1:245" ht="21" customHeight="1">
-      <c r="A51" s="265"/>
-      <c r="B51" s="266"/>
-      <c r="C51" s="266"/>
-      <c r="D51" s="256">
+      <c r="A51" s="251"/>
+      <c r="B51" s="252"/>
+      <c r="C51" s="252"/>
+      <c r="D51" s="241">
         <v>2</v>
       </c>
-      <c r="E51" s="256"/>
-      <c r="F51" s="240">
+      <c r="E51" s="241"/>
+      <c r="F51" s="244">
         <v>0.02</v>
       </c>
-      <c r="G51" s="240"/>
-      <c r="H51" s="240"/>
-      <c r="I51" s="240">
+      <c r="G51" s="244"/>
+      <c r="H51" s="244"/>
+      <c r="I51" s="244">
         <v>0.02</v>
       </c>
-      <c r="J51" s="240"/>
-      <c r="K51" s="240"/>
-      <c r="L51" s="240">
+      <c r="J51" s="244"/>
+      <c r="K51" s="244"/>
+      <c r="L51" s="244">
         <v>0.02</v>
       </c>
-      <c r="M51" s="240"/>
-      <c r="N51" s="240"/>
-      <c r="O51" s="240">
+      <c r="M51" s="244"/>
+      <c r="N51" s="244"/>
+      <c r="O51" s="244">
         <v>0.02</v>
       </c>
-      <c r="P51" s="240"/>
-      <c r="Q51" s="240"/>
-      <c r="R51" s="241">
+      <c r="P51" s="244"/>
+      <c r="Q51" s="244"/>
+      <c r="R51" s="245">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="S51" s="241"/>
-      <c r="T51" s="241"/>
-      <c r="U51" s="247"/>
-      <c r="V51" s="248"/>
-      <c r="W51" s="248"/>
-      <c r="X51" s="248"/>
-      <c r="Y51" s="251">
-        <f>A50-R51</f>
-        <v>299.98</v>
-      </c>
-      <c r="Z51" s="252"/>
-      <c r="AA51" s="253"/>
-      <c r="AF51" s="254"/>
-      <c r="AG51" s="254"/>
-      <c r="AH51" s="254"/>
+      <c r="S51" s="245"/>
+      <c r="T51" s="245"/>
+      <c r="U51" s="263"/>
+      <c r="V51" s="264"/>
+      <c r="W51" s="264"/>
+      <c r="X51" s="264"/>
+      <c r="Y51" s="246">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="Z51" s="247"/>
+      <c r="AA51" s="248"/>
+      <c r="AF51" s="240"/>
+      <c r="AG51" s="240"/>
+      <c r="AH51" s="240"/>
       <c r="BC51" s="1"/>
       <c r="BD51" s="1"/>
       <c r="BE51" s="1"/>
@@ -15526,52 +15517,52 @@
       <c r="IK51" s="1"/>
     </row>
     <row r="52" spans="1:245" ht="21" customHeight="1">
-      <c r="A52" s="265"/>
-      <c r="B52" s="266"/>
-      <c r="C52" s="266"/>
-      <c r="D52" s="256">
+      <c r="A52" s="251"/>
+      <c r="B52" s="252"/>
+      <c r="C52" s="252"/>
+      <c r="D52" s="241">
         <v>3</v>
       </c>
-      <c r="E52" s="256"/>
-      <c r="F52" s="240">
+      <c r="E52" s="241"/>
+      <c r="F52" s="244">
         <v>0.03</v>
       </c>
-      <c r="G52" s="240"/>
-      <c r="H52" s="240"/>
-      <c r="I52" s="240">
+      <c r="G52" s="244"/>
+      <c r="H52" s="244"/>
+      <c r="I52" s="244">
         <v>0.03</v>
       </c>
-      <c r="J52" s="240"/>
-      <c r="K52" s="240"/>
-      <c r="L52" s="240">
+      <c r="J52" s="244"/>
+      <c r="K52" s="244"/>
+      <c r="L52" s="244">
         <v>0.03</v>
       </c>
-      <c r="M52" s="240"/>
-      <c r="N52" s="240"/>
-      <c r="O52" s="240">
+      <c r="M52" s="244"/>
+      <c r="N52" s="244"/>
+      <c r="O52" s="244">
         <v>0.03</v>
       </c>
-      <c r="P52" s="240"/>
-      <c r="Q52" s="240"/>
-      <c r="R52" s="241">
-        <f t="shared" ref="R52:R69" si="1">AVERAGE(F52:Q52)</f>
+      <c r="P52" s="244"/>
+      <c r="Q52" s="244"/>
+      <c r="R52" s="245">
+        <f t="shared" ref="R52:R69" si="8">AVERAGE(F52:Q52)</f>
         <v>0.03</v>
       </c>
-      <c r="S52" s="241"/>
-      <c r="T52" s="241"/>
-      <c r="U52" s="247"/>
-      <c r="V52" s="248"/>
-      <c r="W52" s="248"/>
-      <c r="X52" s="248"/>
-      <c r="Y52" s="251">
-        <f>A50-R52</f>
-        <v>299.97000000000003</v>
-      </c>
-      <c r="Z52" s="252"/>
-      <c r="AA52" s="253"/>
-      <c r="AF52" s="254"/>
-      <c r="AG52" s="254"/>
-      <c r="AH52" s="254"/>
+      <c r="S52" s="245"/>
+      <c r="T52" s="245"/>
+      <c r="U52" s="263"/>
+      <c r="V52" s="264"/>
+      <c r="W52" s="264"/>
+      <c r="X52" s="264"/>
+      <c r="Y52" s="246">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="Z52" s="247"/>
+      <c r="AA52" s="248"/>
+      <c r="AF52" s="240"/>
+      <c r="AG52" s="240"/>
+      <c r="AH52" s="240"/>
       <c r="BC52" s="1"/>
       <c r="BD52" s="1"/>
       <c r="BE52" s="1"/>
@@ -15765,52 +15756,52 @@
       <c r="IK52" s="1"/>
     </row>
     <row r="53" spans="1:245" ht="21" customHeight="1">
-      <c r="A53" s="265"/>
-      <c r="B53" s="266"/>
-      <c r="C53" s="266"/>
-      <c r="D53" s="256">
+      <c r="A53" s="251"/>
+      <c r="B53" s="252"/>
+      <c r="C53" s="252"/>
+      <c r="D53" s="241">
         <v>4</v>
       </c>
-      <c r="E53" s="256"/>
-      <c r="F53" s="240">
+      <c r="E53" s="241"/>
+      <c r="F53" s="244">
         <v>0.04</v>
       </c>
-      <c r="G53" s="240"/>
-      <c r="H53" s="240"/>
-      <c r="I53" s="240">
+      <c r="G53" s="244"/>
+      <c r="H53" s="244"/>
+      <c r="I53" s="244">
         <v>0.04</v>
       </c>
-      <c r="J53" s="240"/>
-      <c r="K53" s="240"/>
-      <c r="L53" s="240">
+      <c r="J53" s="244"/>
+      <c r="K53" s="244"/>
+      <c r="L53" s="244">
         <v>0.04</v>
       </c>
-      <c r="M53" s="240"/>
-      <c r="N53" s="240"/>
-      <c r="O53" s="240">
+      <c r="M53" s="244"/>
+      <c r="N53" s="244"/>
+      <c r="O53" s="244">
         <v>0.04</v>
       </c>
-      <c r="P53" s="240"/>
-      <c r="Q53" s="240"/>
-      <c r="R53" s="241">
+      <c r="P53" s="244"/>
+      <c r="Q53" s="244"/>
+      <c r="R53" s="245">
+        <f t="shared" si="8"/>
+        <v>0.04</v>
+      </c>
+      <c r="S53" s="245"/>
+      <c r="T53" s="245"/>
+      <c r="U53" s="263"/>
+      <c r="V53" s="264"/>
+      <c r="W53" s="264"/>
+      <c r="X53" s="264"/>
+      <c r="Y53" s="246">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="S53" s="241"/>
-      <c r="T53" s="241"/>
-      <c r="U53" s="247"/>
-      <c r="V53" s="248"/>
-      <c r="W53" s="248"/>
-      <c r="X53" s="248"/>
-      <c r="Y53" s="251">
-        <f>A50-R53</f>
-        <v>299.95999999999998</v>
-      </c>
-      <c r="Z53" s="252"/>
-      <c r="AA53" s="253"/>
-      <c r="AF53" s="254"/>
-      <c r="AG53" s="254"/>
-      <c r="AH53" s="254"/>
+      <c r="Z53" s="247"/>
+      <c r="AA53" s="248"/>
+      <c r="AF53" s="240"/>
+      <c r="AG53" s="240"/>
+      <c r="AH53" s="240"/>
       <c r="BC53" s="1"/>
       <c r="BD53" s="1"/>
       <c r="BE53" s="1"/>
@@ -16004,49 +15995,49 @@
       <c r="IK53" s="1"/>
     </row>
     <row r="54" spans="1:245" ht="21" customHeight="1">
-      <c r="A54" s="267"/>
-      <c r="B54" s="268"/>
-      <c r="C54" s="268"/>
-      <c r="D54" s="256">
+      <c r="A54" s="253"/>
+      <c r="B54" s="254"/>
+      <c r="C54" s="254"/>
+      <c r="D54" s="241">
         <v>5</v>
       </c>
-      <c r="E54" s="256"/>
-      <c r="F54" s="240">
+      <c r="E54" s="241"/>
+      <c r="F54" s="244">
         <v>0.04</v>
       </c>
-      <c r="G54" s="240"/>
-      <c r="H54" s="240"/>
-      <c r="I54" s="240">
+      <c r="G54" s="244"/>
+      <c r="H54" s="244"/>
+      <c r="I54" s="244">
         <v>0.04</v>
       </c>
-      <c r="J54" s="240"/>
-      <c r="K54" s="240"/>
-      <c r="L54" s="240">
+      <c r="J54" s="244"/>
+      <c r="K54" s="244"/>
+      <c r="L54" s="244">
         <v>0.04</v>
       </c>
-      <c r="M54" s="240"/>
-      <c r="N54" s="240"/>
-      <c r="O54" s="240">
+      <c r="M54" s="244"/>
+      <c r="N54" s="244"/>
+      <c r="O54" s="244">
         <v>0.04</v>
       </c>
-      <c r="P54" s="240"/>
-      <c r="Q54" s="240"/>
-      <c r="R54" s="241">
+      <c r="P54" s="244"/>
+      <c r="Q54" s="244"/>
+      <c r="R54" s="245">
+        <f t="shared" si="8"/>
+        <v>0.04</v>
+      </c>
+      <c r="S54" s="245"/>
+      <c r="T54" s="245"/>
+      <c r="U54" s="265"/>
+      <c r="V54" s="266"/>
+      <c r="W54" s="266"/>
+      <c r="X54" s="266"/>
+      <c r="Y54" s="246">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="S54" s="241"/>
-      <c r="T54" s="241"/>
-      <c r="U54" s="249"/>
-      <c r="V54" s="250"/>
-      <c r="W54" s="250"/>
-      <c r="X54" s="250"/>
-      <c r="Y54" s="257">
-        <f>A50-R54</f>
-        <v>299.95999999999998</v>
-      </c>
-      <c r="Z54" s="258"/>
-      <c r="AA54" s="259"/>
+      <c r="Z54" s="247"/>
+      <c r="AA54" s="248"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
@@ -16260,57 +16251,57 @@
       <c r="IJ54" s="1"/>
     </row>
     <row r="55" spans="1:245" ht="21" customHeight="1">
-      <c r="A55" s="263">
+      <c r="A55" s="249">
         <v>500</v>
       </c>
-      <c r="B55" s="264"/>
-      <c r="C55" s="264"/>
-      <c r="D55" s="256">
+      <c r="B55" s="250"/>
+      <c r="C55" s="250"/>
+      <c r="D55" s="241">
         <v>1</v>
       </c>
-      <c r="E55" s="256"/>
-      <c r="F55" s="260">
+      <c r="E55" s="241"/>
+      <c r="F55" s="255">
         <v>0.01</v>
       </c>
-      <c r="G55" s="261"/>
-      <c r="H55" s="262"/>
-      <c r="I55" s="260">
+      <c r="G55" s="256"/>
+      <c r="H55" s="257"/>
+      <c r="I55" s="255">
         <v>0.01</v>
       </c>
-      <c r="J55" s="261"/>
-      <c r="K55" s="262"/>
-      <c r="L55" s="260">
+      <c r="J55" s="256"/>
+      <c r="K55" s="257"/>
+      <c r="L55" s="255">
         <v>0.01</v>
       </c>
-      <c r="M55" s="261"/>
-      <c r="N55" s="262"/>
-      <c r="O55" s="260">
+      <c r="M55" s="256"/>
+      <c r="N55" s="257"/>
+      <c r="O55" s="255">
         <v>0.01</v>
       </c>
-      <c r="P55" s="261"/>
-      <c r="Q55" s="262"/>
-      <c r="R55" s="242">
+      <c r="P55" s="256"/>
+      <c r="Q55" s="257"/>
+      <c r="R55" s="258">
+        <f t="shared" si="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="S55" s="259"/>
+      <c r="T55" s="260"/>
+      <c r="U55" s="261">
+        <f t="shared" ref="U55" si="9">_xlfn.STDEV.S(R55:T59)/SQRT(4)</f>
+        <v>6.5192024052026449E-3</v>
+      </c>
+      <c r="V55" s="262"/>
+      <c r="W55" s="262"/>
+      <c r="X55" s="262"/>
+      <c r="Y55" s="246">
         <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="S55" s="243"/>
-      <c r="T55" s="244"/>
-      <c r="U55" s="245">
-        <f>STDEV(R55:T59)/SQRT(4)</f>
-        <v>6.5192024052026449E-3</v>
-      </c>
-      <c r="V55" s="246"/>
-      <c r="W55" s="246"/>
-      <c r="X55" s="246"/>
-      <c r="Y55" s="251">
-        <f>A55-R55</f>
-        <v>499.99</v>
-      </c>
-      <c r="Z55" s="252"/>
-      <c r="AA55" s="253"/>
-      <c r="AF55" s="254"/>
-      <c r="AG55" s="254"/>
-      <c r="AH55" s="254"/>
+        <v>-499.99</v>
+      </c>
+      <c r="Z55" s="247"/>
+      <c r="AA55" s="248"/>
+      <c r="AF55" s="240"/>
+      <c r="AG55" s="240"/>
+      <c r="AH55" s="240"/>
       <c r="BC55" s="1"/>
       <c r="BD55" s="1"/>
       <c r="BE55" s="1"/>
@@ -16504,52 +16495,52 @@
       <c r="IK55" s="1"/>
     </row>
     <row r="56" spans="1:245" ht="21" customHeight="1">
-      <c r="A56" s="265"/>
-      <c r="B56" s="266"/>
-      <c r="C56" s="266"/>
-      <c r="D56" s="256">
+      <c r="A56" s="251"/>
+      <c r="B56" s="252"/>
+      <c r="C56" s="252"/>
+      <c r="D56" s="241">
         <v>2</v>
       </c>
-      <c r="E56" s="256"/>
-      <c r="F56" s="240">
+      <c r="E56" s="241"/>
+      <c r="F56" s="244">
         <v>0.02</v>
       </c>
-      <c r="G56" s="240"/>
-      <c r="H56" s="240"/>
-      <c r="I56" s="240">
+      <c r="G56" s="244"/>
+      <c r="H56" s="244"/>
+      <c r="I56" s="244">
         <v>0.02</v>
       </c>
-      <c r="J56" s="240"/>
-      <c r="K56" s="240"/>
-      <c r="L56" s="240">
+      <c r="J56" s="244"/>
+      <c r="K56" s="244"/>
+      <c r="L56" s="244">
         <v>0.02</v>
       </c>
-      <c r="M56" s="240"/>
-      <c r="N56" s="240"/>
-      <c r="O56" s="240">
+      <c r="M56" s="244"/>
+      <c r="N56" s="244"/>
+      <c r="O56" s="244">
         <v>0.02</v>
       </c>
-      <c r="P56" s="240"/>
-      <c r="Q56" s="240"/>
-      <c r="R56" s="241">
+      <c r="P56" s="244"/>
+      <c r="Q56" s="244"/>
+      <c r="R56" s="245">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="S56" s="245"/>
+      <c r="T56" s="245"/>
+      <c r="U56" s="263"/>
+      <c r="V56" s="264"/>
+      <c r="W56" s="264"/>
+      <c r="X56" s="264"/>
+      <c r="Y56" s="246">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="S56" s="241"/>
-      <c r="T56" s="241"/>
-      <c r="U56" s="247"/>
-      <c r="V56" s="248"/>
-      <c r="W56" s="248"/>
-      <c r="X56" s="248"/>
-      <c r="Y56" s="251">
-        <f>A55-R56</f>
-        <v>499.98</v>
-      </c>
-      <c r="Z56" s="252"/>
-      <c r="AA56" s="253"/>
-      <c r="AF56" s="254"/>
-      <c r="AG56" s="254"/>
-      <c r="AH56" s="254"/>
+      <c r="Z56" s="247"/>
+      <c r="AA56" s="248"/>
+      <c r="AF56" s="240"/>
+      <c r="AG56" s="240"/>
+      <c r="AH56" s="240"/>
       <c r="BC56" s="1"/>
       <c r="BD56" s="1"/>
       <c r="BE56" s="1"/>
@@ -16743,52 +16734,52 @@
       <c r="IK56" s="1"/>
     </row>
     <row r="57" spans="1:245" ht="21" customHeight="1">
-      <c r="A57" s="265"/>
-      <c r="B57" s="266"/>
-      <c r="C57" s="266"/>
-      <c r="D57" s="256">
+      <c r="A57" s="251"/>
+      <c r="B57" s="252"/>
+      <c r="C57" s="252"/>
+      <c r="D57" s="241">
         <v>3</v>
       </c>
-      <c r="E57" s="256"/>
-      <c r="F57" s="240">
+      <c r="E57" s="241"/>
+      <c r="F57" s="244">
         <v>0.03</v>
       </c>
-      <c r="G57" s="240"/>
-      <c r="H57" s="240"/>
-      <c r="I57" s="240">
+      <c r="G57" s="244"/>
+      <c r="H57" s="244"/>
+      <c r="I57" s="244">
         <v>0.03</v>
       </c>
-      <c r="J57" s="240"/>
-      <c r="K57" s="240"/>
-      <c r="L57" s="240">
+      <c r="J57" s="244"/>
+      <c r="K57" s="244"/>
+      <c r="L57" s="244">
         <v>0.03</v>
       </c>
-      <c r="M57" s="240"/>
-      <c r="N57" s="240"/>
-      <c r="O57" s="240">
+      <c r="M57" s="244"/>
+      <c r="N57" s="244"/>
+      <c r="O57" s="244">
         <v>0.03</v>
       </c>
-      <c r="P57" s="240"/>
-      <c r="Q57" s="240"/>
-      <c r="R57" s="241">
+      <c r="P57" s="244"/>
+      <c r="Q57" s="244"/>
+      <c r="R57" s="245">
+        <f t="shared" si="8"/>
+        <v>0.03</v>
+      </c>
+      <c r="S57" s="245"/>
+      <c r="T57" s="245"/>
+      <c r="U57" s="263"/>
+      <c r="V57" s="264"/>
+      <c r="W57" s="264"/>
+      <c r="X57" s="264"/>
+      <c r="Y57" s="246">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="S57" s="241"/>
-      <c r="T57" s="241"/>
-      <c r="U57" s="247"/>
-      <c r="V57" s="248"/>
-      <c r="W57" s="248"/>
-      <c r="X57" s="248"/>
-      <c r="Y57" s="251">
-        <f>A55-R57</f>
-        <v>499.97</v>
-      </c>
-      <c r="Z57" s="252"/>
-      <c r="AA57" s="253"/>
-      <c r="AF57" s="254"/>
-      <c r="AG57" s="254"/>
-      <c r="AH57" s="254"/>
+      <c r="Z57" s="247"/>
+      <c r="AA57" s="248"/>
+      <c r="AF57" s="240"/>
+      <c r="AG57" s="240"/>
+      <c r="AH57" s="240"/>
       <c r="BC57" s="1"/>
       <c r="BD57" s="1"/>
       <c r="BE57" s="1"/>
@@ -16982,52 +16973,52 @@
       <c r="IK57" s="1"/>
     </row>
     <row r="58" spans="1:245" ht="21" customHeight="1">
-      <c r="A58" s="265"/>
-      <c r="B58" s="266"/>
-      <c r="C58" s="266"/>
-      <c r="D58" s="256">
+      <c r="A58" s="251"/>
+      <c r="B58" s="252"/>
+      <c r="C58" s="252"/>
+      <c r="D58" s="241">
         <v>4</v>
       </c>
-      <c r="E58" s="256"/>
-      <c r="F58" s="240">
+      <c r="E58" s="241"/>
+      <c r="F58" s="244">
         <v>0.04</v>
       </c>
-      <c r="G58" s="240"/>
-      <c r="H58" s="240"/>
-      <c r="I58" s="240">
+      <c r="G58" s="244"/>
+      <c r="H58" s="244"/>
+      <c r="I58" s="244">
         <v>0.04</v>
       </c>
-      <c r="J58" s="240"/>
-      <c r="K58" s="240"/>
-      <c r="L58" s="240">
+      <c r="J58" s="244"/>
+      <c r="K58" s="244"/>
+      <c r="L58" s="244">
         <v>0.04</v>
       </c>
-      <c r="M58" s="240"/>
-      <c r="N58" s="240"/>
-      <c r="O58" s="240">
+      <c r="M58" s="244"/>
+      <c r="N58" s="244"/>
+      <c r="O58" s="244">
         <v>0.04</v>
       </c>
-      <c r="P58" s="240"/>
-      <c r="Q58" s="240"/>
-      <c r="R58" s="241">
+      <c r="P58" s="244"/>
+      <c r="Q58" s="244"/>
+      <c r="R58" s="245">
+        <f t="shared" si="8"/>
+        <v>0.04</v>
+      </c>
+      <c r="S58" s="245"/>
+      <c r="T58" s="245"/>
+      <c r="U58" s="263"/>
+      <c r="V58" s="264"/>
+      <c r="W58" s="264"/>
+      <c r="X58" s="264"/>
+      <c r="Y58" s="246">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="S58" s="241"/>
-      <c r="T58" s="241"/>
-      <c r="U58" s="247"/>
-      <c r="V58" s="248"/>
-      <c r="W58" s="248"/>
-      <c r="X58" s="248"/>
-      <c r="Y58" s="251">
-        <f>A55-R58</f>
-        <v>499.96</v>
-      </c>
-      <c r="Z58" s="252"/>
-      <c r="AA58" s="253"/>
-      <c r="AF58" s="254"/>
-      <c r="AG58" s="254"/>
-      <c r="AH58" s="254"/>
+      <c r="Z58" s="247"/>
+      <c r="AA58" s="248"/>
+      <c r="AF58" s="240"/>
+      <c r="AG58" s="240"/>
+      <c r="AH58" s="240"/>
       <c r="BC58" s="1"/>
       <c r="BD58" s="1"/>
       <c r="BE58" s="1"/>
@@ -17221,49 +17212,49 @@
       <c r="IK58" s="1"/>
     </row>
     <row r="59" spans="1:245" ht="21" customHeight="1">
-      <c r="A59" s="267"/>
-      <c r="B59" s="268"/>
-      <c r="C59" s="268"/>
-      <c r="D59" s="256">
+      <c r="A59" s="253"/>
+      <c r="B59" s="254"/>
+      <c r="C59" s="254"/>
+      <c r="D59" s="241">
         <v>5</v>
       </c>
-      <c r="E59" s="256"/>
-      <c r="F59" s="240">
+      <c r="E59" s="241"/>
+      <c r="F59" s="244">
         <v>0.04</v>
       </c>
-      <c r="G59" s="240"/>
-      <c r="H59" s="240"/>
-      <c r="I59" s="240">
+      <c r="G59" s="244"/>
+      <c r="H59" s="244"/>
+      <c r="I59" s="244">
         <v>0.04</v>
       </c>
-      <c r="J59" s="240"/>
-      <c r="K59" s="240"/>
-      <c r="L59" s="240">
+      <c r="J59" s="244"/>
+      <c r="K59" s="244"/>
+      <c r="L59" s="244">
         <v>0.04</v>
       </c>
-      <c r="M59" s="240"/>
-      <c r="N59" s="240"/>
-      <c r="O59" s="240">
+      <c r="M59" s="244"/>
+      <c r="N59" s="244"/>
+      <c r="O59" s="244">
         <v>0.04</v>
       </c>
-      <c r="P59" s="240"/>
-      <c r="Q59" s="240"/>
-      <c r="R59" s="241">
+      <c r="P59" s="244"/>
+      <c r="Q59" s="244"/>
+      <c r="R59" s="245">
+        <f t="shared" si="8"/>
+        <v>0.04</v>
+      </c>
+      <c r="S59" s="245"/>
+      <c r="T59" s="245"/>
+      <c r="U59" s="265"/>
+      <c r="V59" s="266"/>
+      <c r="W59" s="266"/>
+      <c r="X59" s="266"/>
+      <c r="Y59" s="246">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="S59" s="241"/>
-      <c r="T59" s="241"/>
-      <c r="U59" s="249"/>
-      <c r="V59" s="250"/>
-      <c r="W59" s="250"/>
-      <c r="X59" s="250"/>
-      <c r="Y59" s="257">
-        <f>A55-R59</f>
-        <v>499.96</v>
-      </c>
-      <c r="Z59" s="258"/>
-      <c r="AA59" s="259"/>
+      <c r="Z59" s="247"/>
+      <c r="AA59" s="248"/>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
@@ -17477,57 +17468,57 @@
       <c r="IJ59" s="1"/>
     </row>
     <row r="60" spans="1:245" ht="21" customHeight="1">
-      <c r="A60" s="263">
+      <c r="A60" s="249">
         <v>700</v>
       </c>
-      <c r="B60" s="264"/>
-      <c r="C60" s="264"/>
-      <c r="D60" s="256">
+      <c r="B60" s="250"/>
+      <c r="C60" s="250"/>
+      <c r="D60" s="241">
         <v>1</v>
       </c>
-      <c r="E60" s="256"/>
-      <c r="F60" s="260">
+      <c r="E60" s="241"/>
+      <c r="F60" s="255">
         <v>0.01</v>
       </c>
-      <c r="G60" s="261"/>
-      <c r="H60" s="262"/>
-      <c r="I60" s="260">
+      <c r="G60" s="256"/>
+      <c r="H60" s="257"/>
+      <c r="I60" s="255">
         <v>0.01</v>
       </c>
-      <c r="J60" s="261"/>
-      <c r="K60" s="262"/>
-      <c r="L60" s="260">
+      <c r="J60" s="256"/>
+      <c r="K60" s="257"/>
+      <c r="L60" s="255">
         <v>0.01</v>
       </c>
-      <c r="M60" s="261"/>
-      <c r="N60" s="262"/>
-      <c r="O60" s="260">
+      <c r="M60" s="256"/>
+      <c r="N60" s="257"/>
+      <c r="O60" s="255">
         <v>0.01</v>
       </c>
-      <c r="P60" s="261"/>
-      <c r="Q60" s="262"/>
-      <c r="R60" s="242">
+      <c r="P60" s="256"/>
+      <c r="Q60" s="257"/>
+      <c r="R60" s="258">
+        <f t="shared" si="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="S60" s="259"/>
+      <c r="T60" s="260"/>
+      <c r="U60" s="261">
+        <f t="shared" ref="U60" si="10">_xlfn.STDEV.S(R60:T64)/SQRT(4)</f>
+        <v>6.5192024052026449E-3</v>
+      </c>
+      <c r="V60" s="262"/>
+      <c r="W60" s="262"/>
+      <c r="X60" s="262"/>
+      <c r="Y60" s="246">
         <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="S60" s="243"/>
-      <c r="T60" s="244"/>
-      <c r="U60" s="245">
-        <f>STDEV(R60:T64)/SQRT(4)</f>
-        <v>6.5192024052026449E-3</v>
-      </c>
-      <c r="V60" s="246"/>
-      <c r="W60" s="246"/>
-      <c r="X60" s="246"/>
-      <c r="Y60" s="251">
-        <f>A60-R60</f>
-        <v>699.99</v>
-      </c>
-      <c r="Z60" s="252"/>
-      <c r="AA60" s="253"/>
-      <c r="AF60" s="254"/>
-      <c r="AG60" s="254"/>
-      <c r="AH60" s="254"/>
+        <v>-699.99</v>
+      </c>
+      <c r="Z60" s="247"/>
+      <c r="AA60" s="248"/>
+      <c r="AF60" s="240"/>
+      <c r="AG60" s="240"/>
+      <c r="AH60" s="240"/>
       <c r="BC60" s="1"/>
       <c r="BD60" s="1"/>
       <c r="BE60" s="1"/>
@@ -17721,52 +17712,52 @@
       <c r="IK60" s="1"/>
     </row>
     <row r="61" spans="1:245" ht="21" customHeight="1">
-      <c r="A61" s="265"/>
-      <c r="B61" s="266"/>
-      <c r="C61" s="266"/>
-      <c r="D61" s="256">
+      <c r="A61" s="251"/>
+      <c r="B61" s="252"/>
+      <c r="C61" s="252"/>
+      <c r="D61" s="241">
         <v>2</v>
       </c>
-      <c r="E61" s="256"/>
-      <c r="F61" s="240">
+      <c r="E61" s="241"/>
+      <c r="F61" s="244">
         <v>0.02</v>
       </c>
-      <c r="G61" s="240"/>
-      <c r="H61" s="240"/>
-      <c r="I61" s="240">
+      <c r="G61" s="244"/>
+      <c r="H61" s="244"/>
+      <c r="I61" s="244">
         <v>0.02</v>
       </c>
-      <c r="J61" s="240"/>
-      <c r="K61" s="240"/>
-      <c r="L61" s="240">
+      <c r="J61" s="244"/>
+      <c r="K61" s="244"/>
+      <c r="L61" s="244">
         <v>0.02</v>
       </c>
-      <c r="M61" s="240"/>
-      <c r="N61" s="240"/>
-      <c r="O61" s="240">
+      <c r="M61" s="244"/>
+      <c r="N61" s="244"/>
+      <c r="O61" s="244">
         <v>0.02</v>
       </c>
-      <c r="P61" s="240"/>
-      <c r="Q61" s="240"/>
-      <c r="R61" s="241">
+      <c r="P61" s="244"/>
+      <c r="Q61" s="244"/>
+      <c r="R61" s="245">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="S61" s="245"/>
+      <c r="T61" s="245"/>
+      <c r="U61" s="263"/>
+      <c r="V61" s="264"/>
+      <c r="W61" s="264"/>
+      <c r="X61" s="264"/>
+      <c r="Y61" s="246">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="S61" s="241"/>
-      <c r="T61" s="241"/>
-      <c r="U61" s="247"/>
-      <c r="V61" s="248"/>
-      <c r="W61" s="248"/>
-      <c r="X61" s="248"/>
-      <c r="Y61" s="251">
-        <f>A60-R61</f>
-        <v>699.98</v>
-      </c>
-      <c r="Z61" s="252"/>
-      <c r="AA61" s="253"/>
-      <c r="AF61" s="254"/>
-      <c r="AG61" s="254"/>
-      <c r="AH61" s="254"/>
+      <c r="Z61" s="247"/>
+      <c r="AA61" s="248"/>
+      <c r="AF61" s="240"/>
+      <c r="AG61" s="240"/>
+      <c r="AH61" s="240"/>
       <c r="BC61" s="1"/>
       <c r="BD61" s="1"/>
       <c r="BE61" s="1"/>
@@ -17960,52 +17951,52 @@
       <c r="IK61" s="1"/>
     </row>
     <row r="62" spans="1:245" ht="21" customHeight="1">
-      <c r="A62" s="265"/>
-      <c r="B62" s="266"/>
-      <c r="C62" s="266"/>
-      <c r="D62" s="256">
+      <c r="A62" s="251"/>
+      <c r="B62" s="252"/>
+      <c r="C62" s="252"/>
+      <c r="D62" s="241">
         <v>3</v>
       </c>
-      <c r="E62" s="256"/>
-      <c r="F62" s="240">
+      <c r="E62" s="241"/>
+      <c r="F62" s="244">
         <v>0.03</v>
       </c>
-      <c r="G62" s="240"/>
-      <c r="H62" s="240"/>
-      <c r="I62" s="240">
+      <c r="G62" s="244"/>
+      <c r="H62" s="244"/>
+      <c r="I62" s="244">
         <v>0.03</v>
       </c>
-      <c r="J62" s="240"/>
-      <c r="K62" s="240"/>
-      <c r="L62" s="240">
+      <c r="J62" s="244"/>
+      <c r="K62" s="244"/>
+      <c r="L62" s="244">
         <v>0.03</v>
       </c>
-      <c r="M62" s="240"/>
-      <c r="N62" s="240"/>
-      <c r="O62" s="240">
+      <c r="M62" s="244"/>
+      <c r="N62" s="244"/>
+      <c r="O62" s="244">
         <v>0.03</v>
       </c>
-      <c r="P62" s="240"/>
-      <c r="Q62" s="240"/>
-      <c r="R62" s="241">
+      <c r="P62" s="244"/>
+      <c r="Q62" s="244"/>
+      <c r="R62" s="245">
+        <f t="shared" si="8"/>
+        <v>0.03</v>
+      </c>
+      <c r="S62" s="245"/>
+      <c r="T62" s="245"/>
+      <c r="U62" s="263"/>
+      <c r="V62" s="264"/>
+      <c r="W62" s="264"/>
+      <c r="X62" s="264"/>
+      <c r="Y62" s="246">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="S62" s="241"/>
-      <c r="T62" s="241"/>
-      <c r="U62" s="247"/>
-      <c r="V62" s="248"/>
-      <c r="W62" s="248"/>
-      <c r="X62" s="248"/>
-      <c r="Y62" s="251">
-        <f>A60-R62</f>
-        <v>699.97</v>
-      </c>
-      <c r="Z62" s="252"/>
-      <c r="AA62" s="253"/>
-      <c r="AF62" s="254"/>
-      <c r="AG62" s="254"/>
-      <c r="AH62" s="254"/>
+      <c r="Z62" s="247"/>
+      <c r="AA62" s="248"/>
+      <c r="AF62" s="240"/>
+      <c r="AG62" s="240"/>
+      <c r="AH62" s="240"/>
       <c r="BC62" s="1"/>
       <c r="BD62" s="1"/>
       <c r="BE62" s="1"/>
@@ -18199,52 +18190,52 @@
       <c r="IK62" s="1"/>
     </row>
     <row r="63" spans="1:245" ht="21" customHeight="1">
-      <c r="A63" s="265"/>
-      <c r="B63" s="266"/>
-      <c r="C63" s="266"/>
-      <c r="D63" s="256">
+      <c r="A63" s="251"/>
+      <c r="B63" s="252"/>
+      <c r="C63" s="252"/>
+      <c r="D63" s="241">
         <v>4</v>
       </c>
-      <c r="E63" s="256"/>
-      <c r="F63" s="240">
+      <c r="E63" s="241"/>
+      <c r="F63" s="244">
         <v>0.04</v>
       </c>
-      <c r="G63" s="240"/>
-      <c r="H63" s="240"/>
-      <c r="I63" s="240">
+      <c r="G63" s="244"/>
+      <c r="H63" s="244"/>
+      <c r="I63" s="244">
         <v>0.04</v>
       </c>
-      <c r="J63" s="240"/>
-      <c r="K63" s="240"/>
-      <c r="L63" s="240">
+      <c r="J63" s="244"/>
+      <c r="K63" s="244"/>
+      <c r="L63" s="244">
         <v>0.04</v>
       </c>
-      <c r="M63" s="240"/>
-      <c r="N63" s="240"/>
-      <c r="O63" s="240">
+      <c r="M63" s="244"/>
+      <c r="N63" s="244"/>
+      <c r="O63" s="244">
         <v>0.04</v>
       </c>
-      <c r="P63" s="240"/>
-      <c r="Q63" s="240"/>
-      <c r="R63" s="241">
+      <c r="P63" s="244"/>
+      <c r="Q63" s="244"/>
+      <c r="R63" s="245">
+        <f t="shared" si="8"/>
+        <v>0.04</v>
+      </c>
+      <c r="S63" s="245"/>
+      <c r="T63" s="245"/>
+      <c r="U63" s="263"/>
+      <c r="V63" s="264"/>
+      <c r="W63" s="264"/>
+      <c r="X63" s="264"/>
+      <c r="Y63" s="246">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="S63" s="241"/>
-      <c r="T63" s="241"/>
-      <c r="U63" s="247"/>
-      <c r="V63" s="248"/>
-      <c r="W63" s="248"/>
-      <c r="X63" s="248"/>
-      <c r="Y63" s="251">
-        <f>A60-R63</f>
-        <v>699.96</v>
-      </c>
-      <c r="Z63" s="252"/>
-      <c r="AA63" s="253"/>
-      <c r="AF63" s="254"/>
-      <c r="AG63" s="254"/>
-      <c r="AH63" s="254"/>
+      <c r="Z63" s="247"/>
+      <c r="AA63" s="248"/>
+      <c r="AF63" s="240"/>
+      <c r="AG63" s="240"/>
+      <c r="AH63" s="240"/>
       <c r="BC63" s="1"/>
       <c r="BD63" s="1"/>
       <c r="BE63" s="1"/>
@@ -18438,49 +18429,49 @@
       <c r="IK63" s="1"/>
     </row>
     <row r="64" spans="1:245" ht="21" customHeight="1">
-      <c r="A64" s="267"/>
-      <c r="B64" s="268"/>
-      <c r="C64" s="268"/>
-      <c r="D64" s="256">
+      <c r="A64" s="253"/>
+      <c r="B64" s="254"/>
+      <c r="C64" s="254"/>
+      <c r="D64" s="241">
         <v>5</v>
       </c>
-      <c r="E64" s="256"/>
-      <c r="F64" s="240">
+      <c r="E64" s="241"/>
+      <c r="F64" s="244">
         <v>0.04</v>
       </c>
-      <c r="G64" s="240"/>
-      <c r="H64" s="240"/>
-      <c r="I64" s="240">
+      <c r="G64" s="244"/>
+      <c r="H64" s="244"/>
+      <c r="I64" s="244">
         <v>0.04</v>
       </c>
-      <c r="J64" s="240"/>
-      <c r="K64" s="240"/>
-      <c r="L64" s="240">
+      <c r="J64" s="244"/>
+      <c r="K64" s="244"/>
+      <c r="L64" s="244">
         <v>0.04</v>
       </c>
-      <c r="M64" s="240"/>
-      <c r="N64" s="240"/>
-      <c r="O64" s="240">
+      <c r="M64" s="244"/>
+      <c r="N64" s="244"/>
+      <c r="O64" s="244">
         <v>0.04</v>
       </c>
-      <c r="P64" s="240"/>
-      <c r="Q64" s="240"/>
-      <c r="R64" s="241">
+      <c r="P64" s="244"/>
+      <c r="Q64" s="244"/>
+      <c r="R64" s="245">
+        <f t="shared" si="8"/>
+        <v>0.04</v>
+      </c>
+      <c r="S64" s="245"/>
+      <c r="T64" s="245"/>
+      <c r="U64" s="265"/>
+      <c r="V64" s="266"/>
+      <c r="W64" s="266"/>
+      <c r="X64" s="266"/>
+      <c r="Y64" s="246">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="S64" s="241"/>
-      <c r="T64" s="241"/>
-      <c r="U64" s="249"/>
-      <c r="V64" s="250"/>
-      <c r="W64" s="250"/>
-      <c r="X64" s="250"/>
-      <c r="Y64" s="257">
-        <f>A60-R64</f>
-        <v>699.96</v>
-      </c>
-      <c r="Z64" s="258"/>
-      <c r="AA64" s="259"/>
+      <c r="Z64" s="247"/>
+      <c r="AA64" s="248"/>
       <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
@@ -18694,57 +18685,57 @@
       <c r="IJ64" s="1"/>
     </row>
     <row r="65" spans="1:245" ht="21" customHeight="1">
-      <c r="A65" s="263">
+      <c r="A65" s="249">
         <v>900</v>
       </c>
-      <c r="B65" s="264"/>
-      <c r="C65" s="264"/>
-      <c r="D65" s="256">
+      <c r="B65" s="250"/>
+      <c r="C65" s="250"/>
+      <c r="D65" s="241">
         <v>1</v>
       </c>
-      <c r="E65" s="256"/>
-      <c r="F65" s="260">
+      <c r="E65" s="241"/>
+      <c r="F65" s="255">
         <v>0.01</v>
       </c>
-      <c r="G65" s="261"/>
-      <c r="H65" s="262"/>
-      <c r="I65" s="260">
+      <c r="G65" s="256"/>
+      <c r="H65" s="257"/>
+      <c r="I65" s="255">
         <v>0.01</v>
       </c>
-      <c r="J65" s="261"/>
-      <c r="K65" s="262"/>
-      <c r="L65" s="260">
+      <c r="J65" s="256"/>
+      <c r="K65" s="257"/>
+      <c r="L65" s="255">
         <v>0.01</v>
       </c>
-      <c r="M65" s="261"/>
-      <c r="N65" s="262"/>
-      <c r="O65" s="260">
+      <c r="M65" s="256"/>
+      <c r="N65" s="257"/>
+      <c r="O65" s="255">
         <v>0.01</v>
       </c>
-      <c r="P65" s="261"/>
-      <c r="Q65" s="262"/>
-      <c r="R65" s="242">
+      <c r="P65" s="256"/>
+      <c r="Q65" s="257"/>
+      <c r="R65" s="258">
+        <f t="shared" si="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="S65" s="259"/>
+      <c r="T65" s="260"/>
+      <c r="U65" s="261">
+        <f t="shared" ref="U65" si="11">_xlfn.STDEV.S(R65:T69)/SQRT(4)</f>
+        <v>6.5192024052026449E-3</v>
+      </c>
+      <c r="V65" s="262"/>
+      <c r="W65" s="262"/>
+      <c r="X65" s="262"/>
+      <c r="Y65" s="246">
         <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="S65" s="243"/>
-      <c r="T65" s="244"/>
-      <c r="U65" s="245">
-        <f>STDEV(R65:T69)/SQRT(4)</f>
-        <v>6.5192024052026449E-3</v>
-      </c>
-      <c r="V65" s="246"/>
-      <c r="W65" s="246"/>
-      <c r="X65" s="246"/>
-      <c r="Y65" s="251">
-        <f>A65-R65</f>
-        <v>899.99</v>
-      </c>
-      <c r="Z65" s="252"/>
-      <c r="AA65" s="253"/>
-      <c r="AF65" s="254"/>
-      <c r="AG65" s="254"/>
-      <c r="AH65" s="254"/>
+        <v>-899.99</v>
+      </c>
+      <c r="Z65" s="247"/>
+      <c r="AA65" s="248"/>
+      <c r="AF65" s="240"/>
+      <c r="AG65" s="240"/>
+      <c r="AH65" s="240"/>
       <c r="BC65" s="1"/>
       <c r="BD65" s="1"/>
       <c r="BE65" s="1"/>
@@ -18938,52 +18929,52 @@
       <c r="IK65" s="1"/>
     </row>
     <row r="66" spans="1:245" ht="21" customHeight="1">
-      <c r="A66" s="265"/>
-      <c r="B66" s="266"/>
-      <c r="C66" s="266"/>
-      <c r="D66" s="256">
+      <c r="A66" s="251"/>
+      <c r="B66" s="252"/>
+      <c r="C66" s="252"/>
+      <c r="D66" s="241">
         <v>2</v>
       </c>
-      <c r="E66" s="256"/>
-      <c r="F66" s="240">
+      <c r="E66" s="241"/>
+      <c r="F66" s="244">
         <v>0.02</v>
       </c>
-      <c r="G66" s="240"/>
-      <c r="H66" s="240"/>
-      <c r="I66" s="240">
+      <c r="G66" s="244"/>
+      <c r="H66" s="244"/>
+      <c r="I66" s="244">
         <v>0.02</v>
       </c>
-      <c r="J66" s="240"/>
-      <c r="K66" s="240"/>
-      <c r="L66" s="240">
+      <c r="J66" s="244"/>
+      <c r="K66" s="244"/>
+      <c r="L66" s="244">
         <v>0.02</v>
       </c>
-      <c r="M66" s="240"/>
-      <c r="N66" s="240"/>
-      <c r="O66" s="240">
+      <c r="M66" s="244"/>
+      <c r="N66" s="244"/>
+      <c r="O66" s="244">
         <v>0.02</v>
       </c>
-      <c r="P66" s="240"/>
-      <c r="Q66" s="240"/>
-      <c r="R66" s="241">
+      <c r="P66" s="244"/>
+      <c r="Q66" s="244"/>
+      <c r="R66" s="245">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="S66" s="245"/>
+      <c r="T66" s="245"/>
+      <c r="U66" s="263"/>
+      <c r="V66" s="264"/>
+      <c r="W66" s="264"/>
+      <c r="X66" s="264"/>
+      <c r="Y66" s="246">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="S66" s="241"/>
-      <c r="T66" s="241"/>
-      <c r="U66" s="247"/>
-      <c r="V66" s="248"/>
-      <c r="W66" s="248"/>
-      <c r="X66" s="248"/>
-      <c r="Y66" s="251">
-        <f>A65-R66</f>
-        <v>899.98</v>
-      </c>
-      <c r="Z66" s="252"/>
-      <c r="AA66" s="253"/>
-      <c r="AF66" s="254"/>
-      <c r="AG66" s="254"/>
-      <c r="AH66" s="254"/>
+      <c r="Z66" s="247"/>
+      <c r="AA66" s="248"/>
+      <c r="AF66" s="240"/>
+      <c r="AG66" s="240"/>
+      <c r="AH66" s="240"/>
       <c r="BC66" s="1"/>
       <c r="BD66" s="1"/>
       <c r="BE66" s="1"/>
@@ -19177,52 +19168,52 @@
       <c r="IK66" s="1"/>
     </row>
     <row r="67" spans="1:245" ht="21" customHeight="1">
-      <c r="A67" s="265"/>
-      <c r="B67" s="266"/>
-      <c r="C67" s="266"/>
-      <c r="D67" s="256">
+      <c r="A67" s="251"/>
+      <c r="B67" s="252"/>
+      <c r="C67" s="252"/>
+      <c r="D67" s="241">
         <v>3</v>
       </c>
-      <c r="E67" s="256"/>
-      <c r="F67" s="240">
+      <c r="E67" s="241"/>
+      <c r="F67" s="244">
         <v>0.03</v>
       </c>
-      <c r="G67" s="240"/>
-      <c r="H67" s="240"/>
-      <c r="I67" s="240">
+      <c r="G67" s="244"/>
+      <c r="H67" s="244"/>
+      <c r="I67" s="244">
         <v>0.03</v>
       </c>
-      <c r="J67" s="240"/>
-      <c r="K67" s="240"/>
-      <c r="L67" s="240">
+      <c r="J67" s="244"/>
+      <c r="K67" s="244"/>
+      <c r="L67" s="244">
         <v>0.03</v>
       </c>
-      <c r="M67" s="240"/>
-      <c r="N67" s="240"/>
-      <c r="O67" s="240">
+      <c r="M67" s="244"/>
+      <c r="N67" s="244"/>
+      <c r="O67" s="244">
         <v>0.03</v>
       </c>
-      <c r="P67" s="240"/>
-      <c r="Q67" s="240"/>
-      <c r="R67" s="241">
+      <c r="P67" s="244"/>
+      <c r="Q67" s="244"/>
+      <c r="R67" s="245">
+        <f t="shared" si="8"/>
+        <v>0.03</v>
+      </c>
+      <c r="S67" s="245"/>
+      <c r="T67" s="245"/>
+      <c r="U67" s="263"/>
+      <c r="V67" s="264"/>
+      <c r="W67" s="264"/>
+      <c r="X67" s="264"/>
+      <c r="Y67" s="246">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="S67" s="241"/>
-      <c r="T67" s="241"/>
-      <c r="U67" s="247"/>
-      <c r="V67" s="248"/>
-      <c r="W67" s="248"/>
-      <c r="X67" s="248"/>
-      <c r="Y67" s="251">
-        <f>A65-R67</f>
-        <v>899.97</v>
-      </c>
-      <c r="Z67" s="252"/>
-      <c r="AA67" s="253"/>
-      <c r="AF67" s="254"/>
-      <c r="AG67" s="254"/>
-      <c r="AH67" s="254"/>
+      <c r="Z67" s="247"/>
+      <c r="AA67" s="248"/>
+      <c r="AF67" s="240"/>
+      <c r="AG67" s="240"/>
+      <c r="AH67" s="240"/>
       <c r="BC67" s="1"/>
       <c r="BD67" s="1"/>
       <c r="BE67" s="1"/>
@@ -19416,52 +19407,52 @@
       <c r="IK67" s="1"/>
     </row>
     <row r="68" spans="1:245" ht="21" customHeight="1">
-      <c r="A68" s="265"/>
-      <c r="B68" s="266"/>
-      <c r="C68" s="266"/>
-      <c r="D68" s="256">
+      <c r="A68" s="251"/>
+      <c r="B68" s="252"/>
+      <c r="C68" s="252"/>
+      <c r="D68" s="241">
         <v>4</v>
       </c>
-      <c r="E68" s="256"/>
-      <c r="F68" s="240">
+      <c r="E68" s="241"/>
+      <c r="F68" s="244">
         <v>0.04</v>
       </c>
-      <c r="G68" s="240"/>
-      <c r="H68" s="240"/>
-      <c r="I68" s="240">
+      <c r="G68" s="244"/>
+      <c r="H68" s="244"/>
+      <c r="I68" s="244">
         <v>0.04</v>
       </c>
-      <c r="J68" s="240"/>
-      <c r="K68" s="240"/>
-      <c r="L68" s="240">
+      <c r="J68" s="244"/>
+      <c r="K68" s="244"/>
+      <c r="L68" s="244">
         <v>0.04</v>
       </c>
-      <c r="M68" s="240"/>
-      <c r="N68" s="240"/>
-      <c r="O68" s="240">
+      <c r="M68" s="244"/>
+      <c r="N68" s="244"/>
+      <c r="O68" s="244">
         <v>0.04</v>
       </c>
-      <c r="P68" s="240"/>
-      <c r="Q68" s="240"/>
-      <c r="R68" s="241">
+      <c r="P68" s="244"/>
+      <c r="Q68" s="244"/>
+      <c r="R68" s="245">
+        <f t="shared" si="8"/>
+        <v>0.04</v>
+      </c>
+      <c r="S68" s="245"/>
+      <c r="T68" s="245"/>
+      <c r="U68" s="263"/>
+      <c r="V68" s="264"/>
+      <c r="W68" s="264"/>
+      <c r="X68" s="264"/>
+      <c r="Y68" s="246">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="S68" s="241"/>
-      <c r="T68" s="241"/>
-      <c r="U68" s="247"/>
-      <c r="V68" s="248"/>
-      <c r="W68" s="248"/>
-      <c r="X68" s="248"/>
-      <c r="Y68" s="251">
-        <f>A65-R68</f>
-        <v>899.96</v>
-      </c>
-      <c r="Z68" s="252"/>
-      <c r="AA68" s="253"/>
-      <c r="AF68" s="254"/>
-      <c r="AG68" s="254"/>
-      <c r="AH68" s="254"/>
+      <c r="Z68" s="247"/>
+      <c r="AA68" s="248"/>
+      <c r="AF68" s="240"/>
+      <c r="AG68" s="240"/>
+      <c r="AH68" s="240"/>
       <c r="BC68" s="1"/>
       <c r="BD68" s="1"/>
       <c r="BE68" s="1"/>
@@ -19655,49 +19646,49 @@
       <c r="IK68" s="1"/>
     </row>
     <row r="69" spans="1:245" ht="21" customHeight="1">
-      <c r="A69" s="267"/>
-      <c r="B69" s="268"/>
-      <c r="C69" s="268"/>
-      <c r="D69" s="256">
+      <c r="A69" s="253"/>
+      <c r="B69" s="254"/>
+      <c r="C69" s="254"/>
+      <c r="D69" s="241">
         <v>5</v>
       </c>
-      <c r="E69" s="256"/>
-      <c r="F69" s="240">
+      <c r="E69" s="241"/>
+      <c r="F69" s="244">
         <v>0.04</v>
       </c>
-      <c r="G69" s="240"/>
-      <c r="H69" s="240"/>
-      <c r="I69" s="240">
+      <c r="G69" s="244"/>
+      <c r="H69" s="244"/>
+      <c r="I69" s="244">
         <v>0.04</v>
       </c>
-      <c r="J69" s="240"/>
-      <c r="K69" s="240"/>
-      <c r="L69" s="240">
+      <c r="J69" s="244"/>
+      <c r="K69" s="244"/>
+      <c r="L69" s="244">
         <v>0.04</v>
       </c>
-      <c r="M69" s="240"/>
-      <c r="N69" s="240"/>
-      <c r="O69" s="240">
+      <c r="M69" s="244"/>
+      <c r="N69" s="244"/>
+      <c r="O69" s="244">
         <v>0.04</v>
       </c>
-      <c r="P69" s="240"/>
-      <c r="Q69" s="240"/>
-      <c r="R69" s="241">
+      <c r="P69" s="244"/>
+      <c r="Q69" s="244"/>
+      <c r="R69" s="245">
+        <f t="shared" si="8"/>
+        <v>0.04</v>
+      </c>
+      <c r="S69" s="245"/>
+      <c r="T69" s="245"/>
+      <c r="U69" s="265"/>
+      <c r="V69" s="266"/>
+      <c r="W69" s="266"/>
+      <c r="X69" s="266"/>
+      <c r="Y69" s="246">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="S69" s="241"/>
-      <c r="T69" s="241"/>
-      <c r="U69" s="249"/>
-      <c r="V69" s="250"/>
-      <c r="W69" s="250"/>
-      <c r="X69" s="250"/>
-      <c r="Y69" s="257">
-        <f>A65-R69</f>
-        <v>899.96</v>
-      </c>
-      <c r="Z69" s="258"/>
-      <c r="AA69" s="259"/>
+      <c r="Z69" s="247"/>
+      <c r="AA69" s="248"/>
       <c r="AH69" s="1"/>
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
@@ -19911,12 +19902,12 @@
       <c r="IJ69" s="1"/>
     </row>
     <row r="74" spans="1:245" ht="18.75" customHeight="1">
-      <c r="A74" s="255" t="s">
+      <c r="A74" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="255"/>
-      <c r="C74" s="255"/>
-      <c r="D74" s="255"/>
+      <c r="B74" s="313"/>
+      <c r="C74" s="313"/>
+      <c r="D74" s="313"/>
       <c r="E74" s="194" t="s">
         <v>92</v>
       </c>
@@ -19930,6 +19921,418 @@
     </row>
   </sheetData>
   <mergeCells count="436">
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:X54"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="AF50:AH50"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="AF53:AH53"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="AF52:AH52"/>
+    <mergeCell ref="AF51:AH51"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="AF48:AH48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="AF45:AH45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="O45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="U45:X49"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="AF47:AH47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="A45:C49"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="A25:C29"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="AF43:AH43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="AF42:AH42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="AF41:AH41"/>
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="O7:V7"/>
+    <mergeCell ref="T12:AD12"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="U25:X29"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="T6:AD6"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="O9:AD9"/>
+    <mergeCell ref="Y18:AA19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:Q18"/>
+    <mergeCell ref="AF40:AH40"/>
+    <mergeCell ref="T11:AD11"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="F5:X5"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R18:T19"/>
+    <mergeCell ref="U18:X19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="A20:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U20:X24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A30:C34"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:X34"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:X39"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="AF35:AH35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="AF36:AH36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AF37:AH37"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="AF38:AH38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="A40:C44"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:X44"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="A35:C39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="A55:C59"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="A50:C54"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="AF57:AH57"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="AF58:AH58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="AF55:AH55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="AF56:AH56"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="U55:X59"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="AF61:AH61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="R59:T59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="A60:C64"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="R69:T69"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="R62:T62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="AF62:AH62"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="AF63:AH63"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="U60:X64"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="AF60:AH60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="O61:Q61"/>
+    <mergeCell ref="R61:T61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A65:C69"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="L65:N65"/>
+    <mergeCell ref="O65:Q65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="U65:X69"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="L66:N66"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="O64:Q64"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="Y64:AA64"/>
     <mergeCell ref="AF68:AH68"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="Y69:AA69"/>
@@ -19954,418 +20357,6 @@
     <mergeCell ref="Y66:AA66"/>
     <mergeCell ref="AF66:AH66"/>
     <mergeCell ref="AF67:AH67"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="O64:Q64"/>
-    <mergeCell ref="R64:T64"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="A65:C69"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="L65:N65"/>
-    <mergeCell ref="O65:Q65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="U65:X69"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="A60:C64"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="R69:T69"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="R62:T62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="AF62:AH62"/>
-    <mergeCell ref="O63:Q63"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="AF63:AH63"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="U60:X64"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="AF60:AH60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="O61:Q61"/>
-    <mergeCell ref="R61:T61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="AF61:AH61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="R59:T59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="O58:Q58"/>
-    <mergeCell ref="R58:T58"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="U55:X59"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="AF55:AH55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="AF56:AH56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="O57:Q57"/>
-    <mergeCell ref="R57:T57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="AF57:AH57"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="AF58:AH58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="O54:Q54"/>
-    <mergeCell ref="R54:T54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="A55:C59"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="O55:Q55"/>
-    <mergeCell ref="A50:C54"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="O53:Q53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="A40:C44"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:X44"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="A35:C39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="AF37:AH37"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="AF38:AH38"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:X39"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="AF35:AH35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="AF36:AH36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A30:C34"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:X34"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="A20:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U20:X24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="A18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:Q18"/>
-    <mergeCell ref="AF40:AH40"/>
-    <mergeCell ref="T11:AD11"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="F5:X5"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="R18:T19"/>
-    <mergeCell ref="U18:X19"/>
-    <mergeCell ref="AF41:AH41"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="O7:V7"/>
-    <mergeCell ref="T12:AD12"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="U25:X29"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="T6:AD6"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="O9:AD9"/>
-    <mergeCell ref="Y18:AA19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="AF43:AH43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="AF42:AH42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="A45:C49"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="A25:C29"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="AF45:AH45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="O45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="U45:X49"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="AF47:AH47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="AF48:AH48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="O51:Q51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="O52:Q52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:X54"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="AF50:AH50"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="AF53:AH53"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="AF52:AH52"/>
-    <mergeCell ref="AF51:AH51"/>
   </mergeCells>
   <phoneticPr fontId="66" type="noConversion"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -20497,32 +20488,32 @@
     <row r="1" spans="1:256" ht="12.75" customHeight="1"/>
     <row r="2" spans="1:256" ht="12.75" customHeight="1"/>
     <row r="3" spans="1:256" ht="35.25" customHeight="1">
-      <c r="A3" s="320" t="s">
+      <c r="A3" s="317" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="320"/>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
-      <c r="F3" s="320"/>
-      <c r="G3" s="320"/>
-      <c r="H3" s="320"/>
-      <c r="I3" s="320"/>
-      <c r="J3" s="320"/>
-      <c r="K3" s="320"/>
-      <c r="L3" s="320"/>
-      <c r="M3" s="320"/>
-      <c r="N3" s="320"/>
-      <c r="O3" s="320"/>
-      <c r="P3" s="320"/>
-      <c r="Q3" s="320"/>
-      <c r="R3" s="320"/>
-      <c r="S3" s="320"/>
-      <c r="T3" s="320"/>
-      <c r="U3" s="320"/>
-      <c r="V3" s="320"/>
-      <c r="W3" s="320"/>
-      <c r="X3" s="320"/>
+      <c r="B3" s="317"/>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="317"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="317"/>
+      <c r="I3" s="317"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="317"/>
+      <c r="L3" s="317"/>
+      <c r="M3" s="317"/>
+      <c r="N3" s="317"/>
+      <c r="O3" s="317"/>
+      <c r="P3" s="317"/>
+      <c r="Q3" s="317"/>
+      <c r="R3" s="317"/>
+      <c r="S3" s="317"/>
+      <c r="T3" s="317"/>
+      <c r="U3" s="317"/>
+      <c r="V3" s="317"/>
+      <c r="W3" s="317"/>
+      <c r="X3" s="317"/>
     </row>
     <row r="4" spans="1:256" ht="19.5" customHeight="1">
       <c r="A4" s="40"/>
@@ -23410,12 +23401,12 @@
       <c r="I15" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="321">
+      <c r="J15" s="318">
         <f>'Data Record'!O7</f>
         <v>456</v>
       </c>
-      <c r="K15" s="321"/>
-      <c r="L15" s="321"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
       <c r="M15" s="163"/>
       <c r="N15" s="163"/>
       <c r="O15" s="5"/>
@@ -24477,12 +24468,12 @@
       <c r="V19" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="W19" s="322">
+      <c r="W19" s="319">
         <f>'Data Record'!O2</f>
         <v>42506</v>
       </c>
-      <c r="X19" s="322"/>
-      <c r="Y19" s="322"/>
+      <c r="X19" s="319"/>
+      <c r="Y19" s="319"/>
       <c r="Z19" s="167"/>
       <c r="AA19" s="167"/>
       <c r="AB19" s="5"/>
@@ -24748,12 +24739,12 @@
       <c r="V20" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="W20" s="322">
+      <c r="W20" s="319">
         <f>'Data Record'!Y2</f>
         <v>42507</v>
       </c>
-      <c r="X20" s="322"/>
-      <c r="Y20" s="322"/>
+      <c r="X20" s="319"/>
+      <c r="Y20" s="319"/>
       <c r="Z20" s="167"/>
       <c r="AA20" s="167"/>
       <c r="AB20" s="5"/>
@@ -25019,12 +25010,12 @@
       <c r="V21" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="W21" s="323">
+      <c r="W21" s="320">
         <f>W20+365</f>
         <v>42872</v>
       </c>
-      <c r="X21" s="323"/>
-      <c r="Y21" s="323"/>
+      <c r="X21" s="320"/>
+      <c r="Y21" s="320"/>
       <c r="Z21" s="170"/>
       <c r="AA21" s="170"/>
       <c r="AB21" s="5"/>
@@ -28643,12 +28634,12 @@
       <c r="G35" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="324">
+      <c r="H35" s="321">
         <f>W20+1</f>
         <v>42508</v>
       </c>
-      <c r="I35" s="324"/>
-      <c r="J35" s="324"/>
+      <c r="I35" s="321"/>
+      <c r="J35" s="321"/>
       <c r="K35" s="172"/>
       <c r="L35" s="149"/>
       <c r="M35" s="149"/>
@@ -28926,17 +28917,17 @@
         <v>3</v>
       </c>
       <c r="R36" s="149"/>
-      <c r="S36" s="317" t="str">
+      <c r="S36" s="314" t="str">
         <f>IF(Q36=1,"( Mr.Sombut Srikampa )",IF(Q36=3,"( Mr. Natthaphol Boonmee )"))</f>
         <v>( Mr. Natthaphol Boonmee )</v>
       </c>
-      <c r="T36" s="317"/>
-      <c r="U36" s="317"/>
-      <c r="V36" s="317"/>
-      <c r="W36" s="317"/>
-      <c r="X36" s="317"/>
-      <c r="Y36" s="317"/>
-      <c r="Z36" s="317"/>
+      <c r="T36" s="314"/>
+      <c r="U36" s="314"/>
+      <c r="V36" s="314"/>
+      <c r="W36" s="314"/>
+      <c r="X36" s="314"/>
+      <c r="Y36" s="314"/>
+      <c r="Z36" s="314"/>
       <c r="AA36" s="61"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
@@ -29187,16 +29178,16 @@
       <c r="P37" s="149"/>
       <c r="Q37" s="149"/>
       <c r="R37" s="149"/>
-      <c r="S37" s="318" t="s">
+      <c r="S37" s="315" t="s">
         <v>37</v>
       </c>
-      <c r="T37" s="318"/>
-      <c r="U37" s="318"/>
-      <c r="V37" s="318"/>
-      <c r="W37" s="318"/>
-      <c r="X37" s="318"/>
-      <c r="Y37" s="318"/>
-      <c r="Z37" s="318"/>
+      <c r="T37" s="315"/>
+      <c r="U37" s="315"/>
+      <c r="V37" s="315"/>
+      <c r="W37" s="315"/>
+      <c r="X37" s="315"/>
+      <c r="Y37" s="315"/>
+      <c r="Z37" s="315"/>
       <c r="AA37" s="61"/>
       <c r="AB37" s="43"/>
       <c r="AC37" s="179"/>
@@ -29687,28 +29678,28 @@
       <c r="IV38" s="5"/>
     </row>
     <row r="39" spans="1:256">
-      <c r="A39" s="319"/>
-      <c r="B39" s="319"/>
-      <c r="C39" s="319"/>
-      <c r="D39" s="319"/>
-      <c r="E39" s="319"/>
-      <c r="F39" s="319"/>
-      <c r="G39" s="319"/>
-      <c r="H39" s="319"/>
-      <c r="I39" s="319"/>
-      <c r="J39" s="319"/>
-      <c r="K39" s="319"/>
-      <c r="L39" s="319"/>
-      <c r="M39" s="319"/>
-      <c r="N39" s="319"/>
-      <c r="O39" s="319"/>
-      <c r="P39" s="319"/>
-      <c r="Q39" s="319"/>
-      <c r="R39" s="319"/>
-      <c r="S39" s="319"/>
-      <c r="T39" s="319"/>
-      <c r="U39" s="319"/>
-      <c r="V39" s="319"/>
+      <c r="A39" s="316"/>
+      <c r="B39" s="316"/>
+      <c r="C39" s="316"/>
+      <c r="D39" s="316"/>
+      <c r="E39" s="316"/>
+      <c r="F39" s="316"/>
+      <c r="G39" s="316"/>
+      <c r="H39" s="316"/>
+      <c r="I39" s="316"/>
+      <c r="J39" s="316"/>
+      <c r="K39" s="316"/>
+      <c r="L39" s="316"/>
+      <c r="M39" s="316"/>
+      <c r="N39" s="316"/>
+      <c r="O39" s="316"/>
+      <c r="P39" s="316"/>
+      <c r="Q39" s="316"/>
+      <c r="R39" s="316"/>
+      <c r="S39" s="316"/>
+      <c r="T39" s="316"/>
+      <c r="U39" s="316"/>
+      <c r="V39" s="316"/>
       <c r="W39" s="65"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
@@ -30022,29 +30013,29 @@
   <sheetData>
     <row r="1" spans="1:36" ht="14.1" customHeight="1"/>
     <row r="3" spans="1:36" ht="34.5" customHeight="1">
-      <c r="A3" s="325" t="s">
+      <c r="A3" s="331" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="325"/>
-      <c r="C3" s="325"/>
-      <c r="D3" s="325"/>
-      <c r="E3" s="325"/>
-      <c r="F3" s="325"/>
-      <c r="G3" s="325"/>
-      <c r="H3" s="325"/>
-      <c r="I3" s="325"/>
-      <c r="J3" s="325"/>
-      <c r="K3" s="325"/>
-      <c r="L3" s="325"/>
-      <c r="M3" s="325"/>
-      <c r="N3" s="325"/>
-      <c r="O3" s="325"/>
-      <c r="P3" s="325"/>
-      <c r="Q3" s="325"/>
-      <c r="R3" s="325"/>
-      <c r="S3" s="325"/>
-      <c r="T3" s="325"/>
-      <c r="U3" s="325"/>
+      <c r="B3" s="331"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="331"/>
+      <c r="H3" s="331"/>
+      <c r="I3" s="331"/>
+      <c r="J3" s="331"/>
+      <c r="K3" s="331"/>
+      <c r="L3" s="331"/>
+      <c r="M3" s="331"/>
+      <c r="N3" s="331"/>
+      <c r="O3" s="331"/>
+      <c r="P3" s="331"/>
+      <c r="Q3" s="331"/>
+      <c r="R3" s="331"/>
+      <c r="S3" s="331"/>
+      <c r="T3" s="331"/>
+      <c r="U3" s="331"/>
       <c r="V3" s="120"/>
     </row>
     <row r="4" spans="1:36" ht="18.75" customHeight="1">
@@ -30138,18 +30129,18 @@
       <c r="D8" s="123"/>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
-      <c r="G8" s="328" t="s">
+      <c r="G8" s="333" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="328"/>
-      <c r="I8" s="328"/>
-      <c r="J8" s="328"/>
-      <c r="K8" s="328"/>
-      <c r="L8" s="328"/>
-      <c r="M8" s="328"/>
-      <c r="N8" s="328"/>
-      <c r="O8" s="328"/>
-      <c r="P8" s="328"/>
+      <c r="H8" s="333"/>
+      <c r="I8" s="333"/>
+      <c r="J8" s="333"/>
+      <c r="K8" s="333"/>
+      <c r="L8" s="333"/>
+      <c r="M8" s="333"/>
+      <c r="N8" s="333"/>
+      <c r="O8" s="333"/>
+      <c r="P8" s="333"/>
       <c r="Q8" s="46"/>
       <c r="R8" s="46"/>
       <c r="S8" s="46"/>
@@ -30166,16 +30157,16 @@
       <c r="D9" s="123"/>
       <c r="E9" s="120"/>
       <c r="F9" s="120"/>
-      <c r="G9" s="328"/>
-      <c r="H9" s="328"/>
-      <c r="I9" s="328"/>
-      <c r="J9" s="328"/>
-      <c r="K9" s="328"/>
-      <c r="L9" s="328"/>
-      <c r="M9" s="328"/>
-      <c r="N9" s="328"/>
-      <c r="O9" s="328"/>
-      <c r="P9" s="328"/>
+      <c r="G9" s="333"/>
+      <c r="H9" s="333"/>
+      <c r="I9" s="333"/>
+      <c r="J9" s="333"/>
+      <c r="K9" s="333"/>
+      <c r="L9" s="333"/>
+      <c r="M9" s="333"/>
+      <c r="N9" s="333"/>
+      <c r="O9" s="333"/>
+      <c r="P9" s="333"/>
       <c r="Q9" s="46"/>
       <c r="R9" s="46"/>
       <c r="S9" s="46"/>
@@ -30208,98 +30199,98 @@
       <c r="W10" s="202"/>
     </row>
     <row r="11" spans="1:36" ht="21" customHeight="1">
-      <c r="B11" s="329" t="s">
+      <c r="B11" s="334" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="330"/>
-      <c r="D11" s="330"/>
-      <c r="E11" s="330"/>
-      <c r="F11" s="330"/>
-      <c r="G11" s="331"/>
-      <c r="H11" s="332" t="s">
+      <c r="C11" s="335"/>
+      <c r="D11" s="335"/>
+      <c r="E11" s="335"/>
+      <c r="F11" s="335"/>
+      <c r="G11" s="336"/>
+      <c r="H11" s="337" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="332"/>
-      <c r="J11" s="332"/>
-      <c r="K11" s="332"/>
-      <c r="L11" s="329" t="s">
+      <c r="I11" s="337"/>
+      <c r="J11" s="337"/>
+      <c r="K11" s="337"/>
+      <c r="L11" s="334" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="330"/>
-      <c r="N11" s="331"/>
-      <c r="O11" s="329" t="s">
+      <c r="M11" s="335"/>
+      <c r="N11" s="336"/>
+      <c r="O11" s="334" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="330"/>
-      <c r="Q11" s="330"/>
-      <c r="R11" s="331"/>
-      <c r="S11" s="332" t="s">
+      <c r="P11" s="335"/>
+      <c r="Q11" s="335"/>
+      <c r="R11" s="336"/>
+      <c r="S11" s="337" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="332"/>
-      <c r="U11" s="332"/>
-      <c r="V11" s="332"/>
+      <c r="T11" s="337"/>
+      <c r="U11" s="337"/>
+      <c r="V11" s="337"/>
       <c r="W11" s="137"/>
     </row>
     <row r="12" spans="1:36" ht="21" customHeight="1">
-      <c r="B12" s="339" t="s">
+      <c r="B12" s="329" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="335"/>
-      <c r="D12" s="335"/>
-      <c r="E12" s="335"/>
-      <c r="F12" s="335"/>
-      <c r="G12" s="335"/>
-      <c r="H12" s="335" t="s">
+      <c r="C12" s="324"/>
+      <c r="D12" s="324"/>
+      <c r="E12" s="324"/>
+      <c r="F12" s="324"/>
+      <c r="G12" s="324"/>
+      <c r="H12" s="324" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="335"/>
-      <c r="J12" s="335"/>
-      <c r="K12" s="335"/>
-      <c r="L12" s="340" t="s">
+      <c r="I12" s="324"/>
+      <c r="J12" s="324"/>
+      <c r="K12" s="324"/>
+      <c r="L12" s="330" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="340"/>
-      <c r="N12" s="340"/>
-      <c r="O12" s="335" t="s">
+      <c r="M12" s="330"/>
+      <c r="N12" s="330"/>
+      <c r="O12" s="324" t="s">
         <v>119</v>
       </c>
-      <c r="P12" s="335"/>
-      <c r="Q12" s="335"/>
-      <c r="R12" s="335"/>
-      <c r="S12" s="336">
+      <c r="P12" s="324"/>
+      <c r="Q12" s="324"/>
+      <c r="R12" s="324"/>
+      <c r="S12" s="325">
         <v>42853</v>
       </c>
-      <c r="T12" s="336"/>
-      <c r="U12" s="336"/>
-      <c r="V12" s="336"/>
+      <c r="T12" s="325"/>
+      <c r="U12" s="325"/>
+      <c r="V12" s="325"/>
       <c r="W12" s="52"/>
       <c r="X12" s="52"/>
       <c r="Y12" s="52"/>
       <c r="Z12" s="79"/>
     </row>
     <row r="13" spans="1:36" ht="21" customHeight="1">
-      <c r="B13" s="335"/>
-      <c r="C13" s="335"/>
-      <c r="D13" s="335"/>
-      <c r="E13" s="335"/>
-      <c r="F13" s="335"/>
-      <c r="G13" s="335"/>
-      <c r="H13" s="335"/>
-      <c r="I13" s="335"/>
-      <c r="J13" s="335"/>
-      <c r="K13" s="335"/>
-      <c r="L13" s="340"/>
-      <c r="M13" s="340"/>
-      <c r="N13" s="340"/>
-      <c r="O13" s="335"/>
-      <c r="P13" s="335"/>
-      <c r="Q13" s="335"/>
-      <c r="R13" s="335"/>
-      <c r="S13" s="336"/>
-      <c r="T13" s="336"/>
-      <c r="U13" s="336"/>
-      <c r="V13" s="336"/>
+      <c r="B13" s="324"/>
+      <c r="C13" s="324"/>
+      <c r="D13" s="324"/>
+      <c r="E13" s="324"/>
+      <c r="F13" s="324"/>
+      <c r="G13" s="324"/>
+      <c r="H13" s="324"/>
+      <c r="I13" s="324"/>
+      <c r="J13" s="324"/>
+      <c r="K13" s="324"/>
+      <c r="L13" s="330"/>
+      <c r="M13" s="330"/>
+      <c r="N13" s="330"/>
+      <c r="O13" s="324"/>
+      <c r="P13" s="324"/>
+      <c r="Q13" s="324"/>
+      <c r="R13" s="324"/>
+      <c r="S13" s="325"/>
+      <c r="T13" s="325"/>
+      <c r="U13" s="325"/>
+      <c r="V13" s="325"/>
       <c r="AH13" s="52"/>
       <c r="AI13" s="52"/>
     </row>
@@ -30403,10 +30394,10 @@
       <c r="G19" s="120"/>
       <c r="H19" s="120"/>
       <c r="I19" s="129"/>
-      <c r="J19" s="326"/>
-      <c r="K19" s="327"/>
-      <c r="L19" s="327"/>
-      <c r="M19" s="327"/>
+      <c r="J19" s="332"/>
+      <c r="K19" s="326"/>
+      <c r="L19" s="326"/>
+      <c r="M19" s="326"/>
       <c r="O19" s="52"/>
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
@@ -30424,10 +30415,10 @@
       <c r="G20" s="120"/>
       <c r="H20" s="120"/>
       <c r="I20" s="129"/>
-      <c r="J20" s="327"/>
-      <c r="K20" s="327"/>
-      <c r="L20" s="327"/>
-      <c r="M20" s="327"/>
+      <c r="J20" s="326"/>
+      <c r="K20" s="326"/>
+      <c r="L20" s="326"/>
+      <c r="M20" s="326"/>
       <c r="O20" s="52"/>
       <c r="P20" s="52"/>
       <c r="Q20" s="52"/>
@@ -30700,16 +30691,16 @@
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
       <c r="E39" s="44"/>
-      <c r="F39" s="337"/>
-      <c r="G39" s="337"/>
-      <c r="H39" s="337"/>
-      <c r="I39" s="337"/>
+      <c r="F39" s="327"/>
+      <c r="G39" s="327"/>
+      <c r="H39" s="327"/>
+      <c r="I39" s="327"/>
       <c r="J39" s="209"/>
       <c r="K39" s="44"/>
-      <c r="L39" s="338"/>
-      <c r="M39" s="338"/>
-      <c r="N39" s="338"/>
-      <c r="O39" s="338"/>
+      <c r="L39" s="328"/>
+      <c r="M39" s="328"/>
+      <c r="N39" s="328"/>
+      <c r="O39" s="328"/>
       <c r="P39" s="44"/>
       <c r="Q39" s="44"/>
       <c r="R39" s="44"/>
@@ -30759,11 +30750,11 @@
       <c r="M41" s="44"/>
       <c r="N41" s="44"/>
       <c r="O41" s="44"/>
-      <c r="P41" s="333"/>
-      <c r="Q41" s="333"/>
-      <c r="R41" s="333"/>
-      <c r="S41" s="333"/>
-      <c r="T41" s="333"/>
+      <c r="P41" s="322"/>
+      <c r="Q41" s="322"/>
+      <c r="R41" s="322"/>
+      <c r="S41" s="322"/>
+      <c r="T41" s="322"/>
       <c r="U41" s="119"/>
       <c r="V41" s="119"/>
       <c r="W41" s="119"/>
@@ -30772,11 +30763,11 @@
       <c r="Z41" s="119"/>
     </row>
     <row r="42" spans="1:26" ht="18.75" customHeight="1">
-      <c r="D42" s="333"/>
-      <c r="E42" s="333"/>
-      <c r="F42" s="333"/>
-      <c r="G42" s="333"/>
-      <c r="H42" s="333"/>
+      <c r="D42" s="322"/>
+      <c r="E42" s="322"/>
+      <c r="F42" s="322"/>
+      <c r="G42" s="322"/>
+      <c r="H42" s="322"/>
       <c r="K42" s="44"/>
       <c r="N42" s="62"/>
       <c r="O42" s="62"/>
@@ -30792,26 +30783,26 @@
       <c r="Y42" s="119"/>
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A43" s="334"/>
-      <c r="B43" s="334"/>
-      <c r="C43" s="334"/>
-      <c r="D43" s="334"/>
-      <c r="E43" s="334"/>
-      <c r="F43" s="334"/>
-      <c r="G43" s="334"/>
-      <c r="H43" s="334"/>
-      <c r="I43" s="334"/>
-      <c r="J43" s="334"/>
-      <c r="K43" s="334"/>
-      <c r="L43" s="334"/>
-      <c r="M43" s="334"/>
-      <c r="N43" s="334"/>
-      <c r="O43" s="334"/>
-      <c r="P43" s="334"/>
-      <c r="Q43" s="334"/>
-      <c r="R43" s="334"/>
-      <c r="S43" s="334"/>
-      <c r="T43" s="334"/>
+      <c r="A43" s="323"/>
+      <c r="B43" s="323"/>
+      <c r="C43" s="323"/>
+      <c r="D43" s="323"/>
+      <c r="E43" s="323"/>
+      <c r="F43" s="323"/>
+      <c r="G43" s="323"/>
+      <c r="H43" s="323"/>
+      <c r="I43" s="323"/>
+      <c r="J43" s="323"/>
+      <c r="K43" s="323"/>
+      <c r="L43" s="323"/>
+      <c r="M43" s="323"/>
+      <c r="N43" s="323"/>
+      <c r="O43" s="323"/>
+      <c r="P43" s="323"/>
+      <c r="Q43" s="323"/>
+      <c r="R43" s="323"/>
+      <c r="S43" s="323"/>
+      <c r="T43" s="323"/>
       <c r="U43" s="213"/>
     </row>
     <row r="44" spans="1:26" ht="18.75" customHeight="1"/>
@@ -30835,6 +30826,14 @@
     <row r="62" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A3:U3"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="G8:P9"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="S11:V11"/>
     <mergeCell ref="D42:H42"/>
     <mergeCell ref="A43:T43"/>
     <mergeCell ref="O12:R13"/>
@@ -30846,14 +30845,6 @@
     <mergeCell ref="B12:G13"/>
     <mergeCell ref="H12:K13"/>
     <mergeCell ref="L12:N13"/>
-    <mergeCell ref="A3:U3"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="G8:P9"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="S11:V11"/>
   </mergeCells>
   <phoneticPr fontId="66" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.98425196850393704" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -30933,29 +30924,29 @@
       <c r="V2" s="66"/>
     </row>
     <row r="3" spans="1:22" ht="34.5" customHeight="1">
-      <c r="A3" s="341" t="s">
+      <c r="A3" s="352" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="341"/>
-      <c r="C3" s="341"/>
-      <c r="D3" s="341"/>
-      <c r="E3" s="341"/>
-      <c r="F3" s="341"/>
-      <c r="G3" s="341"/>
-      <c r="H3" s="341"/>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
-      <c r="K3" s="341"/>
-      <c r="L3" s="341"/>
-      <c r="M3" s="341"/>
-      <c r="N3" s="341"/>
-      <c r="O3" s="341"/>
-      <c r="P3" s="341"/>
-      <c r="Q3" s="341"/>
-      <c r="R3" s="341"/>
-      <c r="S3" s="341"/>
-      <c r="T3" s="341"/>
-      <c r="U3" s="341"/>
+      <c r="B3" s="352"/>
+      <c r="C3" s="352"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="352"/>
+      <c r="H3" s="352"/>
+      <c r="I3" s="352"/>
+      <c r="J3" s="352"/>
+      <c r="K3" s="352"/>
+      <c r="L3" s="352"/>
+      <c r="M3" s="352"/>
+      <c r="N3" s="352"/>
+      <c r="O3" s="352"/>
+      <c r="P3" s="352"/>
+      <c r="Q3" s="352"/>
+      <c r="R3" s="352"/>
+      <c r="S3" s="352"/>
+      <c r="T3" s="352"/>
+      <c r="U3" s="352"/>
       <c r="V3" s="80"/>
     </row>
     <row r="4" spans="1:22" ht="17.100000000000001" customHeight="1">
@@ -31146,513 +31137,513 @@
       <c r="O12" s="211"/>
       <c r="P12" s="211"/>
       <c r="Q12" s="211"/>
-      <c r="R12" s="359" t="str">
+      <c r="R12" s="339" t="str">
         <f>'Data Record'!$X$17</f>
         <v>Unit :</v>
       </c>
-      <c r="S12" s="359"/>
+      <c r="S12" s="339"/>
       <c r="T12" s="140" t="str">
         <f>'Data Record'!$Z$17</f>
         <v>µm</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="139" customFormat="1" ht="21" customHeight="1">
-      <c r="C13" s="342" t="s">
+      <c r="C13" s="353" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="342"/>
-      <c r="E13" s="342"/>
-      <c r="F13" s="354" t="s">
+      <c r="D13" s="353"/>
+      <c r="E13" s="353"/>
+      <c r="F13" s="358" t="s">
         <v>121</v>
       </c>
-      <c r="G13" s="355"/>
-      <c r="H13" s="355"/>
-      <c r="I13" s="355"/>
-      <c r="J13" s="355"/>
-      <c r="K13" s="355"/>
-      <c r="L13" s="355"/>
-      <c r="M13" s="355"/>
-      <c r="N13" s="355"/>
-      <c r="O13" s="356"/>
-      <c r="P13" s="343" t="s">
+      <c r="G13" s="359"/>
+      <c r="H13" s="359"/>
+      <c r="I13" s="359"/>
+      <c r="J13" s="359"/>
+      <c r="K13" s="359"/>
+      <c r="L13" s="359"/>
+      <c r="M13" s="359"/>
+      <c r="N13" s="359"/>
+      <c r="O13" s="360"/>
+      <c r="P13" s="354" t="s">
         <v>48</v>
       </c>
-      <c r="Q13" s="344"/>
-      <c r="R13" s="342" t="s">
+      <c r="Q13" s="355"/>
+      <c r="R13" s="353" t="s">
         <v>122</v>
       </c>
-      <c r="S13" s="342"/>
-      <c r="T13" s="342"/>
+      <c r="S13" s="353"/>
+      <c r="T13" s="353"/>
     </row>
     <row r="14" spans="1:22" s="139" customFormat="1" ht="21" customHeight="1">
-      <c r="C14" s="342"/>
-      <c r="D14" s="342"/>
-      <c r="E14" s="342"/>
-      <c r="F14" s="342">
+      <c r="C14" s="353"/>
+      <c r="D14" s="353"/>
+      <c r="E14" s="353"/>
+      <c r="F14" s="353">
         <v>1</v>
       </c>
-      <c r="G14" s="342"/>
-      <c r="H14" s="342">
+      <c r="G14" s="353"/>
+      <c r="H14" s="353">
         <v>2</v>
       </c>
-      <c r="I14" s="342"/>
-      <c r="J14" s="342">
+      <c r="I14" s="353"/>
+      <c r="J14" s="353">
         <v>3</v>
       </c>
-      <c r="K14" s="342"/>
-      <c r="L14" s="342">
+      <c r="K14" s="353"/>
+      <c r="L14" s="353">
         <v>4</v>
       </c>
-      <c r="M14" s="342"/>
-      <c r="N14" s="342">
+      <c r="M14" s="353"/>
+      <c r="N14" s="353">
         <v>5</v>
       </c>
-      <c r="O14" s="342"/>
-      <c r="P14" s="345"/>
-      <c r="Q14" s="346"/>
-      <c r="R14" s="342"/>
-      <c r="S14" s="342"/>
-      <c r="T14" s="342"/>
+      <c r="O14" s="353"/>
+      <c r="P14" s="356"/>
+      <c r="Q14" s="357"/>
+      <c r="R14" s="353"/>
+      <c r="S14" s="353"/>
+      <c r="T14" s="353"/>
     </row>
     <row r="15" spans="1:22" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C15" s="352">
+      <c r="C15" s="349">
         <f>'Data Record'!$A$20</f>
         <v>25</v>
       </c>
-      <c r="D15" s="352"/>
-      <c r="E15" s="352"/>
-      <c r="F15" s="353">
+      <c r="D15" s="349"/>
+      <c r="E15" s="349"/>
+      <c r="F15" s="350">
         <f>'Data Record'!$R$20</f>
         <v>0.01</v>
       </c>
-      <c r="G15" s="353"/>
-      <c r="H15" s="353">
+      <c r="G15" s="350"/>
+      <c r="H15" s="350">
         <f>'Data Record'!$R$21</f>
         <v>0.02</v>
       </c>
-      <c r="I15" s="353"/>
-      <c r="J15" s="353">
+      <c r="I15" s="350"/>
+      <c r="J15" s="350">
         <f>'Data Record'!$R$22</f>
         <v>0.03</v>
       </c>
-      <c r="K15" s="353"/>
-      <c r="L15" s="353">
+      <c r="K15" s="350"/>
+      <c r="L15" s="350">
         <f>'Data Record'!$R$23</f>
         <v>0.04</v>
       </c>
-      <c r="M15" s="353"/>
-      <c r="N15" s="353">
+      <c r="M15" s="350"/>
+      <c r="N15" s="350">
         <f>'Data Record'!$R$24</f>
         <v>0.04</v>
       </c>
-      <c r="O15" s="353"/>
-      <c r="P15" s="357">
+      <c r="O15" s="350"/>
+      <c r="P15" s="351">
         <f>MAX('Data Record'!Y20:AA24)+MIN('Data Record'!Y20:AA24)</f>
-        <v>49.95</v>
-      </c>
-      <c r="Q15" s="357"/>
-      <c r="R15" s="347">
+        <v>-24.95</v>
+      </c>
+      <c r="Q15" s="351"/>
+      <c r="R15" s="348">
         <f>'Uncertainty Budget'!R7</f>
         <v>0.27014366809475882</v>
       </c>
-      <c r="S15" s="347"/>
-      <c r="T15" s="347"/>
+      <c r="S15" s="348"/>
+      <c r="T15" s="348"/>
     </row>
     <row r="16" spans="1:22" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C16" s="348">
+      <c r="C16" s="346">
         <f>'Data Record'!$A$25</f>
         <v>40</v>
       </c>
-      <c r="D16" s="348"/>
-      <c r="E16" s="348"/>
-      <c r="F16" s="349">
+      <c r="D16" s="346"/>
+      <c r="E16" s="346"/>
+      <c r="F16" s="347">
         <f>'Data Record'!R25</f>
         <v>0.01</v>
       </c>
-      <c r="G16" s="349"/>
-      <c r="H16" s="349">
+      <c r="G16" s="347"/>
+      <c r="H16" s="347">
         <f>'Data Record'!R26</f>
         <v>0.02</v>
       </c>
-      <c r="I16" s="349"/>
-      <c r="J16" s="349">
+      <c r="I16" s="347"/>
+      <c r="J16" s="347">
         <f>'Data Record'!R27</f>
         <v>0.03</v>
       </c>
-      <c r="K16" s="349"/>
-      <c r="L16" s="349">
+      <c r="K16" s="347"/>
+      <c r="L16" s="347">
         <f>'Data Record'!R28</f>
         <v>0.04</v>
       </c>
-      <c r="M16" s="349"/>
-      <c r="N16" s="349">
+      <c r="M16" s="347"/>
+      <c r="N16" s="347">
         <f>'Data Record'!R29</f>
         <v>0.04</v>
       </c>
-      <c r="O16" s="349"/>
-      <c r="P16" s="350">
+      <c r="O16" s="347"/>
+      <c r="P16" s="340">
         <f>MAX('Data Record'!Y25:AA29)+MIN('Data Record'!Y25:AA29)</f>
-        <v>79.95</v>
-      </c>
-      <c r="Q16" s="350"/>
-      <c r="R16" s="351">
+        <v>-39.950000000000003</v>
+      </c>
+      <c r="Q16" s="340"/>
+      <c r="R16" s="341">
         <f>'Uncertainty Budget'!R8</f>
         <v>0.27014398630713704</v>
       </c>
-      <c r="S16" s="351"/>
-      <c r="T16" s="351"/>
+      <c r="S16" s="341"/>
+      <c r="T16" s="341"/>
     </row>
     <row r="17" spans="1:22" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C17" s="348">
+      <c r="C17" s="346">
         <f>'Data Record'!$A$30</f>
         <v>50</v>
       </c>
-      <c r="D17" s="348"/>
-      <c r="E17" s="348"/>
-      <c r="F17" s="349">
+      <c r="D17" s="346"/>
+      <c r="E17" s="346"/>
+      <c r="F17" s="347">
         <f>'Data Record'!R30</f>
         <v>0.01</v>
       </c>
-      <c r="G17" s="349"/>
-      <c r="H17" s="349">
+      <c r="G17" s="347"/>
+      <c r="H17" s="347">
         <f>'Data Record'!R31</f>
         <v>0.02</v>
       </c>
-      <c r="I17" s="349"/>
-      <c r="J17" s="349">
+      <c r="I17" s="347"/>
+      <c r="J17" s="347">
         <f>'Data Record'!R32</f>
         <v>0.03</v>
       </c>
-      <c r="K17" s="349"/>
-      <c r="L17" s="349">
+      <c r="K17" s="347"/>
+      <c r="L17" s="347">
         <f>'Data Record'!R28</f>
         <v>0.04</v>
       </c>
-      <c r="M17" s="349"/>
-      <c r="N17" s="349">
+      <c r="M17" s="347"/>
+      <c r="N17" s="347">
         <f>'Data Record'!R29</f>
         <v>0.04</v>
       </c>
-      <c r="O17" s="349"/>
-      <c r="P17" s="350">
+      <c r="O17" s="347"/>
+      <c r="P17" s="340">
         <f>MAX('Data Record'!Y30:AA34)+MIN('Data Record'!Y30:AA34)</f>
-        <v>99.95</v>
-      </c>
-      <c r="Q17" s="350"/>
-      <c r="R17" s="351">
+        <v>-49.95</v>
+      </c>
+      <c r="Q17" s="340"/>
+      <c r="R17" s="341">
         <f>'Uncertainty Budget'!R9</f>
         <v>0.27014428003677399</v>
       </c>
-      <c r="S17" s="351"/>
-      <c r="T17" s="351"/>
+      <c r="S17" s="341"/>
+      <c r="T17" s="341"/>
     </row>
     <row r="18" spans="1:22" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C18" s="348">
+      <c r="C18" s="346">
         <f>'Data Record'!$A$35</f>
         <v>100</v>
       </c>
-      <c r="D18" s="348"/>
-      <c r="E18" s="348"/>
-      <c r="F18" s="349">
+      <c r="D18" s="346"/>
+      <c r="E18" s="346"/>
+      <c r="F18" s="347">
         <f>'Data Record'!R35</f>
         <v>0.01</v>
       </c>
-      <c r="G18" s="349"/>
-      <c r="H18" s="349">
+      <c r="G18" s="347"/>
+      <c r="H18" s="347">
         <f>'Data Record'!R36</f>
         <v>0.02</v>
       </c>
-      <c r="I18" s="349"/>
-      <c r="J18" s="349">
+      <c r="I18" s="347"/>
+      <c r="J18" s="347">
         <f>'Data Record'!R37</f>
         <v>0.03</v>
       </c>
-      <c r="K18" s="349"/>
-      <c r="L18" s="349">
+      <c r="K18" s="347"/>
+      <c r="L18" s="347">
         <f>'Data Record'!R38</f>
         <v>0.04</v>
       </c>
-      <c r="M18" s="349"/>
-      <c r="N18" s="349">
+      <c r="M18" s="347"/>
+      <c r="N18" s="347">
         <f>'Data Record'!R39</f>
         <v>0.04</v>
       </c>
-      <c r="O18" s="349"/>
-      <c r="P18" s="350">
+      <c r="O18" s="347"/>
+      <c r="P18" s="340">
         <f>MAX('Data Record'!Y35:AA39)+MIN('Data Record'!Y35:AA39)</f>
-        <v>199.95</v>
-      </c>
-      <c r="Q18" s="350"/>
-      <c r="R18" s="351">
+        <v>-99.949999999999989</v>
+      </c>
+      <c r="Q18" s="340"/>
+      <c r="R18" s="341">
         <f>'Uncertainty Budget'!R10</f>
         <v>0.27014672778555543</v>
       </c>
-      <c r="S18" s="351"/>
-      <c r="T18" s="351"/>
+      <c r="S18" s="341"/>
+      <c r="T18" s="341"/>
     </row>
     <row r="19" spans="1:22" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C19" s="348">
+      <c r="C19" s="346">
         <f>'Data Record'!$A$40</f>
         <v>200</v>
       </c>
-      <c r="D19" s="348"/>
-      <c r="E19" s="348"/>
-      <c r="F19" s="349">
+      <c r="D19" s="346"/>
+      <c r="E19" s="346"/>
+      <c r="F19" s="347">
         <f>'Data Record'!R40</f>
         <v>0.01</v>
       </c>
-      <c r="G19" s="349"/>
-      <c r="H19" s="349">
+      <c r="G19" s="347"/>
+      <c r="H19" s="347">
         <f>'Data Record'!R41</f>
         <v>0.02</v>
       </c>
-      <c r="I19" s="349"/>
-      <c r="J19" s="349">
+      <c r="I19" s="347"/>
+      <c r="J19" s="347">
         <f>'Data Record'!R42</f>
         <v>0.03</v>
       </c>
-      <c r="K19" s="349"/>
-      <c r="L19" s="349">
+      <c r="K19" s="347"/>
+      <c r="L19" s="347">
         <f>'Data Record'!R43</f>
         <v>0.04</v>
       </c>
-      <c r="M19" s="349"/>
-      <c r="N19" s="349">
+      <c r="M19" s="347"/>
+      <c r="N19" s="347">
         <f>'Data Record'!R44</f>
         <v>0.04</v>
       </c>
-      <c r="O19" s="349"/>
-      <c r="P19" s="350">
+      <c r="O19" s="347"/>
+      <c r="P19" s="340">
         <f>MAX('Data Record'!Y40:AA44)+MIN('Data Record'!Y40:AA44)</f>
-        <v>399.95000000000005</v>
-      </c>
-      <c r="Q19" s="350"/>
-      <c r="R19" s="351">
+        <v>-199.95000000000002</v>
+      </c>
+      <c r="Q19" s="340"/>
+      <c r="R19" s="341">
         <f>'Uncertainty Budget'!R11</f>
         <v>0.2701565185640929</v>
       </c>
-      <c r="S19" s="351"/>
-      <c r="T19" s="351"/>
+      <c r="S19" s="341"/>
+      <c r="T19" s="341"/>
     </row>
     <row r="20" spans="1:22" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C20" s="348">
+      <c r="C20" s="346">
         <f>'Data Record'!$A$45</f>
         <v>250</v>
       </c>
-      <c r="D20" s="348"/>
-      <c r="E20" s="348"/>
-      <c r="F20" s="349">
+      <c r="D20" s="346"/>
+      <c r="E20" s="346"/>
+      <c r="F20" s="347">
         <f>'Data Record'!R45</f>
         <v>0.01</v>
       </c>
-      <c r="G20" s="349"/>
-      <c r="H20" s="349">
+      <c r="G20" s="347"/>
+      <c r="H20" s="347">
         <f>'Data Record'!R46</f>
         <v>0.02</v>
       </c>
-      <c r="I20" s="349"/>
-      <c r="J20" s="349">
+      <c r="I20" s="347"/>
+      <c r="J20" s="347">
         <f>'Data Record'!R47</f>
         <v>0.03</v>
       </c>
-      <c r="K20" s="349"/>
-      <c r="L20" s="349">
+      <c r="K20" s="347"/>
+      <c r="L20" s="347">
         <f>'Data Record'!R48</f>
         <v>0.04</v>
       </c>
-      <c r="M20" s="349"/>
-      <c r="N20" s="349">
+      <c r="M20" s="347"/>
+      <c r="N20" s="347">
         <f>'Data Record'!R49</f>
         <v>0.04</v>
       </c>
-      <c r="O20" s="349"/>
-      <c r="P20" s="350">
+      <c r="O20" s="347"/>
+      <c r="P20" s="340">
         <f>MAX('Data Record'!Y45:AA49)+MIN('Data Record'!Y45:AA49)</f>
-        <v>499.95000000000005</v>
-      </c>
-      <c r="Q20" s="350"/>
-      <c r="R20" s="351">
+        <v>-249.95000000000002</v>
+      </c>
+      <c r="Q20" s="340"/>
+      <c r="R20" s="341">
         <f>'Uncertainty Budget'!R12</f>
         <v>0.27016386141669529</v>
       </c>
-      <c r="S20" s="351"/>
-      <c r="T20" s="351"/>
+      <c r="S20" s="341"/>
+      <c r="T20" s="341"/>
     </row>
     <row r="21" spans="1:22" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C21" s="348">
+      <c r="C21" s="346">
         <f>'Data Record'!$A$50</f>
         <v>300</v>
       </c>
-      <c r="D21" s="348"/>
-      <c r="E21" s="348"/>
-      <c r="F21" s="349">
+      <c r="D21" s="346"/>
+      <c r="E21" s="346"/>
+      <c r="F21" s="347">
         <f>'Data Record'!R50</f>
         <v>0.01</v>
       </c>
-      <c r="G21" s="349"/>
-      <c r="H21" s="349">
+      <c r="G21" s="347"/>
+      <c r="H21" s="347">
         <f>'Data Record'!R51</f>
         <v>0.02</v>
       </c>
-      <c r="I21" s="349"/>
-      <c r="J21" s="349">
+      <c r="I21" s="347"/>
+      <c r="J21" s="347">
         <f>'Data Record'!R52</f>
         <v>0.03</v>
       </c>
-      <c r="K21" s="349"/>
-      <c r="L21" s="349">
+      <c r="K21" s="347"/>
+      <c r="L21" s="347">
         <f>'Data Record'!R53</f>
         <v>0.04</v>
       </c>
-      <c r="M21" s="349"/>
-      <c r="N21" s="349">
+      <c r="M21" s="347"/>
+      <c r="N21" s="347">
         <f>'Data Record'!R54</f>
         <v>0.04</v>
       </c>
-      <c r="O21" s="349"/>
-      <c r="P21" s="350">
+      <c r="O21" s="347"/>
+      <c r="P21" s="340">
         <f>MAX('Data Record'!Y50:AA54)+MIN('Data Record'!Y50:AA54)</f>
-        <v>599.95000000000005</v>
-      </c>
-      <c r="Q21" s="350"/>
-      <c r="R21" s="351">
+        <v>-299.95</v>
+      </c>
+      <c r="Q21" s="340"/>
+      <c r="R21" s="341">
         <f>'Uncertainty Budget'!R13</f>
         <v>0.27017283574065593</v>
       </c>
-      <c r="S21" s="351"/>
-      <c r="T21" s="351"/>
+      <c r="S21" s="341"/>
+      <c r="T21" s="341"/>
     </row>
     <row r="22" spans="1:22" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C22" s="348">
+      <c r="C22" s="346">
         <f>'Data Record'!$A$55</f>
         <v>500</v>
       </c>
-      <c r="D22" s="348"/>
-      <c r="E22" s="348"/>
-      <c r="F22" s="349">
+      <c r="D22" s="346"/>
+      <c r="E22" s="346"/>
+      <c r="F22" s="347">
         <f>'Data Record'!R55</f>
         <v>0.01</v>
       </c>
-      <c r="G22" s="349"/>
-      <c r="H22" s="349">
+      <c r="G22" s="347"/>
+      <c r="H22" s="347">
         <f>'Data Record'!R56</f>
         <v>0.02</v>
       </c>
-      <c r="I22" s="349"/>
-      <c r="J22" s="349">
+      <c r="I22" s="347"/>
+      <c r="J22" s="347">
         <f>'Data Record'!R57</f>
         <v>0.03</v>
       </c>
-      <c r="K22" s="349"/>
-      <c r="L22" s="349">
+      <c r="K22" s="347"/>
+      <c r="L22" s="347">
         <f>'Data Record'!R58</f>
         <v>0.04</v>
       </c>
-      <c r="M22" s="349"/>
-      <c r="N22" s="349">
+      <c r="M22" s="347"/>
+      <c r="N22" s="347">
         <f>'Data Record'!R59</f>
         <v>0.04</v>
       </c>
-      <c r="O22" s="349"/>
-      <c r="P22" s="350">
+      <c r="O22" s="347"/>
+      <c r="P22" s="340">
         <f>MAX('Data Record'!Y55:AA59)+MIN('Data Record'!Y55:AA59)</f>
-        <v>999.95</v>
-      </c>
-      <c r="Q22" s="350"/>
-      <c r="R22" s="351">
+        <v>-499.95</v>
+      </c>
+      <c r="Q22" s="340"/>
+      <c r="R22" s="341">
         <f>'Uncertainty Budget'!R14</f>
         <v>0.27022504407496739</v>
       </c>
-      <c r="S22" s="351"/>
-      <c r="T22" s="351"/>
+      <c r="S22" s="341"/>
+      <c r="T22" s="341"/>
     </row>
     <row r="23" spans="1:22" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C23" s="348">
+      <c r="C23" s="346">
         <f>'Data Record'!$A$60</f>
         <v>700</v>
       </c>
-      <c r="D23" s="348"/>
-      <c r="E23" s="348"/>
-      <c r="F23" s="349">
+      <c r="D23" s="346"/>
+      <c r="E23" s="346"/>
+      <c r="F23" s="347">
         <f>'Data Record'!R60</f>
         <v>0.01</v>
       </c>
-      <c r="G23" s="349"/>
-      <c r="H23" s="349">
+      <c r="G23" s="347"/>
+      <c r="H23" s="347">
         <f>'Data Record'!R61</f>
         <v>0.02</v>
       </c>
-      <c r="I23" s="349"/>
-      <c r="J23" s="349">
+      <c r="I23" s="347"/>
+      <c r="J23" s="347">
         <f>'Data Record'!R62</f>
         <v>0.03</v>
       </c>
-      <c r="K23" s="349"/>
-      <c r="L23" s="349">
+      <c r="K23" s="347"/>
+      <c r="L23" s="347">
         <f>'Data Record'!R63</f>
         <v>0.04</v>
       </c>
-      <c r="M23" s="349"/>
-      <c r="N23" s="349">
+      <c r="M23" s="347"/>
+      <c r="N23" s="347">
         <f>'Data Record'!R64</f>
         <v>0.04</v>
       </c>
-      <c r="O23" s="349"/>
-      <c r="P23" s="350">
+      <c r="O23" s="347"/>
+      <c r="P23" s="340">
         <f>MAX('Data Record'!Y60:AA64)+MIN('Data Record'!Y60:AA64)</f>
-        <v>1399.95</v>
-      </c>
-      <c r="Q23" s="350"/>
-      <c r="R23" s="351">
+        <v>-699.95</v>
+      </c>
+      <c r="Q23" s="340"/>
+      <c r="R23" s="341">
         <f>'Uncertainty Budget'!R15</f>
         <v>0.27030333767668963</v>
       </c>
-      <c r="S23" s="351"/>
-      <c r="T23" s="351"/>
+      <c r="S23" s="341"/>
+      <c r="T23" s="341"/>
     </row>
     <row r="24" spans="1:22" s="139" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C24" s="360">
+      <c r="C24" s="342">
         <f>'Data Record'!$A$65</f>
         <v>900</v>
       </c>
-      <c r="D24" s="360"/>
-      <c r="E24" s="360"/>
-      <c r="F24" s="361">
+      <c r="D24" s="342"/>
+      <c r="E24" s="342"/>
+      <c r="F24" s="343">
         <f>'Data Record'!R65</f>
         <v>0.01</v>
       </c>
-      <c r="G24" s="361"/>
-      <c r="H24" s="361">
+      <c r="G24" s="343"/>
+      <c r="H24" s="343">
         <f>'Data Record'!R66</f>
         <v>0.02</v>
       </c>
-      <c r="I24" s="361"/>
-      <c r="J24" s="361">
+      <c r="I24" s="343"/>
+      <c r="J24" s="343">
         <f>'Data Record'!R67</f>
         <v>0.03</v>
       </c>
-      <c r="K24" s="361"/>
-      <c r="L24" s="361">
+      <c r="K24" s="343"/>
+      <c r="L24" s="343">
         <f>'Data Record'!R68</f>
         <v>0.04</v>
       </c>
-      <c r="M24" s="361"/>
-      <c r="N24" s="361">
+      <c r="M24" s="343"/>
+      <c r="N24" s="343">
         <f>'Data Record'!R69</f>
         <v>0.04</v>
       </c>
-      <c r="O24" s="361"/>
-      <c r="P24" s="362">
+      <c r="O24" s="343"/>
+      <c r="P24" s="344">
         <f>MAX('Data Record'!Y65:AA69)+MIN('Data Record'!Y65:AA69)</f>
-        <v>1799.95</v>
-      </c>
-      <c r="Q24" s="362"/>
-      <c r="R24" s="363">
+        <v>-899.95</v>
+      </c>
+      <c r="Q24" s="344"/>
+      <c r="R24" s="345">
         <f>'Uncertainty Budget'!R16</f>
         <v>0.27040769387872615</v>
       </c>
-      <c r="S24" s="363"/>
-      <c r="T24" s="363"/>
+      <c r="S24" s="345"/>
+      <c r="T24" s="345"/>
     </row>
     <row r="25" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="B25" s="75"/>
@@ -31746,30 +31737,30 @@
       <c r="U28" s="79"/>
     </row>
     <row r="29" spans="1:22" s="139" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="358" t="s">
+      <c r="A29" s="338" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="358"/>
-      <c r="C29" s="358"/>
-      <c r="D29" s="358"/>
-      <c r="E29" s="358"/>
-      <c r="F29" s="358"/>
-      <c r="G29" s="358"/>
-      <c r="H29" s="358"/>
-      <c r="I29" s="358"/>
-      <c r="J29" s="358"/>
-      <c r="K29" s="358"/>
-      <c r="L29" s="358"/>
-      <c r="M29" s="358"/>
-      <c r="N29" s="358"/>
-      <c r="O29" s="358"/>
-      <c r="P29" s="358"/>
-      <c r="Q29" s="358"/>
-      <c r="R29" s="358"/>
-      <c r="S29" s="358"/>
-      <c r="T29" s="358"/>
-      <c r="U29" s="358"/>
-      <c r="V29" s="358"/>
+      <c r="B29" s="338"/>
+      <c r="C29" s="338"/>
+      <c r="D29" s="338"/>
+      <c r="E29" s="338"/>
+      <c r="F29" s="338"/>
+      <c r="G29" s="338"/>
+      <c r="H29" s="338"/>
+      <c r="I29" s="338"/>
+      <c r="J29" s="338"/>
+      <c r="K29" s="338"/>
+      <c r="L29" s="338"/>
+      <c r="M29" s="338"/>
+      <c r="N29" s="338"/>
+      <c r="O29" s="338"/>
+      <c r="P29" s="338"/>
+      <c r="Q29" s="338"/>
+      <c r="R29" s="338"/>
+      <c r="S29" s="338"/>
+      <c r="T29" s="338"/>
+      <c r="U29" s="338"/>
+      <c r="V29" s="338"/>
     </row>
     <row r="30" spans="1:22" ht="17.100000000000001" customHeight="1">
       <c r="B30" s="79"/>
@@ -32005,6 +31996,82 @@
     <row r="239" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="A3:U3"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="P13:Q14"/>
+    <mergeCell ref="R13:T14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:T22"/>
     <mergeCell ref="A29:V29"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="P23:Q23"/>
@@ -32021,82 +32088,6 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A3:U3"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="P13:Q14"/>
-    <mergeCell ref="R13:T14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="F13:O13"/>
   </mergeCells>
   <phoneticPr fontId="66" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.98425196850393704" bottom="0" header="0" footer="0"/>
@@ -32120,7 +32111,7 @@
   </sheetPr>
   <dimension ref="A1:IV128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7:Q16"/>
     </sheetView>
   </sheetViews>
@@ -32146,33 +32137,33 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:256" ht="23.25">
-      <c r="B2" s="371" t="s">
+      <c r="B2" s="361" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="371"/>
-      <c r="D2" s="371"/>
-      <c r="E2" s="371"/>
-      <c r="F2" s="371"/>
-      <c r="G2" s="371"/>
-      <c r="H2" s="371"/>
-      <c r="I2" s="371"/>
-      <c r="J2" s="371"/>
-      <c r="K2" s="371"/>
-      <c r="L2" s="371"/>
-      <c r="M2" s="371"/>
-      <c r="N2" s="371"/>
-      <c r="O2" s="371"/>
-      <c r="P2" s="371"/>
-      <c r="Q2" s="371"/>
-      <c r="R2" s="371"/>
+      <c r="C2" s="361"/>
+      <c r="D2" s="361"/>
+      <c r="E2" s="361"/>
+      <c r="F2" s="361"/>
+      <c r="G2" s="361"/>
+      <c r="H2" s="361"/>
+      <c r="I2" s="361"/>
+      <c r="J2" s="361"/>
+      <c r="K2" s="361"/>
+      <c r="L2" s="361"/>
+      <c r="M2" s="361"/>
+      <c r="N2" s="361"/>
+      <c r="O2" s="361"/>
+      <c r="P2" s="361"/>
+      <c r="Q2" s="361"/>
+      <c r="R2" s="361"/>
     </row>
     <row r="3" spans="1:256">
-      <c r="B3" s="372"/>
-      <c r="C3" s="372"/>
-      <c r="D3" s="372"/>
-      <c r="E3" s="372"/>
-      <c r="F3" s="372"/>
-      <c r="G3" s="372"/>
+      <c r="B3" s="362"/>
+      <c r="C3" s="362"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="362"/>
+      <c r="F3" s="362"/>
+      <c r="G3" s="362"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -32180,40 +32171,40 @@
       <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:256">
-      <c r="B4" s="373" t="s">
+      <c r="B4" s="363" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="374"/>
-      <c r="D4" s="373" t="s">
+      <c r="C4" s="364"/>
+      <c r="D4" s="363" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="374"/>
-      <c r="F4" s="373" t="s">
+      <c r="E4" s="364"/>
+      <c r="F4" s="363" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="374"/>
-      <c r="H4" s="373" t="s">
+      <c r="G4" s="364"/>
+      <c r="H4" s="363" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="374"/>
-      <c r="J4" s="375" t="s">
+      <c r="I4" s="364"/>
+      <c r="J4" s="365" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="376"/>
-      <c r="L4" s="373" t="s">
+      <c r="K4" s="366"/>
+      <c r="L4" s="363" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="374"/>
-      <c r="N4" s="377" t="s">
+      <c r="M4" s="364"/>
+      <c r="N4" s="367" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="377" t="s">
+      <c r="O4" s="367" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="377" t="s">
+      <c r="P4" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="Q4" s="377" t="s">
+      <c r="Q4" s="367" t="s">
         <v>109</v>
       </c>
       <c r="R4" s="188" t="s">
@@ -32224,40 +32215,40 @@
       <c r="AB4" s="12"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="B5" s="367" t="str">
+      <c r="B5" s="369" t="str">
         <f>'Data Record'!Z17</f>
         <v>µm</v>
       </c>
-      <c r="C5" s="368"/>
-      <c r="D5" s="367" t="str">
+      <c r="C5" s="370"/>
+      <c r="D5" s="369" t="str">
         <f>B5</f>
         <v>µm</v>
       </c>
-      <c r="E5" s="368"/>
-      <c r="F5" s="367" t="str">
+      <c r="E5" s="370"/>
+      <c r="F5" s="369" t="str">
         <f>D5</f>
         <v>µm</v>
       </c>
-      <c r="G5" s="368"/>
-      <c r="H5" s="367" t="str">
+      <c r="G5" s="370"/>
+      <c r="H5" s="369" t="str">
         <f>F5</f>
         <v>µm</v>
       </c>
-      <c r="I5" s="368"/>
-      <c r="J5" s="367" t="str">
+      <c r="I5" s="370"/>
+      <c r="J5" s="369" t="str">
         <f>H5</f>
         <v>µm</v>
       </c>
-      <c r="K5" s="368"/>
-      <c r="L5" s="367" t="str">
+      <c r="K5" s="370"/>
+      <c r="L5" s="369" t="str">
         <f>J5</f>
         <v>µm</v>
       </c>
-      <c r="M5" s="368"/>
-      <c r="N5" s="378"/>
-      <c r="O5" s="378"/>
-      <c r="P5" s="378"/>
-      <c r="Q5" s="378"/>
+      <c r="M5" s="370"/>
+      <c r="N5" s="368"/>
+      <c r="O5" s="368"/>
+      <c r="P5" s="368"/>
+      <c r="Q5" s="368"/>
       <c r="R5" s="189" t="str">
         <f>L5</f>
         <v>µm</v>
@@ -32267,10 +32258,10 @@
       <c r="AB5" s="12"/>
     </row>
     <row r="6" spans="1:256" ht="18.75">
-      <c r="B6" s="369" t="s">
+      <c r="B6" s="371" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="370"/>
+      <c r="C6" s="372"/>
       <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
@@ -32323,11 +32314,11 @@
     </row>
     <row r="7" spans="1:256" ht="18.75">
       <c r="A7" s="12"/>
-      <c r="B7" s="364">
+      <c r="B7" s="373">
         <f>'Data Record'!A20</f>
         <v>25</v>
       </c>
-      <c r="C7" s="365"/>
+      <c r="C7" s="374"/>
       <c r="D7" s="18">
         <f>'Data Record'!U20</f>
         <v>6.5192024052026449E-3</v>
@@ -32395,11 +32386,11 @@
     </row>
     <row r="8" spans="1:256" ht="18.75">
       <c r="A8" s="12"/>
-      <c r="B8" s="364">
+      <c r="B8" s="373">
         <f>'Data Record'!A25</f>
         <v>40</v>
       </c>
-      <c r="C8" s="365"/>
+      <c r="C8" s="374"/>
       <c r="D8" s="18">
         <f>'Data Record'!U25</f>
         <v>6.5192024052026449E-3</v>
@@ -32467,11 +32458,11 @@
     </row>
     <row r="9" spans="1:256" ht="18.75">
       <c r="A9" s="12"/>
-      <c r="B9" s="364">
+      <c r="B9" s="373">
         <f>'Data Record'!A30</f>
         <v>50</v>
       </c>
-      <c r="C9" s="365"/>
+      <c r="C9" s="374"/>
       <c r="D9" s="18">
         <f>'Data Record'!U30</f>
         <v>6.5192024052026449E-3</v>
@@ -32773,11 +32764,11 @@
     </row>
     <row r="10" spans="1:256" ht="18.75">
       <c r="A10" s="12"/>
-      <c r="B10" s="364">
+      <c r="B10" s="373">
         <f>'Data Record'!A35</f>
         <v>100</v>
       </c>
-      <c r="C10" s="365"/>
+      <c r="C10" s="374"/>
       <c r="D10" s="18">
         <f>'Data Record'!U35</f>
         <v>6.5192024052026449E-3</v>
@@ -33079,11 +33070,11 @@
     </row>
     <row r="11" spans="1:256" ht="18.75">
       <c r="A11" s="12"/>
-      <c r="B11" s="364">
+      <c r="B11" s="373">
         <f>'Data Record'!A40</f>
         <v>200</v>
       </c>
-      <c r="C11" s="365"/>
+      <c r="C11" s="374"/>
       <c r="D11" s="18">
         <f>'Data Record'!U40</f>
         <v>6.5192024052026449E-3</v>
@@ -33385,11 +33376,11 @@
     </row>
     <row r="12" spans="1:256" ht="18.75">
       <c r="A12" s="12"/>
-      <c r="B12" s="364">
+      <c r="B12" s="373">
         <f>'Data Record'!A45</f>
         <v>250</v>
       </c>
-      <c r="C12" s="365"/>
+      <c r="C12" s="374"/>
       <c r="D12" s="18">
         <f>'Data Record'!U45</f>
         <v>6.5192024052026449E-3</v>
@@ -33688,11 +33679,11 @@
     </row>
     <row r="13" spans="1:256" ht="18.75">
       <c r="A13" s="12"/>
-      <c r="B13" s="364">
+      <c r="B13" s="373">
         <f>'Data Record'!A50</f>
         <v>300</v>
       </c>
-      <c r="C13" s="365"/>
+      <c r="C13" s="374"/>
       <c r="D13" s="18">
         <f>'Data Record'!U50</f>
         <v>6.5192024052026449E-3</v>
@@ -33991,11 +33982,11 @@
     </row>
     <row r="14" spans="1:256" ht="18.75">
       <c r="A14" s="12"/>
-      <c r="B14" s="364">
+      <c r="B14" s="373">
         <f>'Data Record'!A55</f>
         <v>500</v>
       </c>
-      <c r="C14" s="365"/>
+      <c r="C14" s="374"/>
       <c r="D14" s="18">
         <f>'Data Record'!U55</f>
         <v>6.5192024052026449E-3</v>
@@ -34294,11 +34285,11 @@
     </row>
     <row r="15" spans="1:256" ht="18.75">
       <c r="A15" s="12"/>
-      <c r="B15" s="364">
+      <c r="B15" s="373">
         <f>'Data Record'!A60</f>
         <v>700</v>
       </c>
-      <c r="C15" s="365"/>
+      <c r="C15" s="374"/>
       <c r="D15" s="18">
         <f>'Data Record'!U60</f>
         <v>6.5192024052026449E-3</v>
@@ -34597,11 +34588,11 @@
     </row>
     <row r="16" spans="1:256" ht="18.75">
       <c r="A16" s="12"/>
-      <c r="B16" s="364">
+      <c r="B16" s="373">
         <f>'Data Record'!A65</f>
         <v>900</v>
       </c>
-      <c r="C16" s="365"/>
+      <c r="C16" s="374"/>
       <c r="D16" s="18">
         <f>'Data Record'!U65</f>
         <v>6.5192024052026449E-3</v>
@@ -34900,8 +34891,8 @@
     </row>
     <row r="17" spans="1:256" ht="18.75" hidden="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="364"/>
-      <c r="C17" s="365"/>
+      <c r="B17" s="373"/>
+      <c r="C17" s="374"/>
       <c r="D17" s="18">
         <f>'Data Record'!T30</f>
         <v>0</v>
@@ -35200,8 +35191,8 @@
     </row>
     <row r="18" spans="1:256" ht="18.75" hidden="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="364"/>
-      <c r="C18" s="365"/>
+      <c r="B18" s="373"/>
+      <c r="C18" s="374"/>
       <c r="D18" s="18">
         <f>'Data Record'!T31</f>
         <v>0</v>
@@ -35499,8 +35490,8 @@
       <c r="IV18" s="12"/>
     </row>
     <row r="19" spans="1:256" ht="18.75" hidden="1">
-      <c r="B19" s="364"/>
-      <c r="C19" s="365"/>
+      <c r="B19" s="373"/>
+      <c r="C19" s="374"/>
       <c r="D19" s="18">
         <f>'Data Record'!T32</f>
         <v>0</v>
@@ -35798,8 +35789,8 @@
       <c r="IV19" s="12"/>
     </row>
     <row r="20" spans="1:256" ht="18.75" hidden="1">
-      <c r="B20" s="364"/>
-      <c r="C20" s="365"/>
+      <c r="B20" s="373"/>
+      <c r="C20" s="374"/>
       <c r="D20" s="18">
         <f>'Data Record'!T33</f>
         <v>0</v>
@@ -36616,11 +36607,11 @@
       <c r="H23" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="366">
+      <c r="I23" s="375">
         <f>(1-0.28)/(PI()*2*10^11)</f>
         <v>1.1459155902616464E-12</v>
       </c>
-      <c r="J23" s="366"/>
+      <c r="J23" s="375"/>
       <c r="K23" s="82"/>
       <c r="L23" s="83"/>
       <c r="M23" s="83"/>
@@ -36876,11 +36867,11 @@
       <c r="H24" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="366">
+      <c r="I24" s="375">
         <f>(1-0.28)/(PI()*2*10^11)</f>
         <v>1.1459155902616464E-12</v>
       </c>
-      <c r="J24" s="366"/>
+      <c r="J24" s="375"/>
       <c r="K24" s="82"/>
       <c r="L24" s="83"/>
       <c r="M24" s="83"/>
@@ -37139,11 +37130,11 @@
       <c r="H25" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="366">
+      <c r="I25" s="375">
         <f>(2.9/(2.5/1000))*(I23+I24)*(1+LN((0.0025^3)/((I23+I24)*2.9*((300/1000)/2))))</f>
         <v>2.8339031758891741E-8</v>
       </c>
-      <c r="J25" s="366"/>
+      <c r="J25" s="375"/>
       <c r="K25" s="85" t="s">
         <v>61</v>
       </c>
@@ -64025,6 +64016,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:C4"/>
@@ -64041,26 +64052,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -64104,14 +64095,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="26.25" customHeight="1">
-      <c r="B2" s="379" t="s">
+      <c r="B2" s="376" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="380"/>
-      <c r="D2" s="380"/>
-      <c r="E2" s="380"/>
-      <c r="F2" s="380"/>
-      <c r="G2" s="381"/>
+      <c r="C2" s="377"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="377"/>
+      <c r="F2" s="377"/>
+      <c r="G2" s="378"/>
       <c r="H2" s="89"/>
       <c r="I2" s="89"/>
       <c r="J2" s="89"/>
@@ -64131,16 +64122,16 @@
       <c r="X2" s="89"/>
     </row>
     <row r="3" spans="2:24" ht="23.25" customHeight="1">
-      <c r="B3" s="382" t="s">
+      <c r="B3" s="379" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="383"/>
-      <c r="D3" s="384"/>
-      <c r="E3" s="385">
+      <c r="C3" s="380"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="382">
         <v>42488</v>
       </c>
-      <c r="F3" s="386"/>
-      <c r="G3" s="387"/>
+      <c r="F3" s="383"/>
+      <c r="G3" s="384"/>
       <c r="H3" s="89"/>
       <c r="I3" s="89"/>
       <c r="J3" s="89"/>
